--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\dex\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9A5567-45F6-4548-80FD-9CEA07A04F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E18158-7DA8-4E22-BAA0-A1B79E0D30AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="741" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
@@ -636,7 +636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,8 +715,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -776,13 +782,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,9 +878,111 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,31 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -897,82 +1018,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1350,7 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="63"/>
+    <col min="5" max="6" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:6" x14ac:dyDescent="0.3">
@@ -1335,10 +1387,10 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="23">
         <v>3</v>
       </c>
     </row>
@@ -1346,10 +1398,10 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="23">
         <v>0</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="23">
         <v>3</v>
       </c>
     </row>
@@ -1357,10 +1409,10 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="23">
         <v>1</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="23">
         <v>4</v>
       </c>
     </row>
@@ -1368,10 +1420,10 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="23">
         <v>3</v>
       </c>
     </row>
@@ -1379,10 +1431,10 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="23">
         <v>3</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="23">
         <v>5</v>
       </c>
     </row>
@@ -1390,18 +1442,18 @@
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="23">
         <v>4</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="63">
+      <c r="E17" s="23">
         <v>5</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1409,10 +1461,10 @@
       <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="23">
         <v>6</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1420,10 +1472,10 @@
       <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="23">
         <v>7</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="23">
         <v>3</v>
       </c>
     </row>
@@ -1431,10 +1483,10 @@
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="23">
         <v>8</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1442,10 +1494,10 @@
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="23">
         <v>9</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1453,18 +1505,18 @@
       <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="23">
         <v>10</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="63">
+      <c r="E23" s="23">
         <v>11</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1472,10 +1524,10 @@
       <c r="D24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="23">
         <v>12</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1619,70 +1671,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2153,70 +2205,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2687,70 +2739,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3221,70 +3273,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3745,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6A0D78-098B-4B15-80C1-AFDE4502613B}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138:G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3755,57 +3807,57 @@
     <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="59.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="32">
         <v>100000000</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -3817,21 +3869,21 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="33">
         <v>100000</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="22">
         <v>30000</v>
       </c>
     </row>
@@ -3839,17 +3891,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="33">
         <v>1000000</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -3861,15 +3913,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="47">
+      <c r="E7" s="34">
         <v>150000000</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="34"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -3878,17 +3930,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="45">
         <v>200000000</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -3900,17 +3952,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="47">
         <v>20000000</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -3922,17 +3974,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="47">
         <v>2000000</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -3944,17 +3996,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="47">
         <v>1000000</v>
       </c>
-      <c r="F11" s="51"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -3966,17 +4018,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="41">
         <v>2000000</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -3988,17 +4040,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="41">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -4010,17 +4062,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="41">
         <v>4000000</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -4032,17 +4084,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="43">
         <v>500000000</v>
       </c>
-      <c r="F15" s="55"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -4054,17 +4106,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="43">
         <v>200000000</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -4076,17 +4128,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="43">
         <v>10000000</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -4094,35 +4146,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+    <row r="18" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" s="56" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -4137,7 +4189,7 @@
       <c r="D21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -4149,1367 +4201,1578 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="49">
         <v>0</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="49">
         <v>0</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="58" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="42" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="42" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
+      <c r="G24" s="64"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="42" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="42" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
+      <c r="G26" s="65"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="42" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
+      <c r="G27" s="66"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="50">
         <v>1</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="50">
         <v>2</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="59" t="s">
+      <c r="D28" s="50"/>
+      <c r="E28" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="43" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="43" t="s">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
+      <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="43" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="43" t="s">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="43" t="s">
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+      <c r="G33" s="66"/>
+    </row>
+    <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49">
         <v>2</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="49">
         <v>6</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="58" t="s">
+      <c r="D34" s="49"/>
+      <c r="E34" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="42" t="s">
+    <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="42" t="s">
+    <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="42" t="s">
+      <c r="G36" s="64"/>
+    </row>
+    <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="42" t="s">
+      <c r="G37" s="65"/>
+    </row>
+    <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="42" t="s">
+      <c r="G38" s="65"/>
+    </row>
+    <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="G39" s="66"/>
+    </row>
+    <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="50">
         <v>3</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="50">
         <v>0</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="50">
         <v>3</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="59" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="43" t="s">
+    <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="43" t="s">
+    <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="43" t="s">
+      <c r="G42" s="64"/>
+    </row>
+    <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="43" t="s">
+      <c r="G43" s="65"/>
+    </row>
+    <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="43" t="s">
+      <c r="G44" s="65"/>
+    </row>
+    <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
+      <c r="G45" s="66"/>
+    </row>
+    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="49">
         <v>4</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="49">
         <v>0</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="49">
         <v>4</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="58" t="s">
+      <c r="D46" s="49"/>
+      <c r="E46" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="42" t="s">
+    <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="42" t="s">
+    <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="42" t="s">
+      <c r="G48" s="64"/>
+    </row>
+    <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="42" t="s">
+      <c r="G49" s="65"/>
+    </row>
+    <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="42" t="s">
+      <c r="G50" s="65"/>
+    </row>
+    <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18">
+      <c r="G51" s="66"/>
+    </row>
+    <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="50">
         <v>5</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="50">
         <v>1</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="50">
         <v>3</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="59" t="s">
+      <c r="D52" s="50"/>
+      <c r="E52" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="43" t="s">
+    <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="43" t="s">
+    <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="43" t="s">
+      <c r="G54" s="64"/>
+    </row>
+    <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="43" t="s">
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="43" t="s">
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
+      <c r="G57" s="66"/>
+    </row>
+    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="49">
         <v>6</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="49">
         <v>1</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="49">
         <v>4</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="58" t="s">
+      <c r="D58" s="49"/>
+      <c r="E58" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="42" t="s">
+      <c r="F58" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="42" t="s">
+    <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="42" t="s">
+    <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="42" t="s">
+      <c r="G60" s="64"/>
+    </row>
+    <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="49"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="42" t="s">
+      <c r="G61" s="65"/>
+    </row>
+    <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="42" t="s">
+      <c r="G62" s="65"/>
+    </row>
+    <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18">
+      <c r="G63" s="66"/>
+    </row>
+    <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>7</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="50">
         <v>1</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="50">
         <v>7</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="59" t="s">
+      <c r="D64" s="50"/>
+      <c r="E64" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="43" t="s">
+    <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="43" t="s">
+    <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="43" t="s">
+      <c r="G66" s="64"/>
+    </row>
+    <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="43" t="s">
+      <c r="G67" s="65"/>
+    </row>
+    <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="43" t="s">
+      <c r="G68" s="65"/>
+    </row>
+    <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
+      <c r="G69" s="66"/>
+    </row>
+    <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="49">
         <v>8</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="49">
         <v>5</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="49">
         <v>3</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="58" t="s">
+      <c r="D70" s="49"/>
+      <c r="E70" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F70" s="42" t="s">
+      <c r="F70" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="42" t="s">
+    <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="49"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="42" t="s">
+    <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="49"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="42" t="s">
+      <c r="G72" s="64"/>
+    </row>
+    <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="49"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="42" t="s">
+      <c r="G73" s="65"/>
+    </row>
+    <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="49"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="42" t="s">
+      <c r="G74" s="65"/>
+    </row>
+    <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="18">
+      <c r="G75" s="66"/>
+    </row>
+    <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="50">
         <v>9</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="50">
         <v>5</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="50">
         <v>9</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="59" t="s">
+      <c r="D76" s="50"/>
+      <c r="E76" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="43" t="s">
+      <c r="F76" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="43" t="s">
+    <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="50"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="43" t="s">
+    <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="43" t="s">
+      <c r="G78" s="64"/>
+    </row>
+    <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="43" t="s">
+      <c r="G79" s="65"/>
+    </row>
+    <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="43" t="s">
+      <c r="G80" s="65"/>
+    </row>
+    <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
+      <c r="G81" s="66"/>
+    </row>
+    <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="49">
         <v>10</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="49">
         <v>6</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="49">
         <v>4</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="58" t="s">
+      <c r="D82" s="49"/>
+      <c r="E82" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F82" s="42" t="s">
+      <c r="F82" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="42" t="s">
+    <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="49"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="42" t="s">
+    <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="49"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="42" t="s">
+      <c r="G84" s="64"/>
+    </row>
+    <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="42" t="s">
+      <c r="G85" s="65"/>
+    </row>
+    <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="49"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="42" t="s">
+      <c r="G86" s="65"/>
+    </row>
+    <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="49"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="18">
+      <c r="G87" s="66"/>
+    </row>
+    <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="50">
         <v>11</v>
       </c>
-      <c r="B88" s="18">
+      <c r="B88" s="50">
         <v>4</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="50">
         <v>10</v>
       </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="60" t="s">
+      <c r="D88" s="50"/>
+      <c r="E88" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="F88" s="43" t="s">
+      <c r="F88" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="43" t="s">
+    <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="50"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="43" t="s">
+    <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="50"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="43" t="s">
+      <c r="G90" s="64"/>
+    </row>
+    <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="50"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="43" t="s">
+      <c r="G91" s="65"/>
+    </row>
+    <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="50"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="43" t="s">
+      <c r="G92" s="65"/>
+    </row>
+    <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="50"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="17">
+      <c r="G93" s="66"/>
+    </row>
+    <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="49">
         <v>12</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="49">
         <v>7</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="49">
         <v>11</v>
       </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="60" t="s">
+      <c r="D94" s="49"/>
+      <c r="E94" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F94" s="42" t="s">
+      <c r="F94" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="42" t="s">
+    <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="42" t="s">
+    <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="49"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="42" t="s">
+      <c r="G96" s="64"/>
+    </row>
+    <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="49"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="42" t="s">
+      <c r="G97" s="65"/>
+    </row>
+    <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="42" t="s">
+      <c r="G98" s="65"/>
+    </row>
+    <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="18">
+      <c r="G99" s="66"/>
+    </row>
+    <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="50">
         <v>13</v>
       </c>
-      <c r="B100" s="18">
+      <c r="B100" s="50">
         <v>11</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="50">
         <v>12</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="60" t="s">
+      <c r="D100" s="50"/>
+      <c r="E100" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="F100" s="43" t="s">
+      <c r="F100" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="43" t="s">
+    <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="50"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="43" t="s">
+    <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="50"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="43" t="s">
+      <c r="G102" s="64"/>
+    </row>
+    <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="50"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="43" t="s">
+      <c r="G103" s="65"/>
+    </row>
+    <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="50"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="43" t="s">
+      <c r="G104" s="65"/>
+    </row>
+    <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="50"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="17">
+      <c r="G105" s="66"/>
+    </row>
+    <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="49">
         <v>14</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="49">
         <v>3</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="49">
         <v>10</v>
       </c>
-      <c r="D106" s="17"/>
-      <c r="E106" s="60" t="s">
+      <c r="D106" s="49"/>
+      <c r="E106" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="F106" s="42" t="s">
+      <c r="F106" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="42" t="s">
+    <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="49"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="42" t="s">
+    <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="49"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="42" t="s">
+      <c r="G108" s="64"/>
+    </row>
+    <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="49"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="42" t="s">
+      <c r="G109" s="65"/>
+    </row>
+    <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="49"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="42" t="s">
+      <c r="G110" s="65"/>
+    </row>
+    <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="49"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="18">
+      <c r="G111" s="66"/>
+    </row>
+    <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="50">
         <v>15</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="50">
         <v>12</v>
       </c>
-      <c r="C112" s="18">
+      <c r="C112" s="50">
         <v>3</v>
       </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="59" t="s">
+      <c r="D112" s="50"/>
+      <c r="E112" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="F112" s="43" t="s">
+      <c r="F112" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="43" t="s">
+    <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="50"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="43" t="s">
+    <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="50"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="43" t="s">
+      <c r="G114" s="64"/>
+    </row>
+    <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="50"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="43" t="s">
+      <c r="G115" s="65"/>
+    </row>
+    <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="43" t="s">
+      <c r="G116" s="65"/>
+    </row>
+    <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="50"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17">
+      <c r="G117" s="66"/>
+    </row>
+    <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="49">
         <v>16</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="49">
         <v>8</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="49">
         <v>1</v>
       </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="58" t="s">
+      <c r="D118" s="49"/>
+      <c r="E118" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F118" s="42" t="s">
+      <c r="F118" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="42" t="s">
+    <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="49"/>
+      <c r="B119" s="49"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="42" t="s">
+    <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="49"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="42" t="s">
+      <c r="G120" s="64"/>
+    </row>
+    <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="49"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="58"/>
-      <c r="F122" s="42" t="s">
+      <c r="G121" s="65"/>
+    </row>
+    <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="49"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="42" t="s">
+      <c r="G122" s="65"/>
+    </row>
+    <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="49"/>
+      <c r="B123" s="49"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="18">
+      <c r="G123" s="66"/>
+    </row>
+    <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="50">
         <v>17</v>
       </c>
-      <c r="B124" s="18">
+      <c r="B124" s="50">
         <v>2</v>
       </c>
-      <c r="C124" s="18">
+      <c r="C124" s="50">
         <v>3</v>
       </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="59" t="s">
+      <c r="D124" s="50"/>
+      <c r="E124" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F124" s="43" t="s">
+      <c r="F124" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="59"/>
-      <c r="F125" s="43" t="s">
+    <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="50"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="52"/>
+      <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="59"/>
-      <c r="F126" s="43" t="s">
+    <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="50"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="43" t="s">
+      <c r="G126" s="64"/>
+    </row>
+    <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="50"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="59"/>
-      <c r="F128" s="43" t="s">
+      <c r="G127" s="65"/>
+    </row>
+    <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="50"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="52"/>
+      <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="43" t="s">
+      <c r="G128" s="65"/>
+    </row>
+    <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="50"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="17">
+      <c r="G129" s="66"/>
+    </row>
+    <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="49">
         <v>18</v>
       </c>
-      <c r="B130" s="17">
+      <c r="B130" s="49">
         <v>2</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="49">
         <v>9</v>
       </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="58" t="s">
+      <c r="D130" s="49"/>
+      <c r="E130" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F130" s="42" t="s">
+      <c r="F130" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="58"/>
-      <c r="F131" s="42" t="s">
+    <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="49"/>
+      <c r="B131" s="49"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="49"/>
+      <c r="E131" s="51"/>
+      <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="58"/>
-      <c r="F132" s="42" t="s">
+    <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="49"/>
+      <c r="B132" s="49"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="42" t="s">
+      <c r="G132" s="64"/>
+    </row>
+    <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="49"/>
+      <c r="B133" s="49"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="17"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="58"/>
-      <c r="F134" s="42" t="s">
+      <c r="G133" s="65"/>
+    </row>
+    <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="49"/>
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="17"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="58"/>
-      <c r="F135" s="42" t="s">
+      <c r="G134" s="65"/>
+    </row>
+    <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="49"/>
+      <c r="B135" s="49"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="51"/>
+      <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="18">
+      <c r="G135" s="66"/>
+    </row>
+    <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="50">
         <v>19</v>
       </c>
-      <c r="B136" s="18">
+      <c r="B136" s="50">
         <v>8</v>
       </c>
-      <c r="C136" s="18">
+      <c r="C136" s="50">
         <v>7</v>
       </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="59" t="s">
+      <c r="D136" s="50"/>
+      <c r="E136" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="F136" s="43" t="s">
+      <c r="F136" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="59"/>
-      <c r="F137" s="43" t="s">
+    <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="50"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="52"/>
+      <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="43" t="s">
+    <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="50"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="18"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="43" t="s">
+      <c r="G138" s="64"/>
+    </row>
+    <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="50"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="59"/>
-      <c r="F140" s="43" t="s">
+      <c r="G139" s="65"/>
+    </row>
+    <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="50"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="43" t="s">
+      <c r="G140" s="65"/>
+    </row>
+    <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="50"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="52"/>
+      <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
+      <c r="G141" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="155">
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="E94:E99"/>
+    <mergeCell ref="E100:E105"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="E124:E129"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="B15:C15"/>
@@ -5534,117 +5797,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="E94:E99"/>
-    <mergeCell ref="E100:E105"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="E124:E129"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E76:E81"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5666,47 +5818,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -6175,70 +6327,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -6709,70 +6861,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -7243,70 +7395,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -7777,70 +7929,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -8311,70 +8463,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -8845,70 +8997,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\dex\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E18158-7DA8-4E22-BAA0-A1B79E0D30AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823E391B-6402-4530-83C0-D691169E1894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="741" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 방법" sheetId="3" r:id="rId1"/>
-    <sheet name="Token &amp; Pool" sheetId="1" r:id="rId2"/>
-    <sheet name="teamVault" sheetId="18" r:id="rId3"/>
-    <sheet name="account(0)" sheetId="17" r:id="rId4"/>
-    <sheet name="account(1)" sheetId="2" r:id="rId5"/>
-    <sheet name="account(2)" sheetId="9" r:id="rId6"/>
-    <sheet name="account(3)" sheetId="10" r:id="rId7"/>
-    <sheet name="account(4)" sheetId="11" r:id="rId8"/>
-    <sheet name="account(5)" sheetId="12" r:id="rId9"/>
-    <sheet name="account(6)" sheetId="13" r:id="rId10"/>
-    <sheet name="account(7)" sheetId="14" r:id="rId11"/>
-    <sheet name="account(8)" sheetId="15" r:id="rId12"/>
-    <sheet name="account(9)" sheetId="16" r:id="rId13"/>
+    <sheet name="DEV" sheetId="20" r:id="rId2"/>
+    <sheet name="Token &amp; Pool" sheetId="1" r:id="rId3"/>
+    <sheet name="teamVault" sheetId="18" r:id="rId4"/>
+    <sheet name="account(0)" sheetId="17" r:id="rId5"/>
+    <sheet name="account(1)" sheetId="2" r:id="rId6"/>
+    <sheet name="account(2)" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId8"/>
+    <sheet name="account(3)" sheetId="10" r:id="rId9"/>
+    <sheet name="account(4)" sheetId="11" r:id="rId10"/>
+    <sheet name="account(5)" sheetId="12" r:id="rId11"/>
+    <sheet name="account(6)" sheetId="13" r:id="rId12"/>
+    <sheet name="account(7)" sheetId="14" r:id="rId13"/>
+    <sheet name="account(8)" sheetId="15" r:id="rId14"/>
+    <sheet name="account(9)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="160">
   <si>
     <t>.num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,10 +521,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x435a60858b904cc05622675176974287156a110fa2e989df0d11403a4afa81ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,6 +598,58 @@
   </si>
   <si>
     <t>0x49bc898dd0ED36A4fAB28781e5De54221357207A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEED 단위(ether)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prv key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,8 +657,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -636,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,6 +769,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +955,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -949,57 +1060,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1018,13 +1078,28 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1658,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3249EF3-9704-4D9B-A723-9CECDC10F83B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC702C08-9D3E-4E79-9994-7901BC09257B}">
   <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1671,70 +1746,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="A2" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2192,11 +2267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF7580F-E5AE-469A-9856-78DCFF4A5CC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8922E201-A17F-4A00-97D3-A8119F082C37}">
   <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:O2"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2205,70 +2280,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="A2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2726,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32326C88-10A4-4717-84DF-A73DF4691055}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3249EF3-9704-4D9B-A723-9CECDC10F83B}">
   <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2739,70 +2814,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="A2" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3260,6 +3335,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF7580F-E5AE-469A-9856-78DCFF4A5CC2}">
+  <dimension ref="A2:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14">
+        <v>5</v>
+      </c>
+      <c r="I5" s="14">
+        <v>6</v>
+      </c>
+      <c r="J5" s="14">
+        <v>7</v>
+      </c>
+      <c r="K5" s="14">
+        <v>8</v>
+      </c>
+      <c r="L5" s="14">
+        <v>9</v>
+      </c>
+      <c r="M5" s="14">
+        <v>10</v>
+      </c>
+      <c r="N5" s="14">
+        <v>11</v>
+      </c>
+      <c r="O5" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>17</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>18</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>19</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>20</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32326C88-10A4-4717-84DF-A73DF4691055}">
+  <dimension ref="A2:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14">
+        <v>5</v>
+      </c>
+      <c r="I5" s="14">
+        <v>6</v>
+      </c>
+      <c r="J5" s="14">
+        <v>7</v>
+      </c>
+      <c r="K5" s="14">
+        <v>8</v>
+      </c>
+      <c r="L5" s="14">
+        <v>9</v>
+      </c>
+      <c r="M5" s="14">
+        <v>10</v>
+      </c>
+      <c r="N5" s="14">
+        <v>11</v>
+      </c>
+      <c r="O5" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>17</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>18</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>19</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>20</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B9D497-5BF7-445D-ACBF-8CCEE66CEBB6}">
   <dimension ref="A2:O26"/>
   <sheetViews>
@@ -3273,70 +4416,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3794,10 +4937,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F661FF6-4AD5-40E4-982D-024A96661DAF}">
+  <dimension ref="B3:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6A0D78-098B-4B15-80C1-AFDE4502613B}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G138" sqref="G138:G141"/>
     </sheetView>
   </sheetViews>
@@ -3809,55 +5127,56 @@
     <col min="4" max="4" width="59.875" style="11" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="7" max="7" width="33.25" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="50">
         <v>100000000</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -3869,17 +5188,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="51">
         <v>100000</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -3891,17 +5210,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="51">
         <v>1000000</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -3913,15 +5232,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="34">
+      <c r="E7" s="52">
         <v>150000000</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="52"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -3930,17 +5249,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="38">
         <v>200000000</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -3952,17 +5271,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="40">
         <v>20000000</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -3974,17 +5293,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="40">
         <v>2000000</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -3996,17 +5315,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="40">
         <v>1000000</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -4018,17 +5337,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="34">
         <v>2000000</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -4040,17 +5359,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="34">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -4062,17 +5381,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="34">
         <v>4000000</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -4084,17 +5403,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="36">
         <v>500000000</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -4106,17 +5425,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="36">
         <v>200000000</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -4128,17 +5447,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="36">
         <v>10000000</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -4146,35 +5465,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" s="56" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
+    <row r="18" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -4196,1470 +5515,1685 @@
         <v>18</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49">
+      <c r="A22" s="32">
         <v>0</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="32">
         <v>0</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="51" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="31" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G22" s="65">
+        <v>40000000</v>
+      </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="51"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G23" s="65">
+        <v>1333.33</v>
+      </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="51"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="64"/>
+      <c r="G24" s="66"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="51"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="51"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="66"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50">
+      <c r="A28" s="33">
         <v>1</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="33">
         <v>2</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="52" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="30" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G28" s="69">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="52"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G29" s="69">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="52"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="64"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="52"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="52"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="65"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="52"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="66"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49">
+      <c r="A34" s="32">
         <v>2</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="32">
         <v>6</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="51" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="31" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G34" s="65">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="51"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G35" s="65">
+        <v>12500</v>
+      </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="51"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="64"/>
+      <c r="G36" s="66"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="51"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="51"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="65"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="51"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="66"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50">
+      <c r="A40" s="33">
         <v>3</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="33">
         <v>0</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="33">
         <v>3</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="52" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="30" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G40" s="69">
+        <v>1333.33</v>
+      </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="52"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G41" s="69">
+        <v>80000000</v>
+      </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="52"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="64"/>
+      <c r="G42" s="66"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="52"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="65"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="52"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="65"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="52"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="66"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49">
+      <c r="A46" s="32">
         <v>4</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="32">
         <v>0</v>
       </c>
-      <c r="C46" s="49">
+      <c r="C46" s="32">
         <v>4</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="51" t="s">
+      <c r="D46" s="32"/>
+      <c r="E46" s="31" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G46" s="65">
+        <v>1333.33</v>
+      </c>
     </row>
     <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="51"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G47" s="65">
+        <v>8000000</v>
+      </c>
     </row>
     <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="51"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="64"/>
+      <c r="G48" s="66"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="51"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="65"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="51"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="65"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="51"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="31"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="66"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="50">
+      <c r="A52" s="33">
         <v>5</v>
       </c>
-      <c r="B52" s="50">
+      <c r="B52" s="33">
         <v>1</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="33">
         <v>3</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="52" t="s">
+      <c r="D52" s="33"/>
+      <c r="E52" s="30" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G52" s="69">
+        <v>1250</v>
+      </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="52"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="30"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G53" s="69">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="52"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="64"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="52"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="65"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="52"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="65"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="52"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="66"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="49">
+      <c r="A58" s="32">
         <v>6</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="32">
         <v>1</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="32">
         <v>4</v>
       </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="51" t="s">
+      <c r="D58" s="32"/>
+      <c r="E58" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G58" s="65">
+        <v>2000</v>
+      </c>
     </row>
     <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="51"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G59" s="65">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="51"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="64"/>
+      <c r="G60" s="66"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="51"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="65"/>
+      <c r="G61" s="67"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="51"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="65"/>
+      <c r="G62" s="67"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="51"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="66"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="50">
+      <c r="A64" s="33">
         <v>7</v>
       </c>
-      <c r="B64" s="50">
+      <c r="B64" s="33">
         <v>1</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="33">
         <v>7</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="52" t="s">
+      <c r="D64" s="33"/>
+      <c r="E64" s="30" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G64" s="69">
+        <v>2000</v>
+      </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="52"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="30"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G65" s="69">
+        <v>800000</v>
+      </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="52"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="30"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="64"/>
+      <c r="G66" s="66"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="52"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="30"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="65"/>
+      <c r="G67" s="67"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="52"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="65"/>
+      <c r="G68" s="67"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="52"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="30"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="66"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="49">
+      <c r="A70" s="32">
         <v>8</v>
       </c>
-      <c r="B70" s="49">
+      <c r="B70" s="32">
         <v>5</v>
       </c>
-      <c r="C70" s="49">
+      <c r="C70" s="32">
         <v>3</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="51" t="s">
+      <c r="D70" s="32"/>
+      <c r="E70" s="31" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G70" s="65">
+        <v>62500</v>
+      </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="51"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G71" s="65">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="51"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="31"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="64"/>
+      <c r="G72" s="66"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="49"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="51"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="31"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="65"/>
+      <c r="G73" s="67"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="51"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="31"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="65"/>
+      <c r="G74" s="67"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="51"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="66"/>
+      <c r="G75" s="68"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="50">
+      <c r="A76" s="33">
         <v>9</v>
       </c>
-      <c r="B76" s="50">
+      <c r="B76" s="33">
         <v>5</v>
       </c>
-      <c r="C76" s="50">
+      <c r="C76" s="33">
         <v>9</v>
       </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="52" t="s">
+      <c r="D76" s="33"/>
+      <c r="E76" s="30" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G76" s="69">
+        <v>26666.66</v>
+      </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="52"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="30"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G77" s="69">
+        <v>1600000</v>
+      </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="52"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="30"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="64"/>
+      <c r="G78" s="66"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="52"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="30"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="65"/>
+      <c r="G79" s="67"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="52"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="65"/>
+      <c r="G80" s="67"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="52"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="30"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="66"/>
+      <c r="G81" s="68"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="49">
+      <c r="A82" s="32">
         <v>10</v>
       </c>
-      <c r="B82" s="49">
+      <c r="B82" s="32">
         <v>6</v>
       </c>
-      <c r="C82" s="49">
+      <c r="C82" s="32">
         <v>4</v>
       </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="51" t="s">
+      <c r="D82" s="32"/>
+      <c r="E82" s="31" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G82" s="65">
+        <v>10000</v>
+      </c>
     </row>
     <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="51"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G83" s="65">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="51"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="64"/>
+      <c r="G84" s="66"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="51"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="65"/>
+      <c r="G85" s="67"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="51"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="31"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="65"/>
+      <c r="G86" s="67"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="51"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="31"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="66"/>
+      <c r="G87" s="68"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="50">
+      <c r="A88" s="33">
         <v>11</v>
       </c>
-      <c r="B88" s="50">
+      <c r="B88" s="33">
         <v>4</v>
       </c>
-      <c r="C88" s="50">
+      <c r="C88" s="33">
         <v>10</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="57" t="s">
+      <c r="D88" s="33"/>
+      <c r="E88" s="29" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G88" s="69">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="57"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="29"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G89" s="69">
+        <v>40000000</v>
+      </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="50"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="57"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="29"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="64"/>
+      <c r="G90" s="66"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="50"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="57"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="29"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="65"/>
+      <c r="G91" s="67"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="50"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="57"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="29"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="65"/>
+      <c r="G92" s="67"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="50"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="57"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="29"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="66"/>
+      <c r="G93" s="68"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="49">
+      <c r="A94" s="32">
         <v>12</v>
       </c>
-      <c r="B94" s="49">
+      <c r="B94" s="32">
         <v>7</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="32">
         <v>11</v>
       </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="57" t="s">
+      <c r="D94" s="32"/>
+      <c r="E94" s="29" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G94" s="65">
+        <v>200000</v>
+      </c>
     </row>
     <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="57"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="29"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G95" s="65">
+        <v>2000000</v>
+      </c>
     </row>
     <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="57"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="29"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="64"/>
+      <c r="G96" s="66"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="49"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="57"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="29"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="65"/>
+      <c r="G97" s="67"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="57"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="29"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="65"/>
+      <c r="G98" s="67"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="57"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="29"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="66"/>
+      <c r="G99" s="68"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="50">
+      <c r="A100" s="33">
         <v>13</v>
       </c>
-      <c r="B100" s="50">
+      <c r="B100" s="33">
         <v>11</v>
       </c>
-      <c r="C100" s="50">
+      <c r="C100" s="33">
         <v>12</v>
       </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="57" t="s">
+      <c r="D100" s="33"/>
+      <c r="E100" s="29" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G100" s="69">
+        <v>90000000</v>
+      </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="50"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="57"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="29"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G101" s="69">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="50"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="57"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="29"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="64"/>
+      <c r="G102" s="66"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="50"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="57"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="29"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="65"/>
+      <c r="G103" s="67"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="50"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="57"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="29"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="65"/>
+      <c r="G104" s="67"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="50"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="57"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="29"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="66"/>
+      <c r="G105" s="68"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="49">
+      <c r="A106" s="32">
         <v>14</v>
       </c>
-      <c r="B106" s="49">
+      <c r="B106" s="32">
         <v>3</v>
       </c>
-      <c r="C106" s="49">
+      <c r="C106" s="32">
         <v>10</v>
       </c>
-      <c r="D106" s="49"/>
-      <c r="E106" s="57" t="s">
+      <c r="D106" s="32"/>
+      <c r="E106" s="29" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G106" s="65">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="49"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="57"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="29"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G107" s="65">
+        <v>25000000</v>
+      </c>
     </row>
     <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="49"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49"/>
-      <c r="E108" s="57"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="29"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="64"/>
+      <c r="G108" s="66"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="49"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="57"/>
+      <c r="A109" s="32"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="29"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="65"/>
+      <c r="G109" s="67"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="49"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="57"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="29"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="65"/>
+      <c r="G110" s="67"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="49"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="49"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="57"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="29"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="66"/>
+      <c r="G111" s="68"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="50">
+      <c r="A112" s="33">
         <v>15</v>
       </c>
-      <c r="B112" s="50">
+      <c r="B112" s="33">
         <v>12</v>
       </c>
-      <c r="C112" s="50">
+      <c r="C112" s="33">
         <v>3</v>
       </c>
-      <c r="D112" s="50"/>
-      <c r="E112" s="52" t="s">
+      <c r="D112" s="33"/>
+      <c r="E112" s="30" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G112" s="69">
+        <v>277777.77</v>
+      </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="50"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="52"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="30"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G113" s="69">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="50"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="52"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="30"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="64"/>
+      <c r="G114" s="66"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="50"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="52"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="30"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="65"/>
+      <c r="G115" s="67"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="50"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="52"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="30"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="65"/>
+      <c r="G116" s="67"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="50"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="52"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="30"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="66"/>
+      <c r="G117" s="68"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="49">
+      <c r="A118" s="32">
         <v>16</v>
       </c>
-      <c r="B118" s="49">
+      <c r="B118" s="32">
         <v>8</v>
       </c>
-      <c r="C118" s="49">
+      <c r="C118" s="32">
         <v>1</v>
       </c>
-      <c r="D118" s="49"/>
-      <c r="E118" s="51" t="s">
+      <c r="D118" s="32"/>
+      <c r="E118" s="31" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G118" s="65">
+        <v>400000000</v>
+      </c>
     </row>
     <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="49"/>
-      <c r="B119" s="49"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="49"/>
-      <c r="E119" s="51"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="31"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G119" s="65">
+        <v>8000</v>
+      </c>
     </row>
     <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="49"/>
-      <c r="B120" s="49"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="49"/>
-      <c r="E120" s="51"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="31"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="64"/>
+      <c r="G120" s="66"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="49"/>
-      <c r="B121" s="49"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="49"/>
-      <c r="E121" s="51"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="31"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="65"/>
+      <c r="G121" s="67"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="49"/>
-      <c r="B122" s="49"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="49"/>
-      <c r="E122" s="51"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="31"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="65"/>
+      <c r="G122" s="67"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="49"/>
-      <c r="B123" s="49"/>
-      <c r="C123" s="49"/>
-      <c r="D123" s="49"/>
-      <c r="E123" s="51"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="31"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="66"/>
+      <c r="G123" s="68"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="50">
+      <c r="A124" s="33">
         <v>17</v>
       </c>
-      <c r="B124" s="50">
+      <c r="B124" s="33">
         <v>2</v>
       </c>
-      <c r="C124" s="50">
+      <c r="C124" s="33">
         <v>3</v>
       </c>
-      <c r="D124" s="50"/>
-      <c r="E124" s="52" t="s">
+      <c r="D124" s="33"/>
+      <c r="E124" s="30" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G124" s="69">
+        <v>500000</v>
+      </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="50"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="50"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="52"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="30"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G125" s="69">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="50"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="52"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="30"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="64"/>
+      <c r="G126" s="66"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="50"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="50"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="52"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="30"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="65"/>
+      <c r="G127" s="67"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="50"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="50"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="52"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="30"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="65"/>
+      <c r="G128" s="67"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="50"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="50"/>
-      <c r="D129" s="50"/>
-      <c r="E129" s="52"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="30"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="66"/>
+      <c r="G129" s="68"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="49">
+      <c r="A130" s="32">
         <v>18</v>
       </c>
-      <c r="B130" s="49">
+      <c r="B130" s="32">
         <v>2</v>
       </c>
-      <c r="C130" s="49">
+      <c r="C130" s="32">
         <v>9</v>
       </c>
-      <c r="D130" s="49"/>
-      <c r="E130" s="51" t="s">
+      <c r="D130" s="32"/>
+      <c r="E130" s="31" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="G130" s="65">
+        <v>120000</v>
+      </c>
     </row>
     <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="49"/>
-      <c r="B131" s="49"/>
-      <c r="C131" s="49"/>
-      <c r="D131" s="49"/>
-      <c r="E131" s="51"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="31"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G131" s="65">
+        <v>400000</v>
+      </c>
     </row>
     <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="49"/>
-      <c r="B132" s="49"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="51"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="31"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="64"/>
+      <c r="G132" s="66"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="49"/>
-      <c r="B133" s="49"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="49"/>
-      <c r="E133" s="51"/>
+      <c r="A133" s="32"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="65"/>
+      <c r="G133" s="67"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="49"/>
-      <c r="B134" s="49"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="49"/>
-      <c r="E134" s="51"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="31"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="65"/>
+      <c r="G134" s="67"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="49"/>
-      <c r="B135" s="49"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="51"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="31"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="66"/>
+      <c r="G135" s="68"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="50">
+      <c r="A136" s="33">
         <v>19</v>
       </c>
-      <c r="B136" s="50">
+      <c r="B136" s="33">
         <v>8</v>
       </c>
-      <c r="C136" s="50">
+      <c r="C136" s="33">
         <v>7</v>
       </c>
-      <c r="D136" s="50"/>
-      <c r="E136" s="52" t="s">
+      <c r="D136" s="33"/>
+      <c r="E136" s="30" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="G136" s="69">
+        <v>7500000</v>
+      </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="50"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="52"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="30"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G137" s="69">
+        <v>200000</v>
+      </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="50"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="52"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="30"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="64"/>
+      <c r="G138" s="66"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="50"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="50"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="52"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="30"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="65"/>
+      <c r="G139" s="67"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="50"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="52"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="30"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="65"/>
+      <c r="G140" s="67"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="50"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="52"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="30"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="66"/>
+      <c r="G141" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
     <mergeCell ref="A19:XFD19"/>
     <mergeCell ref="E94:E99"/>
     <mergeCell ref="E100:E105"/>
@@ -5684,119 +7218,24 @@
     <mergeCell ref="D118:D123"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="G30:G33"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5804,7 +7243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E5CA68-490A-4B2B-9DB4-714497531467}">
   <dimension ref="A2:O25"/>
   <sheetViews>
@@ -5818,47 +7257,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -6313,7 +7752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2321408-83DD-4F43-95F3-FF37CC27A6F1}">
   <dimension ref="A2:O26"/>
   <sheetViews>
@@ -6327,70 +7766,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -6847,7 +8286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671424AB-AC25-4E79-BB3D-454F486F0AFB}">
   <dimension ref="A2:O26"/>
   <sheetViews>
@@ -6861,70 +8300,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -7381,7 +8820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4334594-2967-4630-BBDB-4AD43A7D78DD}">
   <dimension ref="A2:O26"/>
   <sheetViews>
@@ -7395,604 +8834,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14">
-        <v>5</v>
-      </c>
-      <c r="I5" s="14">
-        <v>6</v>
-      </c>
-      <c r="J5" s="14">
-        <v>7</v>
-      </c>
-      <c r="K5" s="14">
-        <v>8</v>
-      </c>
-      <c r="L5" s="14">
-        <v>9</v>
-      </c>
-      <c r="M5" s="14">
-        <v>10</v>
-      </c>
-      <c r="N5" s="14">
-        <v>11</v>
-      </c>
-      <c r="O5" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>8</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>17</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>18</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>19</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:O3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492387C1-122B-4418-B7E0-2F5E1AC786F6}">
-  <dimension ref="A2:O26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:O2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -8450,7 +9355,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC702C08-9D3E-4E79-9994-7901BC09257B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6EFBAF-9AA7-4969-8FD3-2FA6526EF61A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492387C1-122B-4418-B7E0-2F5E1AC786F6}">
   <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8463,70 +9381,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="A2" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -8981,538 +9899,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8922E201-A17F-4A00-97D3-A8119F082C37}">
-  <dimension ref="A2:O26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14">
-        <v>5</v>
-      </c>
-      <c r="I5" s="14">
-        <v>6</v>
-      </c>
-      <c r="J5" s="14">
-        <v>7</v>
-      </c>
-      <c r="K5" s="14">
-        <v>8</v>
-      </c>
-      <c r="L5" s="14">
-        <v>9</v>
-      </c>
-      <c r="M5" s="14">
-        <v>10</v>
-      </c>
-      <c r="N5" s="14">
-        <v>11</v>
-      </c>
-      <c r="O5" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>8</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>17</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>18</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>19</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:O3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\dex\dex-doc\testsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\solidity\mkdocs\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823E391B-6402-4530-83C0-D691169E1894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C898A0B-C264-4266-A6C2-AEEB1DDCB1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <sheet name="account(8)" sheetId="15" r:id="rId14"/>
     <sheet name="account(9)" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="229">
   <si>
     <t>.num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,10 +603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -621,22 +615,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>token 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,11 +627,302 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pool2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token1</t>
+    <t>pool 2</t>
+  </si>
+  <si>
+    <t>token 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gtoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x21CB1A627380BAdAeF180e1346479d242aca90D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x950a8536720a9571EE73689a26Ed6A4a8fC94A3e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xdD6329588555F2F4c879A0951caF2f2cb033B26D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTeamVault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CObjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGovernanceBuilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa4C94BAD1ce8c9A5c29FDA1D78F7FF3faD3Af6Ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3c400E495305ce8B3C95786d417a8321Ad6F5E01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x89e477558DE2A4086BFAe47a8314e8F480fCBB75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x16cb1df05167eca13a21b02fF0475222261Eb84c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CDAOBuilder </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CStakableGToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7975536b47162D7756b8eDE9509B945863f0A82d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CManagerBuilder </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSwapPoolManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTokenManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLPTFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLPTStakingHolderFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSwapPoolFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSwapHelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xde958c16Df2DAfD2f07F943db73C3d7EA058dB5c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xaaA7745D4767fEb1a94CDdc8BAD9FeC8E664d948</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA2a5F6AC53DcFA34274810Eec72f18aE2f64FcbC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x373d6f42f8Fb276BEA08942BD27a8848A48962c4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xeb0aff4170a349ceda6549af42d91b56f9365428189d2f193b308f349eb46d07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x12ecFe223e576195e8F5D8c1D33fCAaC475BF3c4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x386DC06a396244043F448b227801E216DB4Ee454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa9B53D4635F22d2bFc0d1a3311dC3E6b692CD5fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x875c6280B75F8Ad7dbAdbB7cE788f7a502F9ec3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03515eDE4B0c554b8891C7EEA818A2CC65561334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x658a3a6065E16FE42D8a51CC00b0870e850909F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFf8EF2b0054Edf1A722186CE62BBE4323951e99B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x69908c50c12b5e7aa84fe245a107431ea666ceb650b31a55c28e9bf2987d74c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x086f7A53701dde5Ca7a5d63a455B6d222A18794C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xBb0DE1A70151547C1D9774BF33d2fFb0CF8fe477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staking Holder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7A48134a0739347Aa534C319727189E66ac5847F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xBd27323a06EF87E29f491a70Dff5bd600a5f579d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4Bc90B788a4c35e12FA8b70713F80eF891eA972a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF9cAEEBBB2E6c1b56D5b0041f36F5423E49ba17e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 / 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staking holder/LPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap pool 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap pool 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 / 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool의 자산 상태 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSwapPool의 inqueryAssets()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool의 통계 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSwapPoolManager의 inqueryDailyStats()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>functions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contracts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDAOHelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1975D19F93A75A4ad3B8862a96E3a3dB55686f8c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C &gt; B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSwapHelper의 exchange() -&gt; Governor의 몫 CStakableGToken에 적립됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,9 +930,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -687,7 +961,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,8 +1052,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -876,13 +1168,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,56 +1312,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1022,9 +1337,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1372,66 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1078,28 +1450,109 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1746,70 +2199,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2280,70 +2733,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2814,70 +3267,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3348,70 +3801,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3882,70 +4335,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4416,70 +4869,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4938,176 +5391,1071 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F661FF6-4AD5-40E4-982D-024A96661DAF}">
-  <dimension ref="B3:K11"/>
+  <dimension ref="A2:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F18" sqref="F18:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9" style="23"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="72" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="77" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="77" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="76" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="76" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.25" style="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N2" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="93"/>
+      <c r="R2" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="S2" s="80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N3" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="24" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="24" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="90"/>
+      <c r="C6" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82">
+        <v>1000000</v>
+      </c>
+      <c r="O6" s="82">
+        <v>200</v>
+      </c>
+      <c r="P6" s="96">
+        <v>10000000</v>
+      </c>
+      <c r="Q6" s="94">
+        <v>10000000</v>
+      </c>
+      <c r="R6" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="S6" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="84">
+        <v>998800</v>
+      </c>
+      <c r="O7" s="84"/>
+      <c r="P7" s="95">
+        <v>9999960</v>
+      </c>
+      <c r="Q7" s="95">
+        <v>9999970</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-    </row>
-    <row r="5" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B10" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="74">
+        <v>150000000</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="C11" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="74">
+        <v>10000000</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="74">
+        <v>10000000</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="11">
+        <v>20</v>
+      </c>
+      <c r="E15" s="71">
+        <v>40</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="98"/>
+      <c r="B16" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="99"/>
+      <c r="B17" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="11">
+        <v>10</v>
+      </c>
+      <c r="E18" s="71">
+        <v>30</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="98"/>
+      <c r="B19" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="99"/>
+      <c r="B20" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+    </row>
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>3</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B26" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>5</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>6</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>7</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>8</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <v>9</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-    </row>
-    <row r="9" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="B31" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>10</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>11</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>12</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>13</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>14</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>15</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>16</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="104"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="11">
+        <v>1</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="100" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="11">
+        <v>2</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="11">
+        <v>3</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="11"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="11"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E7:K7"/>
+  <mergeCells count="83">
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F46:M46"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A8:S8"/>
+    <mergeCell ref="A13:S13"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5133,50 +6481,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="36">
         <v>100000000</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -5188,17 +6536,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="37">
         <v>100000</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -5210,17 +6558,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="37">
         <v>1000000</v>
       </c>
-      <c r="F6" s="51"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -5232,15 +6580,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="52">
+      <c r="E7" s="38">
         <v>150000000</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -5249,17 +6597,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="49">
         <v>200000000</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -5271,17 +6619,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="51">
         <v>20000000</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -5293,17 +6641,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="51">
         <v>2000000</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -5315,17 +6663,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="51">
         <v>1000000</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -5337,17 +6685,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="45">
         <v>2000000</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -5359,17 +6707,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="45">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -5381,17 +6729,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="45">
         <v>4000000</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -5403,17 +6751,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="47">
         <v>500000000</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -5425,17 +6773,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="47">
         <v>200000000</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -5447,17 +6795,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="47">
         <v>10000000</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -5465,35 +6813,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" s="60" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -5520,1567 +6868,1698 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32">
+      <c r="A22" s="53">
         <v>0</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="53">
         <v>0</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="31" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="55" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="26">
         <v>40000000</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="31"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="26">
         <v>1333.33</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="31"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="66"/>
+      <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="67"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="31"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="31"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="64"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33">
+      <c r="A28" s="54">
         <v>1</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="54">
         <v>2</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="30" t="s">
+      <c r="D28" s="54"/>
+      <c r="E28" s="56" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="69">
+      <c r="G28" s="27">
         <v>5000000</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="30"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="69">
+      <c r="G29" s="27">
         <v>1000000</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="30"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="66"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="30"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="67"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="30"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="67"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="68"/>
+      <c r="G33" s="64"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32">
+      <c r="A34" s="53">
         <v>2</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="53">
         <v>6</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="31" t="s">
+      <c r="D34" s="53"/>
+      <c r="E34" s="55" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="65">
+      <c r="G34" s="26">
         <v>5000000</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="26">
         <v>12500</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="31"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="66"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="31"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="67"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="31"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="67"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="68"/>
+      <c r="G39" s="64"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33">
+      <c r="A40" s="54">
         <v>3</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="54">
         <v>0</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="54">
         <v>3</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="30" t="s">
+      <c r="D40" s="54"/>
+      <c r="E40" s="56" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="69">
+      <c r="G40" s="27">
         <v>1333.33</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="30"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="56"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="69">
+      <c r="G41" s="27">
         <v>80000000</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="30"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="56"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="66"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="30"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="56"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="67"/>
+      <c r="G43" s="63"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="30"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="56"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="67"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="30"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="56"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="68"/>
+      <c r="G45" s="64"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32">
+      <c r="A46" s="53">
         <v>4</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="53">
         <v>0</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="53">
         <v>4</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="31" t="s">
+      <c r="D46" s="53"/>
+      <c r="E46" s="55" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="65">
+      <c r="G46" s="26">
         <v>1333.33</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G47" s="65">
+      <c r="G47" s="26">
         <v>8000000</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="31"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="55"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="66"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="31"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="67"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="31"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="55"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="67"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="68"/>
+      <c r="G51" s="64"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33">
+      <c r="A52" s="54">
         <v>5</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="54">
         <v>1</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="54">
         <v>3</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="30" t="s">
+      <c r="D52" s="54"/>
+      <c r="E52" s="56" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="69">
+      <c r="G52" s="27">
         <v>1250</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="30"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G53" s="69">
+      <c r="G53" s="27">
         <v>5000000</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="30"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="56"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="66"/>
+      <c r="G54" s="62"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="30"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="56"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="67"/>
+      <c r="G55" s="63"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="30"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="56"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="67"/>
+      <c r="G56" s="63"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="30"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="56"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="68"/>
+      <c r="G57" s="64"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32">
+      <c r="A58" s="53">
         <v>6</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="53">
         <v>1</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="53">
         <v>4</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="31" t="s">
+      <c r="D58" s="53"/>
+      <c r="E58" s="55" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="65">
+      <c r="G58" s="26">
         <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="31"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="55"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="65">
+      <c r="G59" s="26">
         <v>1000000</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="31"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="55"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="66"/>
+      <c r="G60" s="62"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="31"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="67"/>
+      <c r="G61" s="63"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="31"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="55"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="67"/>
+      <c r="G62" s="63"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="31"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="55"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="68"/>
+      <c r="G63" s="64"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33">
+      <c r="A64" s="54">
         <v>7</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64" s="54">
         <v>1</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="54">
         <v>7</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="30" t="s">
+      <c r="D64" s="54"/>
+      <c r="E64" s="56" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G64" s="69">
+      <c r="G64" s="27">
         <v>2000</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="30"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="56"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G65" s="69">
+      <c r="G65" s="27">
         <v>800000</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="30"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="56"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="66"/>
+      <c r="G66" s="62"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="30"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="67"/>
+      <c r="G67" s="63"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="30"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="56"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="67"/>
+      <c r="G68" s="63"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="30"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="68"/>
+      <c r="G69" s="64"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32">
+      <c r="A70" s="53">
         <v>8</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B70" s="53">
         <v>5</v>
       </c>
-      <c r="C70" s="32">
+      <c r="C70" s="53">
         <v>3</v>
       </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="31" t="s">
+      <c r="D70" s="53"/>
+      <c r="E70" s="55" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="65">
+      <c r="G70" s="26">
         <v>62500</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="31"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="55"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G71" s="65">
+      <c r="G71" s="26">
         <v>5000000</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="31"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="55"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="66"/>
+      <c r="G72" s="62"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="31"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="55"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="67"/>
+      <c r="G73" s="63"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="31"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="55"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="67"/>
+      <c r="G74" s="63"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="31"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="55"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="68"/>
+      <c r="G75" s="64"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33">
+      <c r="A76" s="54">
         <v>9</v>
       </c>
-      <c r="B76" s="33">
+      <c r="B76" s="54">
         <v>5</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C76" s="54">
         <v>9</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="30" t="s">
+      <c r="D76" s="54"/>
+      <c r="E76" s="56" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G76" s="69">
+      <c r="G76" s="27">
         <v>26666.66</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="30"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="56"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="69">
+      <c r="G77" s="27">
         <v>1600000</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="30"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="56"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="66"/>
+      <c r="G78" s="62"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="30"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="56"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="67"/>
+      <c r="G79" s="63"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="30"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="67"/>
+      <c r="G80" s="63"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="30"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="56"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="68"/>
+      <c r="G81" s="64"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32">
+      <c r="A82" s="53">
         <v>10</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="53">
         <v>6</v>
       </c>
-      <c r="C82" s="32">
+      <c r="C82" s="53">
         <v>4</v>
       </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="31" t="s">
+      <c r="D82" s="53"/>
+      <c r="E82" s="55" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G82" s="65">
+      <c r="G82" s="26">
         <v>10000</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="31"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="55"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G83" s="65">
+      <c r="G83" s="26">
         <v>1000000</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="31"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="55"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="66"/>
+      <c r="G84" s="62"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="31"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="55"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="67"/>
+      <c r="G85" s="63"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="31"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="55"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="67"/>
+      <c r="G86" s="63"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="31"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="55"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="68"/>
+      <c r="G87" s="64"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="33">
+      <c r="A88" s="54">
         <v>11</v>
       </c>
-      <c r="B88" s="33">
+      <c r="B88" s="54">
         <v>4</v>
       </c>
-      <c r="C88" s="33">
+      <c r="C88" s="54">
         <v>10</v>
       </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="29" t="s">
+      <c r="D88" s="54"/>
+      <c r="E88" s="61" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G88" s="69">
+      <c r="G88" s="27">
         <v>1000000</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="29"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="61"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G89" s="69">
+      <c r="G89" s="27">
         <v>40000000</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="29"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="61"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="66"/>
+      <c r="G90" s="62"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="29"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="61"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="67"/>
+      <c r="G91" s="63"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="29"/>
+      <c r="A92" s="54"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="61"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="67"/>
+      <c r="G92" s="63"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="29"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="61"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="68"/>
+      <c r="G93" s="64"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="32">
+      <c r="A94" s="53">
         <v>12</v>
       </c>
-      <c r="B94" s="32">
+      <c r="B94" s="53">
         <v>7</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C94" s="53">
         <v>11</v>
       </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="29" t="s">
+      <c r="D94" s="53"/>
+      <c r="E94" s="61" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="65">
+      <c r="G94" s="26">
         <v>200000</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="29"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="61"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G95" s="65">
+      <c r="G95" s="26">
         <v>2000000</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="29"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="61"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="66"/>
+      <c r="G96" s="62"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="29"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="61"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="67"/>
+      <c r="G97" s="63"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="29"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="61"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="67"/>
+      <c r="G98" s="63"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="29"/>
+      <c r="A99" s="53"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="61"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="68"/>
+      <c r="G99" s="64"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="33">
+      <c r="A100" s="54">
         <v>13</v>
       </c>
-      <c r="B100" s="33">
+      <c r="B100" s="54">
         <v>11</v>
       </c>
-      <c r="C100" s="33">
+      <c r="C100" s="54">
         <v>12</v>
       </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="29" t="s">
+      <c r="D100" s="54"/>
+      <c r="E100" s="61" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G100" s="69">
+      <c r="G100" s="27">
         <v>90000000</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="29"/>
+      <c r="A101" s="54"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="61"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G101" s="69">
+      <c r="G101" s="27">
         <v>5000000</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="29"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="61"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="66"/>
+      <c r="G102" s="62"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="29"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="61"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="67"/>
+      <c r="G103" s="63"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="29"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="61"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="67"/>
+      <c r="G104" s="63"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="29"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="61"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="68"/>
+      <c r="G105" s="64"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="32">
+      <c r="A106" s="53">
         <v>14</v>
       </c>
-      <c r="B106" s="32">
+      <c r="B106" s="53">
         <v>3</v>
       </c>
-      <c r="C106" s="32">
+      <c r="C106" s="53">
         <v>10</v>
       </c>
-      <c r="D106" s="32"/>
-      <c r="E106" s="29" t="s">
+      <c r="D106" s="53"/>
+      <c r="E106" s="61" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G106" s="65">
+      <c r="G106" s="26">
         <v>5000000</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="29"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="61"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G107" s="65">
+      <c r="G107" s="26">
         <v>25000000</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="29"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="61"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="66"/>
+      <c r="G108" s="62"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="32"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="29"/>
+      <c r="A109" s="53"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="61"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="67"/>
+      <c r="G109" s="63"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="29"/>
+      <c r="A110" s="53"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="61"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="67"/>
+      <c r="G110" s="63"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="29"/>
+      <c r="A111" s="53"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="61"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="68"/>
+      <c r="G111" s="64"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="33">
+      <c r="A112" s="54">
         <v>15</v>
       </c>
-      <c r="B112" s="33">
+      <c r="B112" s="54">
         <v>12</v>
       </c>
-      <c r="C112" s="33">
+      <c r="C112" s="54">
         <v>3</v>
       </c>
-      <c r="D112" s="33"/>
-      <c r="E112" s="30" t="s">
+      <c r="D112" s="54"/>
+      <c r="E112" s="56" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G112" s="69">
+      <c r="G112" s="27">
         <v>277777.77</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="30"/>
+      <c r="A113" s="54"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="56"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G113" s="69">
+      <c r="G113" s="27">
         <v>5000000</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="30"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="56"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="66"/>
+      <c r="G114" s="62"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="33"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="30"/>
+      <c r="A115" s="54"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="56"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="67"/>
+      <c r="G115" s="63"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="33"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="30"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="56"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="67"/>
+      <c r="G116" s="63"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="30"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="56"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="68"/>
+      <c r="G117" s="64"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="32">
+      <c r="A118" s="53">
         <v>16</v>
       </c>
-      <c r="B118" s="32">
+      <c r="B118" s="53">
         <v>8</v>
       </c>
-      <c r="C118" s="32">
+      <c r="C118" s="53">
         <v>1</v>
       </c>
-      <c r="D118" s="32"/>
-      <c r="E118" s="31" t="s">
+      <c r="D118" s="53"/>
+      <c r="E118" s="55" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G118" s="65">
+      <c r="G118" s="26">
         <v>400000000</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="31"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="55"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G119" s="65">
+      <c r="G119" s="26">
         <v>8000</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="31"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="55"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="66"/>
+      <c r="G120" s="62"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="31"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="55"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="67"/>
+      <c r="G121" s="63"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="31"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="55"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="67"/>
+      <c r="G122" s="63"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="31"/>
+      <c r="A123" s="53"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="55"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="68"/>
+      <c r="G123" s="64"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="33">
+      <c r="A124" s="54">
         <v>17</v>
       </c>
-      <c r="B124" s="33">
+      <c r="B124" s="54">
         <v>2</v>
       </c>
-      <c r="C124" s="33">
+      <c r="C124" s="54">
         <v>3</v>
       </c>
-      <c r="D124" s="33"/>
-      <c r="E124" s="30" t="s">
+      <c r="D124" s="54"/>
+      <c r="E124" s="56" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G124" s="69">
+      <c r="G124" s="27">
         <v>500000</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="33"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="30"/>
+      <c r="A125" s="54"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="56"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G125" s="69">
+      <c r="G125" s="27">
         <v>5000000</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="30"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="56"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="66"/>
+      <c r="G126" s="62"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="30"/>
+      <c r="A127" s="54"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="56"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="67"/>
+      <c r="G127" s="63"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="30"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="56"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="67"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="30"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="56"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="68"/>
+      <c r="G129" s="64"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="32">
+      <c r="A130" s="53">
         <v>18</v>
       </c>
-      <c r="B130" s="32">
+      <c r="B130" s="53">
         <v>2</v>
       </c>
-      <c r="C130" s="32">
+      <c r="C130" s="53">
         <v>9</v>
       </c>
-      <c r="D130" s="32"/>
-      <c r="E130" s="31" t="s">
+      <c r="D130" s="53"/>
+      <c r="E130" s="55" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G130" s="65">
+      <c r="G130" s="26">
         <v>120000</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="32"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="31"/>
+      <c r="A131" s="53"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="55"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G131" s="65">
+      <c r="G131" s="26">
         <v>400000</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="32"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="31"/>
+      <c r="A132" s="53"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="55"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="66"/>
+      <c r="G132" s="62"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="31"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="55"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="67"/>
+      <c r="G133" s="63"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="31"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="55"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="67"/>
+      <c r="G134" s="63"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="31"/>
+      <c r="A135" s="53"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="55"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="68"/>
+      <c r="G135" s="64"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="33">
+      <c r="A136" s="54">
         <v>19</v>
       </c>
-      <c r="B136" s="33">
+      <c r="B136" s="54">
         <v>8</v>
       </c>
-      <c r="C136" s="33">
+      <c r="C136" s="54">
         <v>7</v>
       </c>
-      <c r="D136" s="33"/>
-      <c r="E136" s="30" t="s">
+      <c r="D136" s="54"/>
+      <c r="E136" s="56" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G136" s="69">
+      <c r="G136" s="27">
         <v>7500000</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="33"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="30"/>
+      <c r="A137" s="54"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="56"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G137" s="69">
+      <c r="G137" s="27">
         <v>200000</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="33"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="30"/>
+      <c r="A138" s="54"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="56"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="66"/>
+      <c r="G138" s="62"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="30"/>
+      <c r="A139" s="54"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="54"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="56"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="67"/>
+      <c r="G139" s="63"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="30"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="56"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="67"/>
+      <c r="G140" s="63"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="33"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="30"/>
+      <c r="A141" s="54"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="56"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="68"/>
+      <c r="G141" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="E94:E99"/>
+    <mergeCell ref="E100:E105"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="E124:E129"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="B15:C15"/>
@@ -7105,137 +8584,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="E94:E99"/>
-    <mergeCell ref="E100:E105"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="E124:E129"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E76:E81"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="G126:G129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7257,47 +8605,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -7766,70 +9114,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -8300,70 +9648,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -8834,70 +10182,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9381,70 +10729,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\solidity\mkdocs\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C898A0B-C264-4266-A6C2-AEEB1DDCB1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5E1FD0-D207-49B4-81F9-2C065E7FDFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 방법" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="231">
   <si>
     <t>.num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,10 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xdD6329588555F2F4c879A0951caF2f2cb033B26D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CTeamVault</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,22 +670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xa4C94BAD1ce8c9A5c29FDA1D78F7FF3faD3Af6Ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x3c400E495305ce8B3C95786d417a8321Ad6F5E01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x89e477558DE2A4086BFAe47a8314e8F480fCBB75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x16cb1df05167eca13a21b02fF0475222261Eb84c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CDAOBuilder </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,10 +682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x7975536b47162D7756b8eDE9509B945863f0A82d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CManagerBuilder </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -738,18 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xde958c16Df2DAfD2f07F943db73C3d7EA058dB5c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xaaA7745D4767fEb1a94CDdc8BAD9FeC8E664d948</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA2a5F6AC53DcFA34274810Eec72f18aE2f64FcbC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x373d6f42f8Fb276BEA08942BD27a8848A48962c4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,26 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x12ecFe223e576195e8F5D8c1D33fCAaC475BF3c4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x386DC06a396244043F448b227801E216DB4Ee454</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xa9B53D4635F22d2bFc0d1a3311dC3E6b692CD5fa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x875c6280B75F8Ad7dbAdbB7cE788f7a502F9ec3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x03515eDE4B0c554b8891C7EEA818A2CC65561334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x658a3a6065E16FE42D8a51CC00b0870e850909F5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,14 +734,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x086f7A53701dde5Ca7a5d63a455B6d222A18794C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xBb0DE1A70151547C1D9774BF33d2fFb0CF8fe477</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,26 +742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x7A48134a0739347Aa534C319727189E66ac5847F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xBd27323a06EF87E29f491a70Dff5bd600a5f579d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x4Bc90B788a4c35e12FA8b70713F80eF891eA972a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xF9cAEEBBB2E6c1b56D5b0041f36F5423E49ba17e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 / 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>staking holder/LPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 / 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Account 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,11 +830,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C &gt; B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSwapHelper의 exchange() -&gt; Governor의 몫 CStakableGToken에 적립됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x68C71b52952870b6d0F0d045f5C31aCdCB33c09D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x55e327a550cEE03306E12630A399a361d5269f26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6BF38c38429a10178426a14D23A38213cBf6B2aC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7b58a5957654a9d83228D1b2A2abe7525f9E7477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAeEa7333B0658158121FAbDB579d49DD10b57950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xBb8ecBcFEDc3BA8C967dD4D695829bEe33fB411e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xE5333ffAa61c52B73e3bd201Aefa9EB2DDbDfe84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x663E3625BbEA57e9711b67C0aD45B84F19a6Ce84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6dbF007e8ab171C4e6616B51DD1F28f56D2E3aCF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5d2958cEe6038a2a6579Be9b8bBe99850682422e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x23203E60a83E4fcE796A540b0eFFCAaA87075094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7704CeE7410bdFcf15b35e7EC0843067e3dAb103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x23571B88F4A7426389717D69e64aCDa5751fb8e2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0fE5322F52D13Fe39194d8d1B3a7F0559ea9F4CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1klay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xd49797b8E0A402BE748Fd07991A623912629587C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x54A0E6d498F16dBc63e6a1E5DB4b4F9F8D605C30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>klay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x629c8abc0311Cff77b663c1A626D2c5ac8a9EBee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xbDCDD585A2d147f3DAb0eeBBa22d5A09a07c2b4d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +943,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +967,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF959BAD"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1236,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,22 +1335,142 @@
     <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,9 +1491,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1396,9 +1527,6 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,109 +1578,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2199,70 +2243,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2733,70 +2777,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3267,70 +3311,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3801,70 +3845,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4335,70 +4379,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4869,70 +4913,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -5391,10 +5435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F661FF6-4AD5-40E4-982D-024A96661DAF}">
-  <dimension ref="A2:S47"/>
+  <dimension ref="A2:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:M18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5403,188 +5447,176 @@
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="72" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="77" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="77" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="76" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="76" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.25" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="29" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.25" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N2" s="93" t="s">
+      <c r="N2" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="R2" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="S2" s="80" t="s">
-        <v>205</v>
+      <c r="O2" s="64"/>
+      <c r="R2" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N3" s="78" t="s">
+      <c r="N3" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="78" t="s">
-        <v>210</v>
-      </c>
-      <c r="P3" s="76" t="s">
+      <c r="O3" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="Q3" s="76" t="s">
+      <c r="Q3" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="R3" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="S3" s="80" t="s">
-        <v>204</v>
+      <c r="R3" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="90"/>
+      <c r="A4" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="61"/>
       <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="90"/>
+      <c r="A6" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="61"/>
       <c r="C6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82">
-        <v>1000000</v>
-      </c>
-      <c r="O6" s="82">
-        <v>200</v>
-      </c>
-      <c r="P6" s="96">
-        <v>10000000</v>
-      </c>
-      <c r="Q6" s="94">
-        <v>10000000</v>
-      </c>
-      <c r="R6" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="S6" s="83" t="s">
-        <v>203</v>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="34">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="34"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="84">
-        <v>998800</v>
-      </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="95">
-        <v>9999960</v>
-      </c>
-      <c r="Q7" s="95">
-        <v>9999970</v>
-      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5596,831 +5628,923 @@
       <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="74">
-        <v>150000000</v>
-      </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="74">
-        <v>10000000</v>
-      </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+        <v>158</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="54">
+        <v>150000000</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="54">
+        <v>10000000</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="74">
+      <c r="C13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="54">
         <v>10000000</v>
       </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="28" t="s">
+      <c r="E13" s="55"/>
+      <c r="F13" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-    </row>
-    <row r="13" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="28" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="110">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="111">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="11">
-        <v>20</v>
-      </c>
-      <c r="E15" s="71">
-        <v>40</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
-      <c r="B16" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
-      <c r="B17" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="28" t="s">
+      <c r="C19" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="110">
+        <v>10</v>
+      </c>
+      <c r="E19" s="111">
+        <v>100</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="110">
+        <v>1</v>
+      </c>
+      <c r="E22" s="111">
+        <v>1</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+    </row>
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="11">
-        <v>10</v>
-      </c>
-      <c r="E18" s="71">
-        <v>30</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
-      <c r="B19" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
-      <c r="B20" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-    </row>
-    <row r="21" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-    </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="103" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>1</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>2</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>3</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>4</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>5</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>6</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>7</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="A29" s="9">
+        <v>3</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>8</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
+        <v>5</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>6</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>7</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>8</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B35" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>10</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
+        <v>11</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
+        <v>12</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>13</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>14</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>15</v>
+      </c>
+      <c r="B41" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
-        <v>10</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>11</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>12</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>13</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
-        <v>14</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>15</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="44"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
         <v>16</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B42" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="101" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102" t="s">
-        <v>222</v>
-      </c>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="102"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="102"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="11">
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="100" t="s">
-        <v>228</v>
-      </c>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="11">
+      <c r="C48" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="100" t="s">
-        <v>218</v>
-      </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="11">
+      <c r="C49" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C44" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
+      <c r="C50" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="11"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="11"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="93">
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="C47:E47"/>
     <mergeCell ref="F47:M47"/>
-    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A8:S8"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F40:M40"/>
     <mergeCell ref="F41:M41"/>
-    <mergeCell ref="A22:M22"/>
     <mergeCell ref="F42:M42"/>
-    <mergeCell ref="F43:M43"/>
-    <mergeCell ref="F44:M44"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F46:M46"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A8:S8"/>
-    <mergeCell ref="A13:S13"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A6:B7"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="F37:M37"/>
     <mergeCell ref="F38:M38"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
@@ -6429,29 +6553,36 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F13:M13"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F5:M5"/>
     <mergeCell ref="F6:M6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="F24:M24"/>
     <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6481,50 +6612,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="76">
         <v>100000000</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -6536,17 +6667,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="77">
         <v>100000</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -6558,17 +6689,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="77">
         <v>1000000</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="77"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -6580,15 +6711,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="38">
+      <c r="E7" s="78">
         <v>150000000</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="78"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -6597,17 +6728,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="88">
         <v>200000000</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6619,17 +6750,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="90">
         <v>20000000</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -6641,17 +6772,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="90">
         <v>2000000</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -6663,17 +6794,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="90">
         <v>1000000</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -6685,17 +6816,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="84">
         <v>2000000</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -6707,17 +6838,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="84">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="46"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -6729,17 +6860,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="84">
         <v>4000000</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -6751,17 +6882,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="86">
         <v>500000000</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -6773,17 +6904,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="86">
         <v>200000000</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -6795,17 +6926,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="86">
         <v>10000000</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -6813,35 +6944,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:8" s="60" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+    <row r="18" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="1:8" s="98" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="95"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -6868,17 +6999,17 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53">
+      <c r="A22" s="58">
         <v>0</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="58">
         <v>0</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55" t="s">
+      <c r="D22" s="58"/>
+      <c r="E22" s="93" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -6889,11 +7020,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
@@ -6902,61 +7033,61 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="55"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="62"/>
+      <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="63"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="55"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="63"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="55"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="64"/>
+      <c r="G27" s="102"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="92">
         <v>2</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="56" t="s">
+      <c r="D28" s="92"/>
+      <c r="E28" s="94" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -6967,11 +7098,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
@@ -6980,61 +7111,61 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="56"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="62"/>
+      <c r="G30" s="100"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="56"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="63"/>
+      <c r="G31" s="101"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="56"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="63"/>
+      <c r="G32" s="101"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="56"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="94"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="64"/>
+      <c r="G33" s="102"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53">
+      <c r="A34" s="58">
         <v>2</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="58">
         <v>6</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="55" t="s">
+      <c r="D34" s="58"/>
+      <c r="E34" s="93" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -7045,11 +7176,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="55"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
@@ -7058,61 +7189,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="55"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="62"/>
+      <c r="G36" s="100"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="55"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="63"/>
+      <c r="G37" s="101"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="55"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="63"/>
+      <c r="G38" s="101"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="55"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="64"/>
+      <c r="G39" s="102"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="54">
+      <c r="A40" s="92">
         <v>3</v>
       </c>
-      <c r="B40" s="54">
+      <c r="B40" s="92">
         <v>0</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="92">
         <v>3</v>
       </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="56" t="s">
+      <c r="D40" s="92"/>
+      <c r="E40" s="94" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -7123,11 +7254,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="56"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="94"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
@@ -7136,61 +7267,61 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="56"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="94"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="62"/>
+      <c r="G42" s="100"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="56"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="94"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="63"/>
+      <c r="G43" s="101"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="56"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="94"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="63"/>
+      <c r="G44" s="101"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="56"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="94"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="64"/>
+      <c r="G45" s="102"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="53">
+      <c r="A46" s="58">
         <v>4</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="58">
         <v>0</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C46" s="58">
         <v>4</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="55" t="s">
+      <c r="D46" s="58"/>
+      <c r="E46" s="93" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -7201,11 +7332,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="55"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
@@ -7214,61 +7345,61 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="55"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="62"/>
+      <c r="G48" s="100"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="55"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="93"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="63"/>
+      <c r="G49" s="101"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="55"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="93"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="63"/>
+      <c r="G50" s="101"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="55"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="93"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="64"/>
+      <c r="G51" s="102"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="54">
+      <c r="A52" s="92">
         <v>5</v>
       </c>
-      <c r="B52" s="54">
+      <c r="B52" s="92">
         <v>1</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="92">
         <v>3</v>
       </c>
-      <c r="D52" s="54"/>
-      <c r="E52" s="56" t="s">
+      <c r="D52" s="92"/>
+      <c r="E52" s="94" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -7279,11 +7410,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="56"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="94"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
@@ -7292,61 +7423,61 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="56"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="94"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="62"/>
+      <c r="G54" s="100"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="56"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="94"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="63"/>
+      <c r="G55" s="101"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="56"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="94"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="63"/>
+      <c r="G56" s="101"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="56"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="94"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="64"/>
+      <c r="G57" s="102"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53">
+      <c r="A58" s="58">
         <v>6</v>
       </c>
-      <c r="B58" s="53">
+      <c r="B58" s="58">
         <v>1</v>
       </c>
-      <c r="C58" s="53">
+      <c r="C58" s="58">
         <v>4</v>
       </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="55" t="s">
+      <c r="D58" s="58"/>
+      <c r="E58" s="93" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
@@ -7357,11 +7488,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="55"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="93"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
@@ -7370,61 +7501,61 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="55"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="93"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="62"/>
+      <c r="G60" s="100"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="55"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="93"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="63"/>
+      <c r="G61" s="101"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="55"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="93"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="63"/>
+      <c r="G62" s="101"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="55"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="93"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="64"/>
+      <c r="G63" s="102"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="54">
+      <c r="A64" s="92">
         <v>7</v>
       </c>
-      <c r="B64" s="54">
+      <c r="B64" s="92">
         <v>1</v>
       </c>
-      <c r="C64" s="54">
+      <c r="C64" s="92">
         <v>7</v>
       </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="56" t="s">
+      <c r="D64" s="92"/>
+      <c r="E64" s="94" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -7435,11 +7566,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="56"/>
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="94"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
@@ -7448,61 +7579,61 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="56"/>
+      <c r="A66" s="92"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="94"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="62"/>
+      <c r="G66" s="100"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="56"/>
+      <c r="A67" s="92"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="94"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="63"/>
+      <c r="G67" s="101"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="56"/>
+      <c r="A68" s="92"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="94"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="63"/>
+      <c r="G68" s="101"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="56"/>
+      <c r="A69" s="92"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="94"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="64"/>
+      <c r="G69" s="102"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="53">
+      <c r="A70" s="58">
         <v>8</v>
       </c>
-      <c r="B70" s="53">
+      <c r="B70" s="58">
         <v>5</v>
       </c>
-      <c r="C70" s="53">
+      <c r="C70" s="58">
         <v>3</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="55" t="s">
+      <c r="D70" s="58"/>
+      <c r="E70" s="93" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
@@ -7513,11 +7644,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="55"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="93"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
@@ -7526,61 +7657,61 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="55"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="93"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="62"/>
+      <c r="G72" s="100"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="55"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="93"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="63"/>
+      <c r="G73" s="101"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="53"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="55"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="93"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="63"/>
+      <c r="G74" s="101"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="55"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="93"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="64"/>
+      <c r="G75" s="102"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="54">
+      <c r="A76" s="92">
         <v>9</v>
       </c>
-      <c r="B76" s="54">
+      <c r="B76" s="92">
         <v>5</v>
       </c>
-      <c r="C76" s="54">
+      <c r="C76" s="92">
         <v>9</v>
       </c>
-      <c r="D76" s="54"/>
-      <c r="E76" s="56" t="s">
+      <c r="D76" s="92"/>
+      <c r="E76" s="94" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
@@ -7591,11 +7722,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="56"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="94"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
@@ -7604,61 +7735,61 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="56"/>
+      <c r="A78" s="92"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="94"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="62"/>
+      <c r="G78" s="100"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="56"/>
+      <c r="A79" s="92"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="94"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="63"/>
+      <c r="G79" s="101"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="56"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="94"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="63"/>
+      <c r="G80" s="101"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="56"/>
+      <c r="A81" s="92"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="94"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="64"/>
+      <c r="G81" s="102"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="53">
+      <c r="A82" s="58">
         <v>10</v>
       </c>
-      <c r="B82" s="53">
+      <c r="B82" s="58">
         <v>6</v>
       </c>
-      <c r="C82" s="53">
+      <c r="C82" s="58">
         <v>4</v>
       </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="55" t="s">
+      <c r="D82" s="58"/>
+      <c r="E82" s="93" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
@@ -7669,11 +7800,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="55"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="93"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
@@ -7682,61 +7813,61 @@
       </c>
     </row>
     <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="55"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="93"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="62"/>
+      <c r="G84" s="100"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="55"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="93"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="63"/>
+      <c r="G85" s="101"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="55"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="93"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="63"/>
+      <c r="G86" s="101"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="55"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="93"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="64"/>
+      <c r="G87" s="102"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="54">
+      <c r="A88" s="92">
         <v>11</v>
       </c>
-      <c r="B88" s="54">
+      <c r="B88" s="92">
         <v>4</v>
       </c>
-      <c r="C88" s="54">
+      <c r="C88" s="92">
         <v>10</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="61" t="s">
+      <c r="D88" s="92"/>
+      <c r="E88" s="99" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
@@ -7747,11 +7878,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="61"/>
+      <c r="A89" s="92"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="99"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
@@ -7760,61 +7891,61 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="61"/>
+      <c r="A90" s="92"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="99"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="62"/>
+      <c r="G90" s="100"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="61"/>
+      <c r="A91" s="92"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="99"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="63"/>
+      <c r="G91" s="101"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="54"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="61"/>
+      <c r="A92" s="92"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="99"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="63"/>
+      <c r="G92" s="101"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="54"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="61"/>
+      <c r="A93" s="92"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="99"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="64"/>
+      <c r="G93" s="102"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="53">
+      <c r="A94" s="58">
         <v>12</v>
       </c>
-      <c r="B94" s="53">
+      <c r="B94" s="58">
         <v>7</v>
       </c>
-      <c r="C94" s="53">
+      <c r="C94" s="58">
         <v>11</v>
       </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="61" t="s">
+      <c r="D94" s="58"/>
+      <c r="E94" s="99" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
@@ -7825,11 +7956,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="61"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="99"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
@@ -7838,61 +7969,61 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="53"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="61"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="99"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="62"/>
+      <c r="G96" s="100"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="61"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="99"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="63"/>
+      <c r="G97" s="101"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="61"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="99"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="63"/>
+      <c r="G98" s="101"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="53"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="61"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="99"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="64"/>
+      <c r="G99" s="102"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="54">
+      <c r="A100" s="92">
         <v>13</v>
       </c>
-      <c r="B100" s="54">
+      <c r="B100" s="92">
         <v>11</v>
       </c>
-      <c r="C100" s="54">
+      <c r="C100" s="92">
         <v>12</v>
       </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="61" t="s">
+      <c r="D100" s="92"/>
+      <c r="E100" s="99" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
@@ -7903,11 +8034,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="54"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="61"/>
+      <c r="A101" s="92"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="99"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
@@ -7916,61 +8047,61 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="61"/>
+      <c r="A102" s="92"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="99"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="62"/>
+      <c r="G102" s="100"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="54"/>
-      <c r="B103" s="54"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="61"/>
+      <c r="A103" s="92"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="99"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="63"/>
+      <c r="G103" s="101"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="54"/>
-      <c r="B104" s="54"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="61"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="99"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="63"/>
+      <c r="G104" s="101"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="54"/>
-      <c r="B105" s="54"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="61"/>
+      <c r="A105" s="92"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="99"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="64"/>
+      <c r="G105" s="102"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="53">
+      <c r="A106" s="58">
         <v>14</v>
       </c>
-      <c r="B106" s="53">
+      <c r="B106" s="58">
         <v>3</v>
       </c>
-      <c r="C106" s="53">
+      <c r="C106" s="58">
         <v>10</v>
       </c>
-      <c r="D106" s="53"/>
-      <c r="E106" s="61" t="s">
+      <c r="D106" s="58"/>
+      <c r="E106" s="99" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
@@ -7981,11 +8112,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53"/>
-      <c r="E107" s="61"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="99"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
@@ -7994,61 +8125,61 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="53"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="61"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="99"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="62"/>
+      <c r="G108" s="100"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
-      <c r="E109" s="61"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="99"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="63"/>
+      <c r="G109" s="101"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="53"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="61"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="99"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="63"/>
+      <c r="G110" s="101"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="53"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="61"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="99"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="64"/>
+      <c r="G111" s="102"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="54">
+      <c r="A112" s="92">
         <v>15</v>
       </c>
-      <c r="B112" s="54">
+      <c r="B112" s="92">
         <v>12</v>
       </c>
-      <c r="C112" s="54">
+      <c r="C112" s="92">
         <v>3</v>
       </c>
-      <c r="D112" s="54"/>
-      <c r="E112" s="56" t="s">
+      <c r="D112" s="92"/>
+      <c r="E112" s="94" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
@@ -8059,11 +8190,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="54"/>
-      <c r="B113" s="54"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="56"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="94"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
@@ -8072,61 +8203,61 @@
       </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="54"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="54"/>
-      <c r="E114" s="56"/>
+      <c r="A114" s="92"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="94"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="62"/>
+      <c r="G114" s="100"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="54"/>
-      <c r="B115" s="54"/>
-      <c r="C115" s="54"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="56"/>
+      <c r="A115" s="92"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="94"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="63"/>
+      <c r="G115" s="101"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="54"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="54"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="56"/>
+      <c r="A116" s="92"/>
+      <c r="B116" s="92"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="94"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="63"/>
+      <c r="G116" s="101"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="54"/>
-      <c r="B117" s="54"/>
-      <c r="C117" s="54"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="56"/>
+      <c r="A117" s="92"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="94"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="64"/>
+      <c r="G117" s="102"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="53">
+      <c r="A118" s="58">
         <v>16</v>
       </c>
-      <c r="B118" s="53">
+      <c r="B118" s="58">
         <v>8</v>
       </c>
-      <c r="C118" s="53">
+      <c r="C118" s="58">
         <v>1</v>
       </c>
-      <c r="D118" s="53"/>
-      <c r="E118" s="55" t="s">
+      <c r="D118" s="58"/>
+      <c r="E118" s="93" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
@@ -8137,11 +8268,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="53"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="55"/>
+      <c r="A119" s="58"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="93"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
@@ -8150,61 +8281,61 @@
       </c>
     </row>
     <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="53"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="55"/>
+      <c r="A120" s="58"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="93"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="62"/>
+      <c r="G120" s="100"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="53"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="55"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="93"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="63"/>
+      <c r="G121" s="101"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="53"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="55"/>
+      <c r="A122" s="58"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="93"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="63"/>
+      <c r="G122" s="101"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="53"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="53"/>
-      <c r="E123" s="55"/>
+      <c r="A123" s="58"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="93"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="64"/>
+      <c r="G123" s="102"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="54">
+      <c r="A124" s="92">
         <v>17</v>
       </c>
-      <c r="B124" s="54">
+      <c r="B124" s="92">
         <v>2</v>
       </c>
-      <c r="C124" s="54">
+      <c r="C124" s="92">
         <v>3</v>
       </c>
-      <c r="D124" s="54"/>
-      <c r="E124" s="56" t="s">
+      <c r="D124" s="92"/>
+      <c r="E124" s="94" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
@@ -8215,11 +8346,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="54"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="56"/>
+      <c r="A125" s="92"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="94"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
@@ -8228,61 +8359,61 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="54"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="56"/>
+      <c r="A126" s="92"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="94"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="62"/>
+      <c r="G126" s="100"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="54"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="56"/>
+      <c r="A127" s="92"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="94"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="63"/>
+      <c r="G127" s="101"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="54"/>
-      <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="56"/>
+      <c r="A128" s="92"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="94"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="63"/>
+      <c r="G128" s="101"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="54"/>
-      <c r="B129" s="54"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="56"/>
+      <c r="A129" s="92"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="92"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="94"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="64"/>
+      <c r="G129" s="102"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="53">
+      <c r="A130" s="58">
         <v>18</v>
       </c>
-      <c r="B130" s="53">
+      <c r="B130" s="58">
         <v>2</v>
       </c>
-      <c r="C130" s="53">
+      <c r="C130" s="58">
         <v>9</v>
       </c>
-      <c r="D130" s="53"/>
-      <c r="E130" s="55" t="s">
+      <c r="D130" s="58"/>
+      <c r="E130" s="93" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
@@ -8293,11 +8424,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="53"/>
-      <c r="B131" s="53"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="53"/>
-      <c r="E131" s="55"/>
+      <c r="A131" s="58"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="93"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
@@ -8306,61 +8437,61 @@
       </c>
     </row>
     <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="53"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="55"/>
+      <c r="A132" s="58"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="58"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="93"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="62"/>
+      <c r="G132" s="100"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="53"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="55"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="93"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="63"/>
+      <c r="G133" s="101"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="53"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="53"/>
-      <c r="E134" s="55"/>
+      <c r="A134" s="58"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="93"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="63"/>
+      <c r="G134" s="101"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="53"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="55"/>
+      <c r="A135" s="58"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="93"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="64"/>
+      <c r="G135" s="102"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="54">
+      <c r="A136" s="92">
         <v>19</v>
       </c>
-      <c r="B136" s="54">
+      <c r="B136" s="92">
         <v>8</v>
       </c>
-      <c r="C136" s="54">
+      <c r="C136" s="92">
         <v>7</v>
       </c>
-      <c r="D136" s="54"/>
-      <c r="E136" s="56" t="s">
+      <c r="D136" s="92"/>
+      <c r="E136" s="94" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
@@ -8371,11 +8502,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="54"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="54"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="56"/>
+      <c r="A137" s="92"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="92"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="94"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
@@ -8384,48 +8515,48 @@
       </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="54"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="56"/>
+      <c r="A138" s="92"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="92"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="94"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="62"/>
+      <c r="G138" s="100"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="54"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="56"/>
+      <c r="A139" s="92"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="92"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="94"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="63"/>
+      <c r="G139" s="101"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="54"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="56"/>
+      <c r="A140" s="92"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="94"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="63"/>
+      <c r="G140" s="101"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="54"/>
-      <c r="B141" s="54"/>
-      <c r="C141" s="54"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="56"/>
+      <c r="A141" s="92"/>
+      <c r="B141" s="92"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="94"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="64"/>
+      <c r="G141" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="155">
@@ -8605,47 +8736,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -9114,70 +9245,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9648,70 +9779,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10182,70 +10313,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10729,70 +10860,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\solidity\mkdocs\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5E1FD0-D207-49B4-81F9-2C065E7FDFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0BD586-57BB-444E-8ED4-054D5A13D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
@@ -1389,89 +1389,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1503,63 +1581,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1576,27 +1597,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2243,70 +2243,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2777,70 +2777,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3311,70 +3311,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3845,70 +3845,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4379,70 +4379,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4913,70 +4913,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -5437,8 +5437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F661FF6-4AD5-40E4-982D-024A96661DAF}">
   <dimension ref="A2:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5456,10 +5456,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N2" s="64" t="s">
+      <c r="N2" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="64"/>
+      <c r="O2" s="62"/>
       <c r="R2" s="33" t="s">
         <v>185</v>
       </c>
@@ -5488,25 +5488,25 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="37"/>
@@ -5515,23 +5515,23 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="38"/>
@@ -5540,25 +5540,25 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="34">
         <v>1000</v>
       </c>
@@ -5573,23 +5573,23 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="38"/>
@@ -5598,25 +5598,25 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5628,35 +5628,35 @@
       <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="53" t="s">
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="46" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -5668,20 +5668,20 @@
       <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="72">
         <v>150000000</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="53" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -5693,20 +5693,20 @@
       <c r="C12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="72">
         <v>10000000</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="53" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -5718,41 +5718,41 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="72">
         <v>10000000</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -5770,19 +5770,19 @@
       <c r="E15" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="69" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -5791,59 +5791,59 @@
       <c r="C16" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D16" s="46">
         <v>10000</v>
       </c>
-      <c r="E16" s="111">
+      <c r="E16" s="47">
         <v>20000</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="71"/>
+      <c r="B18" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="69" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5852,59 +5852,59 @@
       <c r="C19" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="46">
         <v>10</v>
       </c>
-      <c r="E19" s="111">
+      <c r="E19" s="47">
         <v>100</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="70"/>
+      <c r="B20" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="70"/>
+      <c r="B21" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="69" t="s">
         <v>206</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -5913,425 +5913,425 @@
       <c r="C22" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="110">
+      <c r="D22" s="46">
         <v>1</v>
       </c>
-      <c r="E22" s="111">
+      <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
     </row>
     <row r="25" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>4</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>7</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53" t="s">
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59" t="s">
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>10</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53" t="s">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>11</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>12</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>13</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58" t="s">
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>14</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53" t="s">
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>15</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53" t="s">
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>16</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
@@ -6349,226 +6349,147 @@
       <c r="M43" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109" t="s">
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72" t="s">
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="71" t="s">
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="71" t="s">
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="71" t="s">
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="F49:M49"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="F52:M52"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A8:S8"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="F24:M24"/>
     <mergeCell ref="F12:M12"/>
@@ -6583,6 +6504,85 @@
     <mergeCell ref="F22:M22"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="A8:S8"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6612,50 +6612,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="102">
         <v>100000000</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -6667,17 +6667,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="103">
         <v>100000</v>
       </c>
-      <c r="F5" s="77"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -6689,17 +6689,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="103">
         <v>1000000</v>
       </c>
-      <c r="F6" s="77"/>
+      <c r="F6" s="103"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -6711,15 +6711,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="78">
+      <c r="E7" s="104">
         <v>150000000</v>
       </c>
-      <c r="F7" s="78"/>
+      <c r="F7" s="104"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -6728,17 +6728,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="96">
         <v>200000000</v>
       </c>
-      <c r="F8" s="89"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6750,17 +6750,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="98">
         <v>20000000</v>
       </c>
-      <c r="F9" s="91"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -6772,17 +6772,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="98">
         <v>2000000</v>
       </c>
-      <c r="F10" s="91"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -6794,17 +6794,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="98">
         <v>1000000</v>
       </c>
-      <c r="F11" s="91"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -6816,17 +6816,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="92">
         <v>2000000</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -6838,17 +6838,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="92">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -6860,17 +6860,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="92">
         <v>4000000</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -6882,17 +6882,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="94">
         <v>500000000</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -6904,17 +6904,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="94">
         <v>200000000</v>
       </c>
-      <c r="F16" s="87"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -6926,17 +6926,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="94">
         <v>10000000</v>
       </c>
-      <c r="F17" s="87"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -6944,35 +6944,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="1:8" s="98" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="95"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
+    <row r="18" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="76"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" s="87" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -6999,17 +6999,17 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58">
+      <c r="A22" s="60">
         <v>0</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="60">
         <v>0</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="93" t="s">
+      <c r="D22" s="60"/>
+      <c r="E22" s="90" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -7020,11 +7020,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="93"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
@@ -7033,61 +7033,61 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="93"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="100"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="93"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="101"/>
+      <c r="G25" s="82"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="93"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="101"/>
+      <c r="G26" s="82"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="93"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="102"/>
+      <c r="G27" s="83"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92">
+      <c r="A28" s="91">
         <v>1</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="92">
+      <c r="C28" s="91">
         <v>2</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="94" t="s">
+      <c r="D28" s="91"/>
+      <c r="E28" s="89" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -7098,11 +7098,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="94"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
@@ -7111,61 +7111,61 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="94"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="100"/>
+      <c r="G30" s="81"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="94"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="101"/>
+      <c r="G31" s="82"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="94"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="101"/>
+      <c r="G32" s="82"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="94"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="102"/>
+      <c r="G33" s="83"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58">
+      <c r="A34" s="60">
         <v>2</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="60">
         <v>6</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="93" t="s">
+      <c r="D34" s="60"/>
+      <c r="E34" s="90" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -7176,11 +7176,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="93"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
@@ -7189,61 +7189,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="93"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="90"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="100"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="93"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="90"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="101"/>
+      <c r="G37" s="82"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="93"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="90"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="101"/>
+      <c r="G38" s="82"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="93"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="90"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="102"/>
+      <c r="G39" s="83"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92">
+      <c r="A40" s="91">
         <v>3</v>
       </c>
-      <c r="B40" s="92">
+      <c r="B40" s="91">
         <v>0</v>
       </c>
-      <c r="C40" s="92">
+      <c r="C40" s="91">
         <v>3</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="94" t="s">
+      <c r="D40" s="91"/>
+      <c r="E40" s="89" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -7254,11 +7254,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="94"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="89"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
@@ -7267,61 +7267,61 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="94"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="89"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="100"/>
+      <c r="G42" s="81"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="94"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="101"/>
+      <c r="G43" s="82"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="94"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="89"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="101"/>
+      <c r="G44" s="82"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="94"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="89"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="102"/>
+      <c r="G45" s="83"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="58">
+      <c r="A46" s="60">
         <v>4</v>
       </c>
-      <c r="B46" s="58">
+      <c r="B46" s="60">
         <v>0</v>
       </c>
-      <c r="C46" s="58">
+      <c r="C46" s="60">
         <v>4</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="93" t="s">
+      <c r="D46" s="60"/>
+      <c r="E46" s="90" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -7332,11 +7332,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="93"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
@@ -7345,61 +7345,61 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="93"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="90"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="100"/>
+      <c r="G48" s="81"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="93"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="90"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="101"/>
+      <c r="G49" s="82"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="93"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="101"/>
+      <c r="G50" s="82"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="93"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="90"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="102"/>
+      <c r="G51" s="83"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="92">
+      <c r="A52" s="91">
         <v>5</v>
       </c>
-      <c r="B52" s="92">
+      <c r="B52" s="91">
         <v>1</v>
       </c>
-      <c r="C52" s="92">
+      <c r="C52" s="91">
         <v>3</v>
       </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="94" t="s">
+      <c r="D52" s="91"/>
+      <c r="E52" s="89" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -7410,11 +7410,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="92"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="94"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="89"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
@@ -7423,61 +7423,61 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="94"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="89"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="100"/>
+      <c r="G54" s="81"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="92"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="94"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="101"/>
+      <c r="G55" s="82"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="92"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="94"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="89"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="101"/>
+      <c r="G56" s="82"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="92"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="94"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="89"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="102"/>
+      <c r="G57" s="83"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="58">
+      <c r="A58" s="60">
         <v>6</v>
       </c>
-      <c r="B58" s="58">
+      <c r="B58" s="60">
         <v>1</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="60">
         <v>4</v>
       </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="93" t="s">
+      <c r="D58" s="60"/>
+      <c r="E58" s="90" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
@@ -7488,11 +7488,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="93"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
@@ -7501,61 +7501,61 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="93"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="90"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="100"/>
+      <c r="G60" s="81"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="93"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="90"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="101"/>
+      <c r="G61" s="82"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="93"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="90"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="101"/>
+      <c r="G62" s="82"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="93"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="90"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="102"/>
+      <c r="G63" s="83"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="92">
+      <c r="A64" s="91">
         <v>7</v>
       </c>
-      <c r="B64" s="92">
+      <c r="B64" s="91">
         <v>1</v>
       </c>
-      <c r="C64" s="92">
+      <c r="C64" s="91">
         <v>7</v>
       </c>
-      <c r="D64" s="92"/>
-      <c r="E64" s="94" t="s">
+      <c r="D64" s="91"/>
+      <c r="E64" s="89" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -7566,11 +7566,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="92"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="94"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="89"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
@@ -7579,61 +7579,61 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="94"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="89"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="100"/>
+      <c r="G66" s="81"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="92"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="94"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="89"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="101"/>
+      <c r="G67" s="82"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="92"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="94"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="89"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="101"/>
+      <c r="G68" s="82"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="92"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="94"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="89"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="102"/>
+      <c r="G69" s="83"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="58">
+      <c r="A70" s="60">
         <v>8</v>
       </c>
-      <c r="B70" s="58">
+      <c r="B70" s="60">
         <v>5</v>
       </c>
-      <c r="C70" s="58">
+      <c r="C70" s="60">
         <v>3</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="93" t="s">
+      <c r="D70" s="60"/>
+      <c r="E70" s="90" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
@@ -7644,11 +7644,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="93"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="90"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
@@ -7657,61 +7657,61 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="93"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="90"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="100"/>
+      <c r="G72" s="81"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="93"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="90"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="101"/>
+      <c r="G73" s="82"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="93"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="90"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="101"/>
+      <c r="G74" s="82"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="93"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="90"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="102"/>
+      <c r="G75" s="83"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="92">
+      <c r="A76" s="91">
         <v>9</v>
       </c>
-      <c r="B76" s="92">
+      <c r="B76" s="91">
         <v>5</v>
       </c>
-      <c r="C76" s="92">
+      <c r="C76" s="91">
         <v>9</v>
       </c>
-      <c r="D76" s="92"/>
-      <c r="E76" s="94" t="s">
+      <c r="D76" s="91"/>
+      <c r="E76" s="89" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
@@ -7722,11 +7722,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="94"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="89"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
@@ -7735,61 +7735,61 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="92"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="94"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="89"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="100"/>
+      <c r="G78" s="81"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="92"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="94"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="89"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="101"/>
+      <c r="G79" s="82"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="92"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="94"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="89"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="101"/>
+      <c r="G80" s="82"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="92"/>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="94"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="89"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="102"/>
+      <c r="G81" s="83"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="58">
+      <c r="A82" s="60">
         <v>10</v>
       </c>
-      <c r="B82" s="58">
+      <c r="B82" s="60">
         <v>6</v>
       </c>
-      <c r="C82" s="58">
+      <c r="C82" s="60">
         <v>4</v>
       </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="93" t="s">
+      <c r="D82" s="60"/>
+      <c r="E82" s="90" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
@@ -7800,11 +7800,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="58"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="93"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="90"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
@@ -7813,61 +7813,61 @@
       </c>
     </row>
     <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="93"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="90"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="100"/>
+      <c r="G84" s="81"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="58"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="93"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="90"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="101"/>
+      <c r="G85" s="82"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="93"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="90"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="101"/>
+      <c r="G86" s="82"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="58"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="93"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="90"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="102"/>
+      <c r="G87" s="83"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="92">
+      <c r="A88" s="91">
         <v>11</v>
       </c>
-      <c r="B88" s="92">
+      <c r="B88" s="91">
         <v>4</v>
       </c>
-      <c r="C88" s="92">
+      <c r="C88" s="91">
         <v>10</v>
       </c>
-      <c r="D88" s="92"/>
-      <c r="E88" s="99" t="s">
+      <c r="D88" s="91"/>
+      <c r="E88" s="88" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
@@ -7878,11 +7878,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="92"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="99"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="88"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
@@ -7891,61 +7891,61 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="92"/>
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="99"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="88"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="100"/>
+      <c r="G90" s="81"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="92"/>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="99"/>
+      <c r="A91" s="91"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="88"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="101"/>
+      <c r="G91" s="82"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="92"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="99"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="88"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="101"/>
+      <c r="G92" s="82"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="92"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="99"/>
+      <c r="A93" s="91"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="88"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="102"/>
+      <c r="G93" s="83"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="58">
+      <c r="A94" s="60">
         <v>12</v>
       </c>
-      <c r="B94" s="58">
+      <c r="B94" s="60">
         <v>7</v>
       </c>
-      <c r="C94" s="58">
+      <c r="C94" s="60">
         <v>11</v>
       </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="99" t="s">
+      <c r="D94" s="60"/>
+      <c r="E94" s="88" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
@@ -7956,11 +7956,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="58"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="99"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="88"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
@@ -7969,61 +7969,61 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="58"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="99"/>
+      <c r="A96" s="60"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="88"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="100"/>
+      <c r="G96" s="81"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="58"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="99"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="88"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="101"/>
+      <c r="G97" s="82"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="58"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="99"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="88"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="101"/>
+      <c r="G98" s="82"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="58"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="99"/>
+      <c r="A99" s="60"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="88"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="102"/>
+      <c r="G99" s="83"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="92">
+      <c r="A100" s="91">
         <v>13</v>
       </c>
-      <c r="B100" s="92">
+      <c r="B100" s="91">
         <v>11</v>
       </c>
-      <c r="C100" s="92">
+      <c r="C100" s="91">
         <v>12</v>
       </c>
-      <c r="D100" s="92"/>
-      <c r="E100" s="99" t="s">
+      <c r="D100" s="91"/>
+      <c r="E100" s="88" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
@@ -8034,11 +8034,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="92"/>
-      <c r="B101" s="92"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="99"/>
+      <c r="A101" s="91"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="88"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
@@ -8047,61 +8047,61 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="92"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="99"/>
+      <c r="A102" s="91"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="88"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="100"/>
+      <c r="G102" s="81"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="92"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="99"/>
+      <c r="A103" s="91"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="91"/>
+      <c r="E103" s="88"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="101"/>
+      <c r="G103" s="82"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="92"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="99"/>
+      <c r="A104" s="91"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="91"/>
+      <c r="E104" s="88"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="101"/>
+      <c r="G104" s="82"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="92"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="99"/>
+      <c r="A105" s="91"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="88"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="102"/>
+      <c r="G105" s="83"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="58">
+      <c r="A106" s="60">
         <v>14</v>
       </c>
-      <c r="B106" s="58">
+      <c r="B106" s="60">
         <v>3</v>
       </c>
-      <c r="C106" s="58">
+      <c r="C106" s="60">
         <v>10</v>
       </c>
-      <c r="D106" s="58"/>
-      <c r="E106" s="99" t="s">
+      <c r="D106" s="60"/>
+      <c r="E106" s="88" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
@@ -8112,11 +8112,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="58"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="99"/>
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="88"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
@@ -8125,61 +8125,61 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="58"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="99"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="88"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="100"/>
+      <c r="G108" s="81"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="58"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="99"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="88"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="101"/>
+      <c r="G109" s="82"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="58"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="99"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="88"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="101"/>
+      <c r="G110" s="82"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="58"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="99"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="88"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="102"/>
+      <c r="G111" s="83"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="92">
+      <c r="A112" s="91">
         <v>15</v>
       </c>
-      <c r="B112" s="92">
+      <c r="B112" s="91">
         <v>12</v>
       </c>
-      <c r="C112" s="92">
+      <c r="C112" s="91">
         <v>3</v>
       </c>
-      <c r="D112" s="92"/>
-      <c r="E112" s="94" t="s">
+      <c r="D112" s="91"/>
+      <c r="E112" s="89" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
@@ -8190,11 +8190,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92"/>
-      <c r="B113" s="92"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="92"/>
-      <c r="E113" s="94"/>
+      <c r="A113" s="91"/>
+      <c r="B113" s="91"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="91"/>
+      <c r="E113" s="89"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
@@ -8203,61 +8203,61 @@
       </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="92"/>
-      <c r="B114" s="92"/>
-      <c r="C114" s="92"/>
-      <c r="D114" s="92"/>
-      <c r="E114" s="94"/>
+      <c r="A114" s="91"/>
+      <c r="B114" s="91"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="91"/>
+      <c r="E114" s="89"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="100"/>
+      <c r="G114" s="81"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="92"/>
-      <c r="B115" s="92"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="94"/>
+      <c r="A115" s="91"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="91"/>
+      <c r="D115" s="91"/>
+      <c r="E115" s="89"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="101"/>
+      <c r="G115" s="82"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="92"/>
-      <c r="B116" s="92"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="92"/>
-      <c r="E116" s="94"/>
+      <c r="A116" s="91"/>
+      <c r="B116" s="91"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="91"/>
+      <c r="E116" s="89"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="101"/>
+      <c r="G116" s="82"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="92"/>
-      <c r="B117" s="92"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="94"/>
+      <c r="A117" s="91"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="91"/>
+      <c r="E117" s="89"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="102"/>
+      <c r="G117" s="83"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="58">
+      <c r="A118" s="60">
         <v>16</v>
       </c>
-      <c r="B118" s="58">
+      <c r="B118" s="60">
         <v>8</v>
       </c>
-      <c r="C118" s="58">
+      <c r="C118" s="60">
         <v>1</v>
       </c>
-      <c r="D118" s="58"/>
-      <c r="E118" s="93" t="s">
+      <c r="D118" s="60"/>
+      <c r="E118" s="90" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
@@ -8268,11 +8268,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="58"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="93"/>
+      <c r="A119" s="60"/>
+      <c r="B119" s="60"/>
+      <c r="C119" s="60"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="90"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
@@ -8281,61 +8281,61 @@
       </c>
     </row>
     <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="58"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="93"/>
+      <c r="A120" s="60"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="90"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="100"/>
+      <c r="G120" s="81"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="58"/>
-      <c r="B121" s="58"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="93"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="90"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="101"/>
+      <c r="G121" s="82"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="58"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="93"/>
+      <c r="A122" s="60"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="90"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="101"/>
+      <c r="G122" s="82"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="58"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="93"/>
+      <c r="A123" s="60"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="90"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="102"/>
+      <c r="G123" s="83"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="92">
+      <c r="A124" s="91">
         <v>17</v>
       </c>
-      <c r="B124" s="92">
+      <c r="B124" s="91">
         <v>2</v>
       </c>
-      <c r="C124" s="92">
+      <c r="C124" s="91">
         <v>3</v>
       </c>
-      <c r="D124" s="92"/>
-      <c r="E124" s="94" t="s">
+      <c r="D124" s="91"/>
+      <c r="E124" s="89" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
@@ -8346,11 +8346,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="92"/>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="94"/>
+      <c r="A125" s="91"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="89"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
@@ -8359,61 +8359,61 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="92"/>
-      <c r="B126" s="92"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="94"/>
+      <c r="A126" s="91"/>
+      <c r="B126" s="91"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="91"/>
+      <c r="E126" s="89"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="100"/>
+      <c r="G126" s="81"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="92"/>
-      <c r="B127" s="92"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="94"/>
+      <c r="A127" s="91"/>
+      <c r="B127" s="91"/>
+      <c r="C127" s="91"/>
+      <c r="D127" s="91"/>
+      <c r="E127" s="89"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="101"/>
+      <c r="G127" s="82"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="92"/>
-      <c r="B128" s="92"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="92"/>
-      <c r="E128" s="94"/>
+      <c r="A128" s="91"/>
+      <c r="B128" s="91"/>
+      <c r="C128" s="91"/>
+      <c r="D128" s="91"/>
+      <c r="E128" s="89"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="101"/>
+      <c r="G128" s="82"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="92"/>
-      <c r="B129" s="92"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="94"/>
+      <c r="A129" s="91"/>
+      <c r="B129" s="91"/>
+      <c r="C129" s="91"/>
+      <c r="D129" s="91"/>
+      <c r="E129" s="89"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="102"/>
+      <c r="G129" s="83"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="58">
+      <c r="A130" s="60">
         <v>18</v>
       </c>
-      <c r="B130" s="58">
+      <c r="B130" s="60">
         <v>2</v>
       </c>
-      <c r="C130" s="58">
+      <c r="C130" s="60">
         <v>9</v>
       </c>
-      <c r="D130" s="58"/>
-      <c r="E130" s="93" t="s">
+      <c r="D130" s="60"/>
+      <c r="E130" s="90" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
@@ -8424,11 +8424,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="58"/>
-      <c r="B131" s="58"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="93"/>
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="60"/>
+      <c r="D131" s="60"/>
+      <c r="E131" s="90"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
@@ -8437,61 +8437,61 @@
       </c>
     </row>
     <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="58"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="93"/>
+      <c r="A132" s="60"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="90"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="100"/>
+      <c r="G132" s="81"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="58"/>
-      <c r="B133" s="58"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="93"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="90"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="101"/>
+      <c r="G133" s="82"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="58"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="93"/>
+      <c r="A134" s="60"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="90"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="101"/>
+      <c r="G134" s="82"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="58"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="93"/>
+      <c r="A135" s="60"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="90"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="102"/>
+      <c r="G135" s="83"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="92">
+      <c r="A136" s="91">
         <v>19</v>
       </c>
-      <c r="B136" s="92">
+      <c r="B136" s="91">
         <v>8</v>
       </c>
-      <c r="C136" s="92">
+      <c r="C136" s="91">
         <v>7</v>
       </c>
-      <c r="D136" s="92"/>
-      <c r="E136" s="94" t="s">
+      <c r="D136" s="91"/>
+      <c r="E136" s="89" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
@@ -8502,11 +8502,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="92"/>
-      <c r="B137" s="92"/>
-      <c r="C137" s="92"/>
-      <c r="D137" s="92"/>
-      <c r="E137" s="94"/>
+      <c r="A137" s="91"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="91"/>
+      <c r="D137" s="91"/>
+      <c r="E137" s="89"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
@@ -8515,69 +8515,164 @@
       </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="92"/>
-      <c r="B138" s="92"/>
-      <c r="C138" s="92"/>
-      <c r="D138" s="92"/>
-      <c r="E138" s="94"/>
+      <c r="A138" s="91"/>
+      <c r="B138" s="91"/>
+      <c r="C138" s="91"/>
+      <c r="D138" s="91"/>
+      <c r="E138" s="89"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="100"/>
+      <c r="G138" s="81"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="92"/>
-      <c r="B139" s="92"/>
-      <c r="C139" s="92"/>
-      <c r="D139" s="92"/>
-      <c r="E139" s="94"/>
+      <c r="A139" s="91"/>
+      <c r="B139" s="91"/>
+      <c r="C139" s="91"/>
+      <c r="D139" s="91"/>
+      <c r="E139" s="89"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="101"/>
+      <c r="G139" s="82"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="92"/>
-      <c r="B140" s="92"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="92"/>
-      <c r="E140" s="94"/>
+      <c r="A140" s="91"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="91"/>
+      <c r="D140" s="91"/>
+      <c r="E140" s="89"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="101"/>
+      <c r="G140" s="82"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="92"/>
-      <c r="B141" s="92"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="94"/>
+      <c r="A141" s="91"/>
+      <c r="B141" s="91"/>
+      <c r="C141" s="91"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="89"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="102"/>
+      <c r="G141" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
     <mergeCell ref="A19:XFD19"/>
     <mergeCell ref="E94:E99"/>
     <mergeCell ref="E100:E105"/>
@@ -8602,119 +8697,24 @@
     <mergeCell ref="D118:D123"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="G30:G33"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8736,47 +8736,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -9245,70 +9245,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9779,70 +9779,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10313,70 +10313,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10860,70 +10860,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="103" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\solidity\mkdocs\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0BD586-57BB-444E-8ED4-054D5A13D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C951D8-2D0F-4919-8485-A94A3E7092CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="232">
   <si>
     <t>.num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -826,10 +826,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x1975D19F93A75A4ad3B8862a96E3a3dB55686f8c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSwapHelper의 exchange() -&gt; Governor의 몫 CStakableGToken에 적립됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -850,62 +846,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x68C71b52952870b6d0F0d045f5C31aCdCB33c09D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x55e327a550cEE03306E12630A399a361d5269f26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6BF38c38429a10178426a14D23A38213cBf6B2aC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x7b58a5957654a9d83228D1b2A2abe7525f9E7477</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAeEa7333B0658158121FAbDB579d49DD10b57950</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xBb8ecBcFEDc3BA8C967dD4D695829bEe33fB411e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xE5333ffAa61c52B73e3bd201Aefa9EB2DDbDfe84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x663E3625BbEA57e9711b67C0aD45B84F19a6Ce84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6dbF007e8ab171C4e6616B51DD1F28f56D2E3aCF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x5d2958cEe6038a2a6579Be9b8bBe99850682422e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x23203E60a83E4fcE796A540b0eFFCAaA87075094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x7704CeE7410bdFcf15b35e7EC0843067e3dAb103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x23571B88F4A7426389717D69e64aCDa5751fb8e2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0fE5322F52D13Fe39194d8d1B3a7F0559ea9F4CB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1klay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,23 +854,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xd49797b8E0A402BE748Fd07991A623912629587C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x54A0E6d498F16dBc63e6a1E5DB4b4F9F8D605C30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>klay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x629c8abc0311Cff77b663c1A626D2c5ac8a9EBee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xbDCDD585A2d147f3DAb0eeBBa22d5A09a07c2b4d</t>
+    <t>0xcc56cA764A526b107cb0375D74D6C6fcb4B9A28b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x216209A8D849d7ed3adCEB819986de76CcCEB545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xd30D38E554E195d7Ff97b85c12c02f2f4Ef757dD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3f613572f287636cce6f56DeC39A00cE16c0E2B7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8B8c20f7679Ea5fb21D7b6A43484c942a243f4b6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x21EcD3a6F3A6BDA9442d0563C699c5e738F1AF17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfefFEF65264962FE93F5CEB121ad9D564ab48047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC9E6FfFA95E1DaB4a96E6373e4C85d0225489D13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe703c64Aa3263f4D64CE88E9aeD590DaE2687A36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x31b1624a2767fD6FBf57cb274275644f5D08b654</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa63C6b081556c8fD3247A29e7cF084dA1b97c003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xcD3Cb6950eb1882ad364CaD400F54B7C6fa1C18F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xDB44aBF10f1fff4B20aD051f80a54C0118f3c181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x72Eb1A733412460BcfFe7AD66c3ff26065463B18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x11205d6414d4446618d57347dA5CA29Ed7B49aA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x68AE9B653fA355364ca805549F81E4f65352aAb0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xE83083E29C46C382Ced5A8ECF89E34D0cB990652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x058bD49176aB22E8e1Bf9B5729fE229b05720342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1979Db31c5aFfd8236aF3aAb54C5bA71E42cFf2B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,97 +1405,175 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,84 +1583,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2243,11 +2247,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>136</v>
       </c>
@@ -2285,28 +2289,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2777,11 +2781,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>138</v>
       </c>
@@ -2819,28 +2823,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3311,11 +3315,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>140</v>
       </c>
@@ -3353,28 +3357,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3845,11 +3849,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>142</v>
       </c>
@@ -3887,28 +3891,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4379,11 +4383,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>144</v>
       </c>
@@ -4421,28 +4425,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4913,11 +4917,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>146</v>
       </c>
@@ -4955,28 +4959,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -5438,7 +5442,7 @@
   <dimension ref="A2:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="F19" sqref="F19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5456,10 +5460,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="62"/>
+      <c r="O2" s="70"/>
       <c r="R2" s="33" t="s">
         <v>185</v>
       </c>
@@ -5488,25 +5492,25 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="37"/>
@@ -5515,23 +5519,23 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="38"/>
@@ -5540,25 +5544,25 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="34">
         <v>1000</v>
       </c>
@@ -5566,30 +5570,30 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="38"/>
@@ -5598,25 +5602,25 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5628,35 +5632,35 @@
       <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="54" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="77"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -5668,20 +5672,20 @@
       <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="53">
         <v>150000000</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -5691,26 +5695,26 @@
         <v>156</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="72">
+        <v>228</v>
+      </c>
+      <c r="D12" s="53">
         <v>10000000</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="54" t="s">
+      <c r="E12" s="54"/>
+      <c r="F12" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>157</v>
@@ -5718,41 +5722,41 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="53">
         <v>10000000</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="54"/>
+      <c r="F13" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -5770,19 +5774,19 @@
       <c r="E15" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="50" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -5792,58 +5796,58 @@
         <v>157</v>
       </c>
       <c r="D16" s="46">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="47">
-        <v>20000</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
+        <v>2000</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="38"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="76" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="38"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="50" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5858,60 +5862,60 @@
       <c r="E19" s="47">
         <v>100</v>
       </c>
-      <c r="F19" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
+      <c r="F19" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="76" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="76" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
-        <v>206</v>
+      <c r="A22" s="50" t="s">
+        <v>205</v>
       </c>
       <c r="B22" s="43" t="s">
         <v>158</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D22" s="46">
         <v>1</v>
@@ -5919,292 +5923,292 @@
       <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F22" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
+      <c r="F22" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="76" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="38"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="76" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="77"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="38"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>4</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>7</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>10</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
@@ -6217,7 +6221,7 @@
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G37" s="60"/>
       <c r="H37" s="60"/>
@@ -6238,7 +6242,7 @@
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
       <c r="F38" s="60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G38" s="60"/>
       <c r="H38" s="60"/>
@@ -6259,7 +6263,7 @@
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
       <c r="F39" s="60" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G39" s="60"/>
       <c r="H39" s="60"/>
@@ -6273,65 +6277,65 @@
       <c r="A40" s="11">
         <v>14</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>15</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>16</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
@@ -6349,161 +6353,210 @@
       <c r="M43" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
+      <c r="B45" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52" t="s">
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="51" t="s">
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="51" t="s">
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="A8:S8"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F32:M32"/>
     <mergeCell ref="F33:M33"/>
@@ -6519,70 +6572,21 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="A8:S8"/>
-    <mergeCell ref="A14:S14"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="F49:M49"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="F52:M52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6612,50 +6616,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="83">
         <v>100000000</v>
       </c>
-      <c r="F4" s="102"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -6667,17 +6671,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="107"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="84">
         <v>100000</v>
       </c>
-      <c r="F5" s="103"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -6689,17 +6693,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="107"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="84">
         <v>1000000</v>
       </c>
-      <c r="F6" s="103"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -6711,15 +6715,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="104">
+      <c r="E7" s="85">
         <v>150000000</v>
       </c>
-      <c r="F7" s="104"/>
+      <c r="F7" s="85"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -6728,17 +6732,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="109"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="95">
         <v>200000000</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6750,17 +6754,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="105"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="97">
         <v>20000000</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -6772,17 +6776,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="105"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="97">
         <v>2000000</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -6794,17 +6798,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="105"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="97">
         <v>1000000</v>
       </c>
-      <c r="F11" s="99"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -6816,17 +6820,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="91">
         <v>2000000</v>
       </c>
-      <c r="F12" s="93"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -6838,17 +6842,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="91">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="93"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -6860,17 +6864,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="91">
         <v>4000000</v>
       </c>
-      <c r="F14" s="93"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -6882,17 +6886,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="93">
         <v>500000000</v>
       </c>
-      <c r="F15" s="95"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -6904,17 +6908,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="93">
         <v>200000000</v>
       </c>
-      <c r="F16" s="95"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -6926,17 +6930,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="100"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="93">
         <v>10000000</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -6944,35 +6948,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="77"/>
-    </row>
-    <row r="19" spans="1:8" s="87" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
+    <row r="18" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" s="105" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -7009,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="60"/>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="100" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -7024,7 +7028,7 @@
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
-      <c r="E23" s="90"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
@@ -7037,57 +7041,57 @@
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
-      <c r="E24" s="90"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="81"/>
+      <c r="G24" s="107"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
-      <c r="E25" s="90"/>
+      <c r="E25" s="100"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="82"/>
+      <c r="G25" s="108"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="60"/>
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
-      <c r="E26" s="90"/>
+      <c r="E26" s="100"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="82"/>
+      <c r="G26" s="108"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="60"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
-      <c r="E27" s="90"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="83"/>
+      <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91">
+      <c r="A28" s="99">
         <v>1</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="91">
+      <c r="C28" s="99">
         <v>2</v>
       </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="89" t="s">
+      <c r="D28" s="99"/>
+      <c r="E28" s="101" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -7098,11 +7102,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="89"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
@@ -7111,48 +7115,48 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="89"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="81"/>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="89"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="82"/>
+      <c r="G31" s="108"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="89"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="82"/>
+      <c r="G32" s="108"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="89"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="101"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="83"/>
+      <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60">
@@ -7165,7 +7169,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="60"/>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="100" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -7180,7 +7184,7 @@
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
-      <c r="E35" s="90"/>
+      <c r="E35" s="100"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
@@ -7193,57 +7197,57 @@
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
-      <c r="E36" s="90"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="81"/>
+      <c r="G36" s="107"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
       <c r="D37" s="60"/>
-      <c r="E37" s="90"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="82"/>
+      <c r="G37" s="108"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
-      <c r="E38" s="90"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="82"/>
+      <c r="G38" s="108"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
       <c r="D39" s="60"/>
-      <c r="E39" s="90"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="83"/>
+      <c r="G39" s="109"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="91">
+      <c r="A40" s="99">
         <v>3</v>
       </c>
-      <c r="B40" s="91">
+      <c r="B40" s="99">
         <v>0</v>
       </c>
-      <c r="C40" s="91">
+      <c r="C40" s="99">
         <v>3</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="89" t="s">
+      <c r="D40" s="99"/>
+      <c r="E40" s="101" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -7254,11 +7258,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="89"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
@@ -7267,48 +7271,48 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="89"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="81"/>
+      <c r="G42" s="107"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="89"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="82"/>
+      <c r="G43" s="108"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="91"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="89"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="82"/>
+      <c r="G44" s="108"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="91"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="89"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="83"/>
+      <c r="G45" s="109"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="60">
@@ -7321,7 +7325,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="60"/>
-      <c r="E46" s="90" t="s">
+      <c r="E46" s="100" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -7336,7 +7340,7 @@
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
-      <c r="E47" s="90"/>
+      <c r="E47" s="100"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
@@ -7349,57 +7353,57 @@
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
-      <c r="E48" s="90"/>
+      <c r="E48" s="100"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="81"/>
+      <c r="G48" s="107"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
-      <c r="E49" s="90"/>
+      <c r="E49" s="100"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="82"/>
+      <c r="G49" s="108"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="60"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
-      <c r="E50" s="90"/>
+      <c r="E50" s="100"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="82"/>
+      <c r="G50" s="108"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="60"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="90"/>
+      <c r="E51" s="100"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="83"/>
+      <c r="G51" s="109"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="91">
+      <c r="A52" s="99">
         <v>5</v>
       </c>
-      <c r="B52" s="91">
+      <c r="B52" s="99">
         <v>1</v>
       </c>
-      <c r="C52" s="91">
+      <c r="C52" s="99">
         <v>3</v>
       </c>
-      <c r="D52" s="91"/>
-      <c r="E52" s="89" t="s">
+      <c r="D52" s="99"/>
+      <c r="E52" s="101" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -7410,11 +7414,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="91"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="89"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="101"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
@@ -7423,48 +7427,48 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="91"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="89"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="101"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="81"/>
+      <c r="G54" s="107"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="91"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="89"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="101"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="82"/>
+      <c r="G55" s="108"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="91"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="89"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="101"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="82"/>
+      <c r="G56" s="108"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="89"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="101"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="83"/>
+      <c r="G57" s="109"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="60">
@@ -7477,7 +7481,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="60"/>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="100" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
@@ -7492,7 +7496,7 @@
       <c r="B59" s="60"/>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
-      <c r="E59" s="90"/>
+      <c r="E59" s="100"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
@@ -7505,57 +7509,57 @@
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
       <c r="D60" s="60"/>
-      <c r="E60" s="90"/>
+      <c r="E60" s="100"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="81"/>
+      <c r="G60" s="107"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="60"/>
       <c r="B61" s="60"/>
       <c r="C61" s="60"/>
       <c r="D61" s="60"/>
-      <c r="E61" s="90"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="82"/>
+      <c r="G61" s="108"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="60"/>
       <c r="B62" s="60"/>
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
-      <c r="E62" s="90"/>
+      <c r="E62" s="100"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="82"/>
+      <c r="G62" s="108"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="60"/>
       <c r="B63" s="60"/>
       <c r="C63" s="60"/>
       <c r="D63" s="60"/>
-      <c r="E63" s="90"/>
+      <c r="E63" s="100"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="83"/>
+      <c r="G63" s="109"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="91">
+      <c r="A64" s="99">
         <v>7</v>
       </c>
-      <c r="B64" s="91">
+      <c r="B64" s="99">
         <v>1</v>
       </c>
-      <c r="C64" s="91">
+      <c r="C64" s="99">
         <v>7</v>
       </c>
-      <c r="D64" s="91"/>
-      <c r="E64" s="89" t="s">
+      <c r="D64" s="99"/>
+      <c r="E64" s="101" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -7566,11 +7570,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="91"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="89"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="101"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
@@ -7579,48 +7583,48 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="91"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="89"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="101"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="81"/>
+      <c r="G66" s="107"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="91"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="89"/>
+      <c r="A67" s="99"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="101"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="82"/>
+      <c r="G67" s="108"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="91"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="89"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="101"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="82"/>
+      <c r="G68" s="108"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="91"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="89"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="101"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="83"/>
+      <c r="G69" s="109"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="60">
@@ -7633,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="60"/>
-      <c r="E70" s="90" t="s">
+      <c r="E70" s="100" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
@@ -7648,7 +7652,7 @@
       <c r="B71" s="60"/>
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
-      <c r="E71" s="90"/>
+      <c r="E71" s="100"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
@@ -7661,57 +7665,57 @@
       <c r="B72" s="60"/>
       <c r="C72" s="60"/>
       <c r="D72" s="60"/>
-      <c r="E72" s="90"/>
+      <c r="E72" s="100"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="81"/>
+      <c r="G72" s="107"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="60"/>
       <c r="B73" s="60"/>
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
-      <c r="E73" s="90"/>
+      <c r="E73" s="100"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="82"/>
+      <c r="G73" s="108"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="60"/>
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
       <c r="D74" s="60"/>
-      <c r="E74" s="90"/>
+      <c r="E74" s="100"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="82"/>
+      <c r="G74" s="108"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60"/>
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
       <c r="D75" s="60"/>
-      <c r="E75" s="90"/>
+      <c r="E75" s="100"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="83"/>
+      <c r="G75" s="109"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="91">
+      <c r="A76" s="99">
         <v>9</v>
       </c>
-      <c r="B76" s="91">
+      <c r="B76" s="99">
         <v>5</v>
       </c>
-      <c r="C76" s="91">
+      <c r="C76" s="99">
         <v>9</v>
       </c>
-      <c r="D76" s="91"/>
-      <c r="E76" s="89" t="s">
+      <c r="D76" s="99"/>
+      <c r="E76" s="101" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
@@ -7722,11 +7726,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="89"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="101"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
@@ -7735,48 +7739,48 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="91"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="89"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="101"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="81"/>
+      <c r="G78" s="107"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="91"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="89"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="101"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="82"/>
+      <c r="G79" s="108"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="91"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="89"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="101"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="82"/>
+      <c r="G80" s="108"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="91"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="89"/>
+      <c r="A81" s="99"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="101"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="83"/>
+      <c r="G81" s="109"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="60">
@@ -7789,7 +7793,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="60"/>
-      <c r="E82" s="90" t="s">
+      <c r="E82" s="100" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
@@ -7804,7 +7808,7 @@
       <c r="B83" s="60"/>
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
-      <c r="E83" s="90"/>
+      <c r="E83" s="100"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
@@ -7817,57 +7821,57 @@
       <c r="B84" s="60"/>
       <c r="C84" s="60"/>
       <c r="D84" s="60"/>
-      <c r="E84" s="90"/>
+      <c r="E84" s="100"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="81"/>
+      <c r="G84" s="107"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="60"/>
       <c r="B85" s="60"/>
       <c r="C85" s="60"/>
       <c r="D85" s="60"/>
-      <c r="E85" s="90"/>
+      <c r="E85" s="100"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="82"/>
+      <c r="G85" s="108"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="60"/>
       <c r="B86" s="60"/>
       <c r="C86" s="60"/>
       <c r="D86" s="60"/>
-      <c r="E86" s="90"/>
+      <c r="E86" s="100"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="82"/>
+      <c r="G86" s="108"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="60"/>
       <c r="B87" s="60"/>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="90"/>
+      <c r="E87" s="100"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="83"/>
+      <c r="G87" s="109"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="91">
+      <c r="A88" s="99">
         <v>11</v>
       </c>
-      <c r="B88" s="91">
+      <c r="B88" s="99">
         <v>4</v>
       </c>
-      <c r="C88" s="91">
+      <c r="C88" s="99">
         <v>10</v>
       </c>
-      <c r="D88" s="91"/>
-      <c r="E88" s="88" t="s">
+      <c r="D88" s="99"/>
+      <c r="E88" s="106" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
@@ -7878,11 +7882,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="91"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="88"/>
+      <c r="A89" s="99"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="106"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
@@ -7891,48 +7895,48 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="91"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="88"/>
+      <c r="A90" s="99"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="106"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="81"/>
+      <c r="G90" s="107"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="91"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="88"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="106"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="82"/>
+      <c r="G91" s="108"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="91"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="88"/>
+      <c r="A92" s="99"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="106"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="82"/>
+      <c r="G92" s="108"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="91"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="88"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="106"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="83"/>
+      <c r="G93" s="109"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="60">
@@ -7945,7 +7949,7 @@
         <v>11</v>
       </c>
       <c r="D94" s="60"/>
-      <c r="E94" s="88" t="s">
+      <c r="E94" s="106" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
@@ -7960,7 +7964,7 @@
       <c r="B95" s="60"/>
       <c r="C95" s="60"/>
       <c r="D95" s="60"/>
-      <c r="E95" s="88"/>
+      <c r="E95" s="106"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
@@ -7973,57 +7977,57 @@
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
       <c r="D96" s="60"/>
-      <c r="E96" s="88"/>
+      <c r="E96" s="106"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="81"/>
+      <c r="G96" s="107"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="60"/>
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
       <c r="D97" s="60"/>
-      <c r="E97" s="88"/>
+      <c r="E97" s="106"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="82"/>
+      <c r="G97" s="108"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="60"/>
       <c r="B98" s="60"/>
       <c r="C98" s="60"/>
       <c r="D98" s="60"/>
-      <c r="E98" s="88"/>
+      <c r="E98" s="106"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="82"/>
+      <c r="G98" s="108"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="60"/>
       <c r="B99" s="60"/>
       <c r="C99" s="60"/>
       <c r="D99" s="60"/>
-      <c r="E99" s="88"/>
+      <c r="E99" s="106"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="83"/>
+      <c r="G99" s="109"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="91">
+      <c r="A100" s="99">
         <v>13</v>
       </c>
-      <c r="B100" s="91">
+      <c r="B100" s="99">
         <v>11</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="99">
         <v>12</v>
       </c>
-      <c r="D100" s="91"/>
-      <c r="E100" s="88" t="s">
+      <c r="D100" s="99"/>
+      <c r="E100" s="106" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
@@ -8034,11 +8038,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="91"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="91"/>
-      <c r="D101" s="91"/>
-      <c r="E101" s="88"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="99"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="106"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
@@ -8047,48 +8051,48 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="91"/>
-      <c r="B102" s="91"/>
-      <c r="C102" s="91"/>
-      <c r="D102" s="91"/>
-      <c r="E102" s="88"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="106"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="81"/>
+      <c r="G102" s="107"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="91"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
-      <c r="E103" s="88"/>
+      <c r="A103" s="99"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="106"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="82"/>
+      <c r="G103" s="108"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="91"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="91"/>
-      <c r="E104" s="88"/>
+      <c r="A104" s="99"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="106"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="82"/>
+      <c r="G104" s="108"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="91"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="91"/>
-      <c r="E105" s="88"/>
+      <c r="A105" s="99"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="106"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="83"/>
+      <c r="G105" s="109"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="60">
@@ -8101,7 +8105,7 @@
         <v>10</v>
       </c>
       <c r="D106" s="60"/>
-      <c r="E106" s="88" t="s">
+      <c r="E106" s="106" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
@@ -8116,7 +8120,7 @@
       <c r="B107" s="60"/>
       <c r="C107" s="60"/>
       <c r="D107" s="60"/>
-      <c r="E107" s="88"/>
+      <c r="E107" s="106"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
@@ -8129,57 +8133,57 @@
       <c r="B108" s="60"/>
       <c r="C108" s="60"/>
       <c r="D108" s="60"/>
-      <c r="E108" s="88"/>
+      <c r="E108" s="106"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="81"/>
+      <c r="G108" s="107"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="60"/>
       <c r="B109" s="60"/>
       <c r="C109" s="60"/>
       <c r="D109" s="60"/>
-      <c r="E109" s="88"/>
+      <c r="E109" s="106"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="82"/>
+      <c r="G109" s="108"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="60"/>
       <c r="B110" s="60"/>
       <c r="C110" s="60"/>
       <c r="D110" s="60"/>
-      <c r="E110" s="88"/>
+      <c r="E110" s="106"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="82"/>
+      <c r="G110" s="108"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="60"/>
       <c r="B111" s="60"/>
       <c r="C111" s="60"/>
       <c r="D111" s="60"/>
-      <c r="E111" s="88"/>
+      <c r="E111" s="106"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="83"/>
+      <c r="G111" s="109"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="91">
+      <c r="A112" s="99">
         <v>15</v>
       </c>
-      <c r="B112" s="91">
+      <c r="B112" s="99">
         <v>12</v>
       </c>
-      <c r="C112" s="91">
+      <c r="C112" s="99">
         <v>3</v>
       </c>
-      <c r="D112" s="91"/>
-      <c r="E112" s="89" t="s">
+      <c r="D112" s="99"/>
+      <c r="E112" s="101" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
@@ -8190,11 +8194,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="91"/>
-      <c r="B113" s="91"/>
-      <c r="C113" s="91"/>
-      <c r="D113" s="91"/>
-      <c r="E113" s="89"/>
+      <c r="A113" s="99"/>
+      <c r="B113" s="99"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="101"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
@@ -8203,48 +8207,48 @@
       </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="91"/>
-      <c r="B114" s="91"/>
-      <c r="C114" s="91"/>
-      <c r="D114" s="91"/>
-      <c r="E114" s="89"/>
+      <c r="A114" s="99"/>
+      <c r="B114" s="99"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="101"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="81"/>
+      <c r="G114" s="107"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="91"/>
-      <c r="B115" s="91"/>
-      <c r="C115" s="91"/>
-      <c r="D115" s="91"/>
-      <c r="E115" s="89"/>
+      <c r="A115" s="99"/>
+      <c r="B115" s="99"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="101"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="82"/>
+      <c r="G115" s="108"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="91"/>
-      <c r="B116" s="91"/>
-      <c r="C116" s="91"/>
-      <c r="D116" s="91"/>
-      <c r="E116" s="89"/>
+      <c r="A116" s="99"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="101"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="82"/>
+      <c r="G116" s="108"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="91"/>
-      <c r="B117" s="91"/>
-      <c r="C117" s="91"/>
-      <c r="D117" s="91"/>
-      <c r="E117" s="89"/>
+      <c r="A117" s="99"/>
+      <c r="B117" s="99"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="99"/>
+      <c r="E117" s="101"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="83"/>
+      <c r="G117" s="109"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="60">
@@ -8257,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="60"/>
-      <c r="E118" s="90" t="s">
+      <c r="E118" s="100" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
@@ -8272,7 +8276,7 @@
       <c r="B119" s="60"/>
       <c r="C119" s="60"/>
       <c r="D119" s="60"/>
-      <c r="E119" s="90"/>
+      <c r="E119" s="100"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
@@ -8285,57 +8289,57 @@
       <c r="B120" s="60"/>
       <c r="C120" s="60"/>
       <c r="D120" s="60"/>
-      <c r="E120" s="90"/>
+      <c r="E120" s="100"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="81"/>
+      <c r="G120" s="107"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="60"/>
       <c r="B121" s="60"/>
       <c r="C121" s="60"/>
       <c r="D121" s="60"/>
-      <c r="E121" s="90"/>
+      <c r="E121" s="100"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="82"/>
+      <c r="G121" s="108"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="60"/>
       <c r="B122" s="60"/>
       <c r="C122" s="60"/>
       <c r="D122" s="60"/>
-      <c r="E122" s="90"/>
+      <c r="E122" s="100"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="82"/>
+      <c r="G122" s="108"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="60"/>
       <c r="B123" s="60"/>
       <c r="C123" s="60"/>
       <c r="D123" s="60"/>
-      <c r="E123" s="90"/>
+      <c r="E123" s="100"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="83"/>
+      <c r="G123" s="109"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="91">
+      <c r="A124" s="99">
         <v>17</v>
       </c>
-      <c r="B124" s="91">
+      <c r="B124" s="99">
         <v>2</v>
       </c>
-      <c r="C124" s="91">
+      <c r="C124" s="99">
         <v>3</v>
       </c>
-      <c r="D124" s="91"/>
-      <c r="E124" s="89" t="s">
+      <c r="D124" s="99"/>
+      <c r="E124" s="101" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
@@ -8346,11 +8350,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="91"/>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="89"/>
+      <c r="A125" s="99"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="101"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
@@ -8359,48 +8363,48 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="91"/>
-      <c r="B126" s="91"/>
-      <c r="C126" s="91"/>
-      <c r="D126" s="91"/>
-      <c r="E126" s="89"/>
+      <c r="A126" s="99"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
+      <c r="E126" s="101"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="81"/>
+      <c r="G126" s="107"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="91"/>
-      <c r="B127" s="91"/>
-      <c r="C127" s="91"/>
-      <c r="D127" s="91"/>
-      <c r="E127" s="89"/>
+      <c r="A127" s="99"/>
+      <c r="B127" s="99"/>
+      <c r="C127" s="99"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="101"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="82"/>
+      <c r="G127" s="108"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="91"/>
-      <c r="B128" s="91"/>
-      <c r="C128" s="91"/>
-      <c r="D128" s="91"/>
-      <c r="E128" s="89"/>
+      <c r="A128" s="99"/>
+      <c r="B128" s="99"/>
+      <c r="C128" s="99"/>
+      <c r="D128" s="99"/>
+      <c r="E128" s="101"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="82"/>
+      <c r="G128" s="108"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="91"/>
-      <c r="B129" s="91"/>
-      <c r="C129" s="91"/>
-      <c r="D129" s="91"/>
-      <c r="E129" s="89"/>
+      <c r="A129" s="99"/>
+      <c r="B129" s="99"/>
+      <c r="C129" s="99"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="101"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="83"/>
+      <c r="G129" s="109"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="60">
@@ -8413,7 +8417,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="60"/>
-      <c r="E130" s="90" t="s">
+      <c r="E130" s="100" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
@@ -8428,7 +8432,7 @@
       <c r="B131" s="60"/>
       <c r="C131" s="60"/>
       <c r="D131" s="60"/>
-      <c r="E131" s="90"/>
+      <c r="E131" s="100"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
@@ -8441,57 +8445,57 @@
       <c r="B132" s="60"/>
       <c r="C132" s="60"/>
       <c r="D132" s="60"/>
-      <c r="E132" s="90"/>
+      <c r="E132" s="100"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="81"/>
+      <c r="G132" s="107"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="60"/>
       <c r="B133" s="60"/>
       <c r="C133" s="60"/>
       <c r="D133" s="60"/>
-      <c r="E133" s="90"/>
+      <c r="E133" s="100"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="82"/>
+      <c r="G133" s="108"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="60"/>
       <c r="B134" s="60"/>
       <c r="C134" s="60"/>
       <c r="D134" s="60"/>
-      <c r="E134" s="90"/>
+      <c r="E134" s="100"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="82"/>
+      <c r="G134" s="108"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="60"/>
       <c r="B135" s="60"/>
       <c r="C135" s="60"/>
       <c r="D135" s="60"/>
-      <c r="E135" s="90"/>
+      <c r="E135" s="100"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="83"/>
+      <c r="G135" s="109"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="91">
+      <c r="A136" s="99">
         <v>19</v>
       </c>
-      <c r="B136" s="91">
+      <c r="B136" s="99">
         <v>8</v>
       </c>
-      <c r="C136" s="91">
+      <c r="C136" s="99">
         <v>7</v>
       </c>
-      <c r="D136" s="91"/>
-      <c r="E136" s="89" t="s">
+      <c r="D136" s="99"/>
+      <c r="E136" s="101" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
@@ -8502,11 +8506,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="91"/>
-      <c r="B137" s="91"/>
-      <c r="C137" s="91"/>
-      <c r="D137" s="91"/>
-      <c r="E137" s="89"/>
+      <c r="A137" s="99"/>
+      <c r="B137" s="99"/>
+      <c r="C137" s="99"/>
+      <c r="D137" s="99"/>
+      <c r="E137" s="101"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
@@ -8515,51 +8519,182 @@
       </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="91"/>
-      <c r="B138" s="91"/>
-      <c r="C138" s="91"/>
-      <c r="D138" s="91"/>
-      <c r="E138" s="89"/>
+      <c r="A138" s="99"/>
+      <c r="B138" s="99"/>
+      <c r="C138" s="99"/>
+      <c r="D138" s="99"/>
+      <c r="E138" s="101"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="81"/>
+      <c r="G138" s="107"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="91"/>
-      <c r="B139" s="91"/>
-      <c r="C139" s="91"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="89"/>
+      <c r="A139" s="99"/>
+      <c r="B139" s="99"/>
+      <c r="C139" s="99"/>
+      <c r="D139" s="99"/>
+      <c r="E139" s="101"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="82"/>
+      <c r="G139" s="108"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="91"/>
-      <c r="B140" s="91"/>
-      <c r="C140" s="91"/>
-      <c r="D140" s="91"/>
-      <c r="E140" s="89"/>
+      <c r="A140" s="99"/>
+      <c r="B140" s="99"/>
+      <c r="C140" s="99"/>
+      <c r="D140" s="99"/>
+      <c r="E140" s="101"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="82"/>
+      <c r="G140" s="108"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="91"/>
-      <c r="B141" s="91"/>
-      <c r="C141" s="91"/>
-      <c r="D141" s="91"/>
-      <c r="E141" s="89"/>
+      <c r="A141" s="99"/>
+      <c r="B141" s="99"/>
+      <c r="C141" s="99"/>
+      <c r="D141" s="99"/>
+      <c r="E141" s="101"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="83"/>
+      <c r="G141" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="E94:E99"/>
+    <mergeCell ref="E100:E105"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="E124:E129"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="B15:C15"/>
@@ -8584,137 +8719,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="E94:E99"/>
-    <mergeCell ref="E100:E105"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="E124:E129"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E76:E81"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="G126:G129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8736,11 +8740,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110"/>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
@@ -8755,28 +8759,28 @@
       <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -9245,11 +9249,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>128</v>
       </c>
@@ -9287,28 +9291,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9779,11 +9783,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>130</v>
       </c>
@@ -9821,28 +9825,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10313,11 +10317,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>132</v>
       </c>
@@ -10355,28 +10359,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10860,11 +10864,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>134</v>
       </c>
@@ -10902,28 +10906,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\solidity\mkdocs\dex-doc\testsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\dex\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C951D8-2D0F-4919-8485-A94A3E7092CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BA98B1-7DD5-4126-A5BC-D440B07B385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
+    <workbookView xWindow="-16200" yWindow="9405" windowWidth="15360" windowHeight="18690" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 방법" sheetId="3" r:id="rId1"/>
@@ -858,66 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xcc56cA764A526b107cb0375D74D6C6fcb4B9A28b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x216209A8D849d7ed3adCEB819986de76CcCEB545</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xd30D38E554E195d7Ff97b85c12c02f2f4Ef757dD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x3f613572f287636cce6f56DeC39A00cE16c0E2B7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x8B8c20f7679Ea5fb21D7b6A43484c942a243f4b6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x21EcD3a6F3A6BDA9442d0563C699c5e738F1AF17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xfefFEF65264962FE93F5CEB121ad9D564ab48047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xC9E6FfFA95E1DaB4a96E6373e4C85d0225489D13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xe703c64Aa3263f4D64CE88E9aeD590DaE2687A36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x31b1624a2767fD6FBf57cb274275644f5D08b654</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xa63C6b081556c8fD3247A29e7cF084dA1b97c003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xcD3Cb6950eb1882ad364CaD400F54B7C6fa1C18F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xDB44aBF10f1fff4B20aD051f80a54C0118f3c181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x72Eb1A733412460BcfFe7AD66c3ff26065463B18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x11205d6414d4446618d57347dA5CA29Ed7B49aA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x68AE9B653fA355364ca805549F81E4f65352aAb0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -926,15 +866,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xE83083E29C46C382Ced5A8ECF89E34D0cB990652</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x058bD49176aB22E8e1Bf9B5729fE229b05720342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1979Db31c5aFfd8236aF3aAb54C5bA71E42cFf2B</t>
+    <t>0xFFc3B8475f18E2F8928944FB0e80AD3f77FB5b99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf9FfF79D3137358D149a854588ae0AaBe65bC4F3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2d53C174173CC7C15305FE2fc6507AA94044A7cA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x33A51609aE35767bbbE36894Bb6FBFE35cddB852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0Bde2CD0EB9Ffd0fF64E21CD65718eA472D0CB8D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3377708c5a34257cE72CFc4f9a45EF4809e21c4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe50775990359b5aD41663160Fd48851D818076b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x61f3A90c95f16d3eD53E13fF5920dd1d1423f615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7F29d1A9B3c0D9aa386dd4d3470ED125cABBf2F4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x9383FEc71ECDfF1511d8f26b9f8Bc0100e0ec49B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x643Ab78005B88b82078D39519920BFE884Bbd74F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5F3af5d46ec9B20dD652867E3705eBB0c79494d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x23ce2EEd676beA0E7ec06b9e21b3a13a24BBE74E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8de3833080Db738aFcE6a25Cc6B45257d479c9E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x659aCd70df7e021302aA2907FE1Dbb7eE50DBc38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x9A3a88729913267DEC84c3aac09499BD816f8DA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x910e49A2f31fF9EA50A31d3179eCB670C060cd99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6a935FEedDCb813666210b1DbA8b9cbfc1516A06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1405,13 +1405,79 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1421,10 +1487,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1432,71 +1498,62 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,63 +1583,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2247,11 +2247,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>136</v>
       </c>
@@ -2289,28 +2289,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2781,11 +2781,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>138</v>
       </c>
@@ -2823,28 +2823,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3315,11 +3315,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>140</v>
       </c>
@@ -3357,28 +3357,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3849,11 +3849,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>142</v>
       </c>
@@ -3891,28 +3891,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4383,11 +4383,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>144</v>
       </c>
@@ -4425,28 +4425,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4917,11 +4917,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>146</v>
       </c>
@@ -4959,28 +4959,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -5442,7 +5442,7 @@
   <dimension ref="A2:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:M19"/>
+      <selection activeCell="F9" sqref="F9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5453,17 +5453,17 @@
     <col min="4" max="4" width="7.125" style="23" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="29" customWidth="1"/>
     <col min="14" max="14" width="9.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="31" customWidth="1"/>
+    <col min="15" max="15" width="32.375" style="31" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.125" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17.25" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="70"/>
+      <c r="O2" s="58"/>
       <c r="R2" s="33" t="s">
         <v>185</v>
       </c>
@@ -5492,25 +5492,25 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="37"/>
@@ -5519,23 +5519,23 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="38"/>
@@ -5544,25 +5544,25 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="34">
         <v>1000</v>
       </c>
@@ -5577,23 +5577,23 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="38"/>
@@ -5602,25 +5602,25 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5632,35 +5632,35 @@
       <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="52" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="55" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="56"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -5672,20 +5672,20 @@
       <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="75">
         <v>150000000</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -5695,22 +5695,22 @@
         <v>156</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="53">
+        <v>213</v>
+      </c>
+      <c r="D12" s="75">
         <v>10000000</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="52" t="s">
+      <c r="E12" s="76"/>
+      <c r="F12" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -5722,41 +5722,41 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="75">
         <v>10000000</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="52" t="s">
+      <c r="E13" s="76"/>
+      <c r="F13" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
     </row>
     <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -5774,19 +5774,19 @@
       <c r="E15" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="72" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -5812,42 +5812,42 @@
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="55" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="73"/>
+      <c r="B17" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="38"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
-      <c r="B18" s="55" t="s">
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="74"/>
+      <c r="B18" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="38"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="72" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5873,42 +5873,42 @@
       <c r="L19" s="59"/>
       <c r="M19" s="59"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="55" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="73"/>
+      <c r="B20" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="55" t="s">
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="73"/>
+      <c r="B21" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="72" t="s">
         <v>205</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -5934,408 +5934,414 @@
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="55" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="73"/>
+      <c r="B23" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="38"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="55" t="s">
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="73"/>
+      <c r="B24" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="38"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-    </row>
-    <row r="25" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-    </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77" t="s">
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+    </row>
+    <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="O29" s="31">
+        <v>9.9889979999755599E+24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>4</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="O30" s="31">
+        <v>9.9778780292155191E+24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>7</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>10</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>11</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>12</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>13</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60" t="s">
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>14</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>15</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>16</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
@@ -6353,184 +6359,183 @@
       <c r="M43" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79" t="s">
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80" t="s">
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="78" t="s">
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="78" t="s">
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="78" t="s">
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="F52:M52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="F49:M49"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F17:M17"/>
@@ -6547,46 +6552,47 @@
     <mergeCell ref="A8:S8"/>
     <mergeCell ref="A14:S14"/>
     <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F40:M40"/>
     <mergeCell ref="F33:M33"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C48:E48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6598,7 +6604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6A0D78-098B-4B15-80C1-AFDE4502613B}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G138" sqref="G138:G141"/>
     </sheetView>
   </sheetViews>
@@ -6616,50 +6622,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="82"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="102">
         <v>100000000</v>
       </c>
-      <c r="F4" s="83"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -6671,17 +6677,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="103">
         <v>100000</v>
       </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -6693,17 +6699,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="88"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="103">
         <v>1000000</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="103"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -6715,15 +6721,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="85">
+      <c r="E7" s="104">
         <v>150000000</v>
       </c>
-      <c r="F7" s="85"/>
+      <c r="F7" s="104"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -6732,17 +6738,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="96">
         <v>200000000</v>
       </c>
-      <c r="F8" s="96"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6754,17 +6760,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="98">
         <v>20000000</v>
       </c>
-      <c r="F9" s="98"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -6776,17 +6782,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="98">
         <v>2000000</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -6798,17 +6804,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="98">
         <v>1000000</v>
       </c>
-      <c r="F11" s="98"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -6820,17 +6826,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="92">
         <v>2000000</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -6842,17 +6848,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="92">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -6864,17 +6870,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="92">
         <v>4000000</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -6886,17 +6892,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="94">
         <v>500000000</v>
       </c>
-      <c r="F15" s="94"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -6908,17 +6914,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="94">
         <v>200000000</v>
       </c>
-      <c r="F16" s="94"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -6930,17 +6936,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="94">
         <v>10000000</v>
       </c>
-      <c r="F17" s="94"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -6948,35 +6954,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" s="105" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
+    <row r="18" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+    </row>
+    <row r="19" spans="1:8" s="87" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -7003,17 +7009,17 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60">
+      <c r="A22" s="54">
         <v>0</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="54">
         <v>0</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="100" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="90" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -7024,11 +7030,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="100"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
@@ -7037,61 +7043,61 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="100"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="107"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="100"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="108"/>
+      <c r="G25" s="82"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="100"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="108"/>
+      <c r="G26" s="82"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="100"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="109"/>
+      <c r="G27" s="83"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="99">
+      <c r="A28" s="91">
         <v>1</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="99">
+      <c r="C28" s="91">
         <v>2</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="101" t="s">
+      <c r="D28" s="91"/>
+      <c r="E28" s="89" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -7102,11 +7108,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="101"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
@@ -7115,61 +7121,61 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="101"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="107"/>
+      <c r="G30" s="81"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="101"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="108"/>
+      <c r="G31" s="82"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="101"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="108"/>
+      <c r="G32" s="82"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="101"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="109"/>
+      <c r="G33" s="83"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60">
+      <c r="A34" s="54">
         <v>2</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="54">
         <v>6</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="100" t="s">
+      <c r="D34" s="54"/>
+      <c r="E34" s="90" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -7180,11 +7186,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="100"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
@@ -7193,61 +7199,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="100"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="90"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="107"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="100"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="90"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="108"/>
+      <c r="G37" s="82"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="100"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="90"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="108"/>
+      <c r="G38" s="82"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="100"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="90"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="109"/>
+      <c r="G39" s="83"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="99">
+      <c r="A40" s="91">
         <v>3</v>
       </c>
-      <c r="B40" s="99">
+      <c r="B40" s="91">
         <v>0</v>
       </c>
-      <c r="C40" s="99">
+      <c r="C40" s="91">
         <v>3</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="101" t="s">
+      <c r="D40" s="91"/>
+      <c r="E40" s="89" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -7258,11 +7264,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="99"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="101"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="89"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
@@ -7271,61 +7277,61 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="101"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="89"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="107"/>
+      <c r="G42" s="81"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="101"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="108"/>
+      <c r="G43" s="82"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="101"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="89"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="108"/>
+      <c r="G44" s="82"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="101"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="89"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="109"/>
+      <c r="G45" s="83"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="60">
+      <c r="A46" s="54">
         <v>4</v>
       </c>
-      <c r="B46" s="60">
+      <c r="B46" s="54">
         <v>0</v>
       </c>
-      <c r="C46" s="60">
+      <c r="C46" s="54">
         <v>4</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="100" t="s">
+      <c r="D46" s="54"/>
+      <c r="E46" s="90" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -7336,11 +7342,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="100"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
@@ -7349,61 +7355,61 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="100"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="90"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="107"/>
+      <c r="G48" s="81"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="100"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="90"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="108"/>
+      <c r="G49" s="82"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="100"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="108"/>
+      <c r="G50" s="82"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="100"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="90"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="109"/>
+      <c r="G51" s="83"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="99">
+      <c r="A52" s="91">
         <v>5</v>
       </c>
-      <c r="B52" s="99">
+      <c r="B52" s="91">
         <v>1</v>
       </c>
-      <c r="C52" s="99">
+      <c r="C52" s="91">
         <v>3</v>
       </c>
-      <c r="D52" s="99"/>
-      <c r="E52" s="101" t="s">
+      <c r="D52" s="91"/>
+      <c r="E52" s="89" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -7414,11 +7420,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="99"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="101"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="89"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
@@ -7427,61 +7433,61 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="99"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="101"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="89"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="107"/>
+      <c r="G54" s="81"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="99"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="101"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="108"/>
+      <c r="G55" s="82"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="99"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="101"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="89"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="108"/>
+      <c r="G56" s="82"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="99"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="101"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="89"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="109"/>
+      <c r="G57" s="83"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="60">
+      <c r="A58" s="54">
         <v>6</v>
       </c>
-      <c r="B58" s="60">
+      <c r="B58" s="54">
         <v>1</v>
       </c>
-      <c r="C58" s="60">
+      <c r="C58" s="54">
         <v>4</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="100" t="s">
+      <c r="D58" s="54"/>
+      <c r="E58" s="90" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
@@ -7492,11 +7498,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="100"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
@@ -7505,61 +7511,61 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="100"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="90"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="107"/>
+      <c r="G60" s="81"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="100"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="90"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="108"/>
+      <c r="G61" s="82"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="100"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="90"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="108"/>
+      <c r="G62" s="82"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="100"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="90"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="109"/>
+      <c r="G63" s="83"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="99">
+      <c r="A64" s="91">
         <v>7</v>
       </c>
-      <c r="B64" s="99">
+      <c r="B64" s="91">
         <v>1</v>
       </c>
-      <c r="C64" s="99">
+      <c r="C64" s="91">
         <v>7</v>
       </c>
-      <c r="D64" s="99"/>
-      <c r="E64" s="101" t="s">
+      <c r="D64" s="91"/>
+      <c r="E64" s="89" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -7570,11 +7576,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="99"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="101"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="89"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
@@ -7583,61 +7589,61 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="99"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="101"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="89"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="107"/>
+      <c r="G66" s="81"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="99"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="101"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="89"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="108"/>
+      <c r="G67" s="82"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="99"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="101"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="89"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="108"/>
+      <c r="G68" s="82"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="101"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="89"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="109"/>
+      <c r="G69" s="83"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="60">
+      <c r="A70" s="54">
         <v>8</v>
       </c>
-      <c r="B70" s="60">
+      <c r="B70" s="54">
         <v>5</v>
       </c>
-      <c r="C70" s="60">
+      <c r="C70" s="54">
         <v>3</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="100" t="s">
+      <c r="D70" s="54"/>
+      <c r="E70" s="90" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
@@ -7648,11 +7654,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="100"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="90"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
@@ -7661,61 +7667,61 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="100"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="90"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="107"/>
+      <c r="G72" s="81"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="100"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="90"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="108"/>
+      <c r="G73" s="82"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="100"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="90"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="108"/>
+      <c r="G74" s="82"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="100"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="90"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="109"/>
+      <c r="G75" s="83"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="99">
+      <c r="A76" s="91">
         <v>9</v>
       </c>
-      <c r="B76" s="99">
+      <c r="B76" s="91">
         <v>5</v>
       </c>
-      <c r="C76" s="99">
+      <c r="C76" s="91">
         <v>9</v>
       </c>
-      <c r="D76" s="99"/>
-      <c r="E76" s="101" t="s">
+      <c r="D76" s="91"/>
+      <c r="E76" s="89" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
@@ -7726,11 +7732,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="99"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="101"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="89"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
@@ -7739,61 +7745,61 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="99"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="101"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="89"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="107"/>
+      <c r="G78" s="81"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="99"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="101"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="89"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="108"/>
+      <c r="G79" s="82"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="99"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="101"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="89"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="108"/>
+      <c r="G80" s="82"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="99"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="101"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="89"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="109"/>
+      <c r="G81" s="83"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="60">
+      <c r="A82" s="54">
         <v>10</v>
       </c>
-      <c r="B82" s="60">
+      <c r="B82" s="54">
         <v>6</v>
       </c>
-      <c r="C82" s="60">
+      <c r="C82" s="54">
         <v>4</v>
       </c>
-      <c r="D82" s="60"/>
-      <c r="E82" s="100" t="s">
+      <c r="D82" s="54"/>
+      <c r="E82" s="90" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
@@ -7804,11 +7810,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="100"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="90"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
@@ -7817,61 +7823,61 @@
       </c>
     </row>
     <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="100"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="90"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="107"/>
+      <c r="G84" s="81"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="100"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="90"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="108"/>
+      <c r="G85" s="82"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="60"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="100"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="90"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="108"/>
+      <c r="G86" s="82"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="60"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="100"/>
+      <c r="A87" s="54"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="90"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="109"/>
+      <c r="G87" s="83"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="99">
+      <c r="A88" s="91">
         <v>11</v>
       </c>
-      <c r="B88" s="99">
+      <c r="B88" s="91">
         <v>4</v>
       </c>
-      <c r="C88" s="99">
+      <c r="C88" s="91">
         <v>10</v>
       </c>
-      <c r="D88" s="99"/>
-      <c r="E88" s="106" t="s">
+      <c r="D88" s="91"/>
+      <c r="E88" s="88" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
@@ -7882,11 +7888,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="99"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="106"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="88"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
@@ -7895,61 +7901,61 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="99"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99"/>
-      <c r="E90" s="106"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="88"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="107"/>
+      <c r="G90" s="81"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="99"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="106"/>
+      <c r="A91" s="91"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="88"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="108"/>
+      <c r="G91" s="82"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="99"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="106"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="88"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="108"/>
+      <c r="G92" s="82"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="99"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="99"/>
-      <c r="E93" s="106"/>
+      <c r="A93" s="91"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="88"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="109"/>
+      <c r="G93" s="83"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="60">
+      <c r="A94" s="54">
         <v>12</v>
       </c>
-      <c r="B94" s="60">
+      <c r="B94" s="54">
         <v>7</v>
       </c>
-      <c r="C94" s="60">
+      <c r="C94" s="54">
         <v>11</v>
       </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="106" t="s">
+      <c r="D94" s="54"/>
+      <c r="E94" s="88" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
@@ -7960,11 +7966,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="60"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="106"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="88"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
@@ -7973,61 +7979,61 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="60"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="106"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="88"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="107"/>
+      <c r="G96" s="81"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="106"/>
+      <c r="A97" s="54"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="88"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="108"/>
+      <c r="G97" s="82"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="106"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="88"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="108"/>
+      <c r="G98" s="82"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="106"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="88"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="109"/>
+      <c r="G99" s="83"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="99">
+      <c r="A100" s="91">
         <v>13</v>
       </c>
-      <c r="B100" s="99">
+      <c r="B100" s="91">
         <v>11</v>
       </c>
-      <c r="C100" s="99">
+      <c r="C100" s="91">
         <v>12</v>
       </c>
-      <c r="D100" s="99"/>
-      <c r="E100" s="106" t="s">
+      <c r="D100" s="91"/>
+      <c r="E100" s="88" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
@@ -8038,11 +8044,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="99"/>
-      <c r="B101" s="99"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="106"/>
+      <c r="A101" s="91"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="88"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
@@ -8051,61 +8057,61 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="99"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="106"/>
+      <c r="A102" s="91"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="88"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="107"/>
+      <c r="G102" s="81"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="99"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="106"/>
+      <c r="A103" s="91"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="91"/>
+      <c r="E103" s="88"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="108"/>
+      <c r="G103" s="82"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="99"/>
-      <c r="B104" s="99"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="106"/>
+      <c r="A104" s="91"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="91"/>
+      <c r="E104" s="88"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="108"/>
+      <c r="G104" s="82"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="99"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="106"/>
+      <c r="A105" s="91"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="88"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="109"/>
+      <c r="G105" s="83"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="60">
+      <c r="A106" s="54">
         <v>14</v>
       </c>
-      <c r="B106" s="60">
+      <c r="B106" s="54">
         <v>3</v>
       </c>
-      <c r="C106" s="60">
+      <c r="C106" s="54">
         <v>10</v>
       </c>
-      <c r="D106" s="60"/>
-      <c r="E106" s="106" t="s">
+      <c r="D106" s="54"/>
+      <c r="E106" s="88" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
@@ -8116,11 +8122,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="60"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="106"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="88"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
@@ -8129,61 +8135,61 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="60"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="106"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="88"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="107"/>
+      <c r="G108" s="81"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="60"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="106"/>
+      <c r="A109" s="54"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="88"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="108"/>
+      <c r="G109" s="82"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="60"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="106"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="88"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="108"/>
+      <c r="G110" s="82"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="60"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="106"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="88"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="109"/>
+      <c r="G111" s="83"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="99">
+      <c r="A112" s="91">
         <v>15</v>
       </c>
-      <c r="B112" s="99">
+      <c r="B112" s="91">
         <v>12</v>
       </c>
-      <c r="C112" s="99">
+      <c r="C112" s="91">
         <v>3</v>
       </c>
-      <c r="D112" s="99"/>
-      <c r="E112" s="101" t="s">
+      <c r="D112" s="91"/>
+      <c r="E112" s="89" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
@@ -8194,11 +8200,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="99"/>
-      <c r="B113" s="99"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="101"/>
+      <c r="A113" s="91"/>
+      <c r="B113" s="91"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="91"/>
+      <c r="E113" s="89"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
@@ -8207,61 +8213,61 @@
       </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="99"/>
-      <c r="B114" s="99"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="101"/>
+      <c r="A114" s="91"/>
+      <c r="B114" s="91"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="91"/>
+      <c r="E114" s="89"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="107"/>
+      <c r="G114" s="81"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="99"/>
-      <c r="B115" s="99"/>
-      <c r="C115" s="99"/>
-      <c r="D115" s="99"/>
-      <c r="E115" s="101"/>
+      <c r="A115" s="91"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="91"/>
+      <c r="D115" s="91"/>
+      <c r="E115" s="89"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="108"/>
+      <c r="G115" s="82"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="99"/>
-      <c r="B116" s="99"/>
-      <c r="C116" s="99"/>
-      <c r="D116" s="99"/>
-      <c r="E116" s="101"/>
+      <c r="A116" s="91"/>
+      <c r="B116" s="91"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="91"/>
+      <c r="E116" s="89"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="108"/>
+      <c r="G116" s="82"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="99"/>
-      <c r="B117" s="99"/>
-      <c r="C117" s="99"/>
-      <c r="D117" s="99"/>
-      <c r="E117" s="101"/>
+      <c r="A117" s="91"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="91"/>
+      <c r="E117" s="89"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="109"/>
+      <c r="G117" s="83"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="60">
+      <c r="A118" s="54">
         <v>16</v>
       </c>
-      <c r="B118" s="60">
+      <c r="B118" s="54">
         <v>8</v>
       </c>
-      <c r="C118" s="60">
+      <c r="C118" s="54">
         <v>1</v>
       </c>
-      <c r="D118" s="60"/>
-      <c r="E118" s="100" t="s">
+      <c r="D118" s="54"/>
+      <c r="E118" s="90" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
@@ -8272,11 +8278,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="60"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="100"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="90"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
@@ -8285,61 +8291,61 @@
       </c>
     </row>
     <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="60"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="100"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="90"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="107"/>
+      <c r="G120" s="81"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="60"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="100"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="90"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="108"/>
+      <c r="G121" s="82"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="60"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="60"/>
-      <c r="D122" s="60"/>
-      <c r="E122" s="100"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="90"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="108"/>
+      <c r="G122" s="82"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="60"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="60"/>
-      <c r="E123" s="100"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="90"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="109"/>
+      <c r="G123" s="83"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="99">
+      <c r="A124" s="91">
         <v>17</v>
       </c>
-      <c r="B124" s="99">
+      <c r="B124" s="91">
         <v>2</v>
       </c>
-      <c r="C124" s="99">
+      <c r="C124" s="91">
         <v>3</v>
       </c>
-      <c r="D124" s="99"/>
-      <c r="E124" s="101" t="s">
+      <c r="D124" s="91"/>
+      <c r="E124" s="89" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
@@ -8350,11 +8356,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="99"/>
-      <c r="B125" s="99"/>
-      <c r="C125" s="99"/>
-      <c r="D125" s="99"/>
-      <c r="E125" s="101"/>
+      <c r="A125" s="91"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="89"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
@@ -8363,61 +8369,61 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="99"/>
-      <c r="B126" s="99"/>
-      <c r="C126" s="99"/>
-      <c r="D126" s="99"/>
-      <c r="E126" s="101"/>
+      <c r="A126" s="91"/>
+      <c r="B126" s="91"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="91"/>
+      <c r="E126" s="89"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="107"/>
+      <c r="G126" s="81"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="99"/>
-      <c r="B127" s="99"/>
-      <c r="C127" s="99"/>
-      <c r="D127" s="99"/>
-      <c r="E127" s="101"/>
+      <c r="A127" s="91"/>
+      <c r="B127" s="91"/>
+      <c r="C127" s="91"/>
+      <c r="D127" s="91"/>
+      <c r="E127" s="89"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="108"/>
+      <c r="G127" s="82"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="99"/>
-      <c r="B128" s="99"/>
-      <c r="C128" s="99"/>
-      <c r="D128" s="99"/>
-      <c r="E128" s="101"/>
+      <c r="A128" s="91"/>
+      <c r="B128" s="91"/>
+      <c r="C128" s="91"/>
+      <c r="D128" s="91"/>
+      <c r="E128" s="89"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="108"/>
+      <c r="G128" s="82"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="99"/>
-      <c r="B129" s="99"/>
-      <c r="C129" s="99"/>
-      <c r="D129" s="99"/>
-      <c r="E129" s="101"/>
+      <c r="A129" s="91"/>
+      <c r="B129" s="91"/>
+      <c r="C129" s="91"/>
+      <c r="D129" s="91"/>
+      <c r="E129" s="89"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="109"/>
+      <c r="G129" s="83"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="60">
+      <c r="A130" s="54">
         <v>18</v>
       </c>
-      <c r="B130" s="60">
+      <c r="B130" s="54">
         <v>2</v>
       </c>
-      <c r="C130" s="60">
+      <c r="C130" s="54">
         <v>9</v>
       </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="100" t="s">
+      <c r="D130" s="54"/>
+      <c r="E130" s="90" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
@@ -8428,11 +8434,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="100"/>
+      <c r="A131" s="54"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="90"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
@@ -8441,61 +8447,61 @@
       </c>
     </row>
     <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="60"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="100"/>
+      <c r="A132" s="54"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="90"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="107"/>
+      <c r="G132" s="81"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="60"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
-      <c r="E133" s="100"/>
+      <c r="A133" s="54"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="90"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="108"/>
+      <c r="G133" s="82"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
-      <c r="E134" s="100"/>
+      <c r="A134" s="54"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="90"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="108"/>
+      <c r="G134" s="82"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="60"/>
-      <c r="E135" s="100"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="90"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="109"/>
+      <c r="G135" s="83"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="99">
+      <c r="A136" s="91">
         <v>19</v>
       </c>
-      <c r="B136" s="99">
+      <c r="B136" s="91">
         <v>8</v>
       </c>
-      <c r="C136" s="99">
+      <c r="C136" s="91">
         <v>7</v>
       </c>
-      <c r="D136" s="99"/>
-      <c r="E136" s="101" t="s">
+      <c r="D136" s="91"/>
+      <c r="E136" s="89" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
@@ -8506,11 +8512,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="99"/>
-      <c r="B137" s="99"/>
-      <c r="C137" s="99"/>
-      <c r="D137" s="99"/>
-      <c r="E137" s="101"/>
+      <c r="A137" s="91"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="91"/>
+      <c r="D137" s="91"/>
+      <c r="E137" s="89"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
@@ -8519,69 +8525,164 @@
       </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="99"/>
-      <c r="B138" s="99"/>
-      <c r="C138" s="99"/>
-      <c r="D138" s="99"/>
-      <c r="E138" s="101"/>
+      <c r="A138" s="91"/>
+      <c r="B138" s="91"/>
+      <c r="C138" s="91"/>
+      <c r="D138" s="91"/>
+      <c r="E138" s="89"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="107"/>
+      <c r="G138" s="81"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="99"/>
-      <c r="B139" s="99"/>
-      <c r="C139" s="99"/>
-      <c r="D139" s="99"/>
-      <c r="E139" s="101"/>
+      <c r="A139" s="91"/>
+      <c r="B139" s="91"/>
+      <c r="C139" s="91"/>
+      <c r="D139" s="91"/>
+      <c r="E139" s="89"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="108"/>
+      <c r="G139" s="82"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="99"/>
-      <c r="B140" s="99"/>
-      <c r="C140" s="99"/>
-      <c r="D140" s="99"/>
-      <c r="E140" s="101"/>
+      <c r="A140" s="91"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="91"/>
+      <c r="D140" s="91"/>
+      <c r="E140" s="89"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="108"/>
+      <c r="G140" s="82"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="99"/>
-      <c r="B141" s="99"/>
-      <c r="C141" s="99"/>
-      <c r="D141" s="99"/>
-      <c r="E141" s="101"/>
+      <c r="A141" s="91"/>
+      <c r="B141" s="91"/>
+      <c r="C141" s="91"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="89"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="109"/>
+      <c r="G141" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
     <mergeCell ref="A19:XFD19"/>
     <mergeCell ref="E94:E99"/>
     <mergeCell ref="E100:E105"/>
@@ -8606,119 +8707,24 @@
     <mergeCell ref="D118:D123"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="G30:G33"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8740,11 +8746,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110"/>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
@@ -8759,28 +8765,28 @@
       <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -9249,11 +9255,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>128</v>
       </c>
@@ -9291,28 +9297,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9783,11 +9789,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>130</v>
       </c>
@@ -9825,28 +9831,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10317,11 +10323,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>132</v>
       </c>
@@ -10359,28 +10365,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10864,11 +10870,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
         <v>134</v>
       </c>
@@ -10906,28 +10912,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\dex\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BA98B1-7DD5-4126-A5BC-D440B07B385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFE7D5E-58A8-4F99-AA0E-54FCB0F13808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="9405" windowWidth="15360" windowHeight="18690" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 방법" sheetId="3" r:id="rId1"/>
@@ -1405,6 +1405,90 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,88 +1498,82 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,84 +1583,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2247,11 +2247,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>136</v>
       </c>
@@ -2289,28 +2289,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2781,11 +2781,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>138</v>
       </c>
@@ -2823,28 +2823,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3315,11 +3315,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>140</v>
       </c>
@@ -3357,28 +3357,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3849,11 +3849,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>142</v>
       </c>
@@ -3891,28 +3891,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4383,11 +4383,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>144</v>
       </c>
@@ -4425,28 +4425,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4917,11 +4917,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>146</v>
       </c>
@@ -4959,28 +4959,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -5441,8 +5441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F661FF6-4AD5-40E4-982D-024A96661DAF}">
   <dimension ref="A2:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:M9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5460,10 +5460,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="58"/>
+      <c r="O2" s="69"/>
       <c r="R2" s="33" t="s">
         <v>185</v>
       </c>
@@ -5492,25 +5492,25 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="37"/>
@@ -5519,23 +5519,23 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="38"/>
@@ -5544,25 +5544,25 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="34">
         <v>1000</v>
       </c>
@@ -5577,23 +5577,23 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="38"/>
@@ -5602,25 +5602,25 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5632,35 +5632,35 @@
       <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="53" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="61" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -5672,20 +5672,20 @@
       <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="53">
         <v>150000000</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="53" t="s">
+      <c r="E11" s="54"/>
+      <c r="F11" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -5697,20 +5697,20 @@
       <c r="C12" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="53">
         <v>10000000</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="53" t="s">
+      <c r="E12" s="54"/>
+      <c r="F12" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -5722,41 +5722,41 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="53">
         <v>10000000</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="54"/>
+      <c r="F13" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -5774,19 +5774,19 @@
       <c r="E15" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="50" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -5813,41 +5813,41 @@
       <c r="M16" s="59"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="38"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="38"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="50" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5874,41 +5874,41 @@
       <c r="M19" s="59"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="73"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="50" t="s">
         <v>205</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -5935,133 +5935,133 @@
       <c r="M22" s="59"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
-      <c r="B23" s="61" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="38"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="38"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56" t="s">
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
       <c r="O29" s="31">
         <v>9.9889979999755599E+24</v>
       </c>
@@ -6070,22 +6070,22 @@
       <c r="A30" s="11">
         <v>4</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
       <c r="O30" s="31">
         <v>9.9778780292155191E+24</v>
       </c>
@@ -6094,254 +6094,254 @@
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>7</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56" t="s">
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>10</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>11</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54" t="s">
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>12</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54" t="s">
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>13</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54" t="s">
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>14</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53" t="s">
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>15</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53" t="s">
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>16</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53" t="s">
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
@@ -6359,183 +6359,188 @@
       <c r="M43" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50" t="s">
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52" t="s">
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="51" t="s">
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="51" t="s">
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="51" t="s">
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F32:M32"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F17:M17"/>
@@ -6552,47 +6557,42 @@
     <mergeCell ref="A8:S8"/>
     <mergeCell ref="A14:S14"/>
     <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="F52:M52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="F49:M49"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6622,50 +6622,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="83">
         <v>100000000</v>
       </c>
-      <c r="F4" s="102"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -6677,17 +6677,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="107"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="84">
         <v>100000</v>
       </c>
-      <c r="F5" s="103"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -6699,17 +6699,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="107"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="84">
         <v>1000000</v>
       </c>
-      <c r="F6" s="103"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -6721,15 +6721,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="104">
+      <c r="E7" s="85">
         <v>150000000</v>
       </c>
-      <c r="F7" s="104"/>
+      <c r="F7" s="85"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -6738,17 +6738,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="109"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="95">
         <v>200000000</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6760,17 +6760,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="105"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="97">
         <v>20000000</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -6782,17 +6782,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="105"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="97">
         <v>2000000</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -6804,17 +6804,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="105"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="97">
         <v>1000000</v>
       </c>
-      <c r="F11" s="99"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -6826,17 +6826,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="91">
         <v>2000000</v>
       </c>
-      <c r="F12" s="93"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -6848,17 +6848,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="91">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="93"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -6870,17 +6870,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="91">
         <v>4000000</v>
       </c>
-      <c r="F14" s="93"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -6892,17 +6892,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="93">
         <v>500000000</v>
       </c>
-      <c r="F15" s="95"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -6914,17 +6914,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="93">
         <v>200000000</v>
       </c>
-      <c r="F16" s="95"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -6936,17 +6936,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="100"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="93">
         <v>10000000</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -6954,35 +6954,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="1:8" s="87" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
+    <row r="18" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" s="105" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -7009,17 +7009,17 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54">
+      <c r="A22" s="76">
         <v>0</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="76">
         <v>0</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="90" t="s">
+      <c r="D22" s="76"/>
+      <c r="E22" s="100" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -7030,11 +7030,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="90"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
@@ -7043,61 +7043,61 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="90"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="81"/>
+      <c r="G24" s="107"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="90"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="100"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="82"/>
+      <c r="G25" s="108"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="90"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="100"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="82"/>
+      <c r="G26" s="108"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="90"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="83"/>
+      <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91">
+      <c r="A28" s="99">
         <v>1</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="91">
+      <c r="C28" s="99">
         <v>2</v>
       </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="89" t="s">
+      <c r="D28" s="99"/>
+      <c r="E28" s="101" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -7108,11 +7108,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="89"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
@@ -7121,61 +7121,61 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="89"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="81"/>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="89"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="82"/>
+      <c r="G31" s="108"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="89"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="82"/>
+      <c r="G32" s="108"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="89"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="101"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="83"/>
+      <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54">
+      <c r="A34" s="76">
         <v>2</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="76">
         <v>6</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="90" t="s">
+      <c r="D34" s="76"/>
+      <c r="E34" s="100" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -7186,11 +7186,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="90"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="100"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
@@ -7199,61 +7199,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="90"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="81"/>
+      <c r="G36" s="107"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="90"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="82"/>
+      <c r="G37" s="108"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="90"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="82"/>
+      <c r="G38" s="108"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="90"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="83"/>
+      <c r="G39" s="109"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="91">
+      <c r="A40" s="99">
         <v>3</v>
       </c>
-      <c r="B40" s="91">
+      <c r="B40" s="99">
         <v>0</v>
       </c>
-      <c r="C40" s="91">
+      <c r="C40" s="99">
         <v>3</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="89" t="s">
+      <c r="D40" s="99"/>
+      <c r="E40" s="101" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -7264,11 +7264,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="89"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
@@ -7277,61 +7277,61 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="89"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="81"/>
+      <c r="G42" s="107"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="89"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="82"/>
+      <c r="G43" s="108"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="91"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="89"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="82"/>
+      <c r="G44" s="108"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="91"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="89"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="83"/>
+      <c r="G45" s="109"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="54">
+      <c r="A46" s="76">
         <v>4</v>
       </c>
-      <c r="B46" s="54">
+      <c r="B46" s="76">
         <v>0</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="76">
         <v>4</v>
       </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="90" t="s">
+      <c r="D46" s="76"/>
+      <c r="E46" s="100" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -7342,11 +7342,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="90"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="100"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
@@ -7355,61 +7355,61 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="90"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="100"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="81"/>
+      <c r="G48" s="107"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="90"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="100"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="82"/>
+      <c r="G49" s="108"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="90"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="100"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="82"/>
+      <c r="G50" s="108"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="90"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="100"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="83"/>
+      <c r="G51" s="109"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="91">
+      <c r="A52" s="99">
         <v>5</v>
       </c>
-      <c r="B52" s="91">
+      <c r="B52" s="99">
         <v>1</v>
       </c>
-      <c r="C52" s="91">
+      <c r="C52" s="99">
         <v>3</v>
       </c>
-      <c r="D52" s="91"/>
-      <c r="E52" s="89" t="s">
+      <c r="D52" s="99"/>
+      <c r="E52" s="101" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -7420,11 +7420,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="91"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="89"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="101"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
@@ -7433,61 +7433,61 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="91"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="89"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="101"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="81"/>
+      <c r="G54" s="107"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="91"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="89"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="101"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="82"/>
+      <c r="G55" s="108"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="91"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="89"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="101"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="82"/>
+      <c r="G56" s="108"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="89"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="101"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="83"/>
+      <c r="G57" s="109"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="54">
+      <c r="A58" s="76">
         <v>6</v>
       </c>
-      <c r="B58" s="54">
+      <c r="B58" s="76">
         <v>1</v>
       </c>
-      <c r="C58" s="54">
+      <c r="C58" s="76">
         <v>4</v>
       </c>
-      <c r="D58" s="54"/>
-      <c r="E58" s="90" t="s">
+      <c r="D58" s="76"/>
+      <c r="E58" s="100" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
@@ -7498,11 +7498,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="90"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="100"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
@@ -7511,61 +7511,61 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="90"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="100"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="81"/>
+      <c r="G60" s="107"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="90"/>
+      <c r="A61" s="76"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="82"/>
+      <c r="G61" s="108"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="90"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="100"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="82"/>
+      <c r="G62" s="108"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="90"/>
+      <c r="A63" s="76"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="100"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="83"/>
+      <c r="G63" s="109"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="91">
+      <c r="A64" s="99">
         <v>7</v>
       </c>
-      <c r="B64" s="91">
+      <c r="B64" s="99">
         <v>1</v>
       </c>
-      <c r="C64" s="91">
+      <c r="C64" s="99">
         <v>7</v>
       </c>
-      <c r="D64" s="91"/>
-      <c r="E64" s="89" t="s">
+      <c r="D64" s="99"/>
+      <c r="E64" s="101" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -7576,11 +7576,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="91"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="89"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="101"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
@@ -7589,61 +7589,61 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="91"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="89"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="101"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="81"/>
+      <c r="G66" s="107"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="91"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="89"/>
+      <c r="A67" s="99"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="101"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="82"/>
+      <c r="G67" s="108"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="91"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="89"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="101"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="82"/>
+      <c r="G68" s="108"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="91"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="89"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="101"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="83"/>
+      <c r="G69" s="109"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="54">
+      <c r="A70" s="76">
         <v>8</v>
       </c>
-      <c r="B70" s="54">
+      <c r="B70" s="76">
         <v>5</v>
       </c>
-      <c r="C70" s="54">
+      <c r="C70" s="76">
         <v>3</v>
       </c>
-      <c r="D70" s="54"/>
-      <c r="E70" s="90" t="s">
+      <c r="D70" s="76"/>
+      <c r="E70" s="100" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
@@ -7654,11 +7654,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="90"/>
+      <c r="A71" s="76"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="100"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
@@ -7667,61 +7667,61 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="90"/>
+      <c r="A72" s="76"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="100"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="81"/>
+      <c r="G72" s="107"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="90"/>
+      <c r="A73" s="76"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="100"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="82"/>
+      <c r="G73" s="108"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="90"/>
+      <c r="A74" s="76"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="100"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="82"/>
+      <c r="G74" s="108"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="90"/>
+      <c r="A75" s="76"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="100"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="83"/>
+      <c r="G75" s="109"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="91">
+      <c r="A76" s="99">
         <v>9</v>
       </c>
-      <c r="B76" s="91">
+      <c r="B76" s="99">
         <v>5</v>
       </c>
-      <c r="C76" s="91">
+      <c r="C76" s="99">
         <v>9</v>
       </c>
-      <c r="D76" s="91"/>
-      <c r="E76" s="89" t="s">
+      <c r="D76" s="99"/>
+      <c r="E76" s="101" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
@@ -7732,11 +7732,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="89"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="101"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
@@ -7745,61 +7745,61 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="91"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="89"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="101"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="81"/>
+      <c r="G78" s="107"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="91"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="89"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="101"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="82"/>
+      <c r="G79" s="108"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="91"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="89"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="101"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="82"/>
+      <c r="G80" s="108"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="91"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="89"/>
+      <c r="A81" s="99"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="101"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="83"/>
+      <c r="G81" s="109"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="54">
+      <c r="A82" s="76">
         <v>10</v>
       </c>
-      <c r="B82" s="54">
+      <c r="B82" s="76">
         <v>6</v>
       </c>
-      <c r="C82" s="54">
+      <c r="C82" s="76">
         <v>4</v>
       </c>
-      <c r="D82" s="54"/>
-      <c r="E82" s="90" t="s">
+      <c r="D82" s="76"/>
+      <c r="E82" s="100" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
@@ -7810,11 +7810,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="90"/>
+      <c r="A83" s="76"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="100"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
@@ -7823,61 +7823,61 @@
       </c>
     </row>
     <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="90"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="100"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="81"/>
+      <c r="G84" s="107"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="90"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="100"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="82"/>
+      <c r="G85" s="108"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="90"/>
+      <c r="A86" s="76"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="100"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="82"/>
+      <c r="G86" s="108"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="54"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="90"/>
+      <c r="A87" s="76"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="100"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="83"/>
+      <c r="G87" s="109"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="91">
+      <c r="A88" s="99">
         <v>11</v>
       </c>
-      <c r="B88" s="91">
+      <c r="B88" s="99">
         <v>4</v>
       </c>
-      <c r="C88" s="91">
+      <c r="C88" s="99">
         <v>10</v>
       </c>
-      <c r="D88" s="91"/>
-      <c r="E88" s="88" t="s">
+      <c r="D88" s="99"/>
+      <c r="E88" s="106" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
@@ -7888,11 +7888,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="91"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="88"/>
+      <c r="A89" s="99"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="106"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
@@ -7901,61 +7901,61 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="91"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="88"/>
+      <c r="A90" s="99"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="106"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="81"/>
+      <c r="G90" s="107"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="91"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="88"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="106"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="82"/>
+      <c r="G91" s="108"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="91"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="88"/>
+      <c r="A92" s="99"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="106"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="82"/>
+      <c r="G92" s="108"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="91"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="88"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="106"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="83"/>
+      <c r="G93" s="109"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="54">
+      <c r="A94" s="76">
         <v>12</v>
       </c>
-      <c r="B94" s="54">
+      <c r="B94" s="76">
         <v>7</v>
       </c>
-      <c r="C94" s="54">
+      <c r="C94" s="76">
         <v>11</v>
       </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="88" t="s">
+      <c r="D94" s="76"/>
+      <c r="E94" s="106" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
@@ -7966,11 +7966,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="54"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="88"/>
+      <c r="A95" s="76"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="106"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
@@ -7979,61 +7979,61 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="88"/>
+      <c r="A96" s="76"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="106"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="81"/>
+      <c r="G96" s="107"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="54"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="88"/>
+      <c r="A97" s="76"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="106"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="82"/>
+      <c r="G97" s="108"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="88"/>
+      <c r="A98" s="76"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="106"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="82"/>
+      <c r="G98" s="108"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="54"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="88"/>
+      <c r="A99" s="76"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="106"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="83"/>
+      <c r="G99" s="109"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="91">
+      <c r="A100" s="99">
         <v>13</v>
       </c>
-      <c r="B100" s="91">
+      <c r="B100" s="99">
         <v>11</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="99">
         <v>12</v>
       </c>
-      <c r="D100" s="91"/>
-      <c r="E100" s="88" t="s">
+      <c r="D100" s="99"/>
+      <c r="E100" s="106" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
@@ -8044,11 +8044,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="91"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="91"/>
-      <c r="D101" s="91"/>
-      <c r="E101" s="88"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="99"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="106"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
@@ -8057,61 +8057,61 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="91"/>
-      <c r="B102" s="91"/>
-      <c r="C102" s="91"/>
-      <c r="D102" s="91"/>
-      <c r="E102" s="88"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="106"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="81"/>
+      <c r="G102" s="107"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="91"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
-      <c r="E103" s="88"/>
+      <c r="A103" s="99"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="106"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="82"/>
+      <c r="G103" s="108"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="91"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="91"/>
-      <c r="E104" s="88"/>
+      <c r="A104" s="99"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="106"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="82"/>
+      <c r="G104" s="108"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="91"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="91"/>
-      <c r="E105" s="88"/>
+      <c r="A105" s="99"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="106"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="83"/>
+      <c r="G105" s="109"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="54">
+      <c r="A106" s="76">
         <v>14</v>
       </c>
-      <c r="B106" s="54">
+      <c r="B106" s="76">
         <v>3</v>
       </c>
-      <c r="C106" s="54">
+      <c r="C106" s="76">
         <v>10</v>
       </c>
-      <c r="D106" s="54"/>
-      <c r="E106" s="88" t="s">
+      <c r="D106" s="76"/>
+      <c r="E106" s="106" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
@@ -8122,11 +8122,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="54"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="88"/>
+      <c r="A107" s="76"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="106"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
@@ -8135,61 +8135,61 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="54"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="88"/>
+      <c r="A108" s="76"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="106"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="81"/>
+      <c r="G108" s="107"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="54"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="88"/>
+      <c r="A109" s="76"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="106"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="82"/>
+      <c r="G109" s="108"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="54"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="88"/>
+      <c r="A110" s="76"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="106"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="82"/>
+      <c r="G110" s="108"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="54"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="88"/>
+      <c r="A111" s="76"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="106"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="83"/>
+      <c r="G111" s="109"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="91">
+      <c r="A112" s="99">
         <v>15</v>
       </c>
-      <c r="B112" s="91">
+      <c r="B112" s="99">
         <v>12</v>
       </c>
-      <c r="C112" s="91">
+      <c r="C112" s="99">
         <v>3</v>
       </c>
-      <c r="D112" s="91"/>
-      <c r="E112" s="89" t="s">
+      <c r="D112" s="99"/>
+      <c r="E112" s="101" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
@@ -8200,11 +8200,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="91"/>
-      <c r="B113" s="91"/>
-      <c r="C113" s="91"/>
-      <c r="D113" s="91"/>
-      <c r="E113" s="89"/>
+      <c r="A113" s="99"/>
+      <c r="B113" s="99"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="101"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
@@ -8213,61 +8213,61 @@
       </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="91"/>
-      <c r="B114" s="91"/>
-      <c r="C114" s="91"/>
-      <c r="D114" s="91"/>
-      <c r="E114" s="89"/>
+      <c r="A114" s="99"/>
+      <c r="B114" s="99"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="101"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="81"/>
+      <c r="G114" s="107"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="91"/>
-      <c r="B115" s="91"/>
-      <c r="C115" s="91"/>
-      <c r="D115" s="91"/>
-      <c r="E115" s="89"/>
+      <c r="A115" s="99"/>
+      <c r="B115" s="99"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="101"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="82"/>
+      <c r="G115" s="108"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="91"/>
-      <c r="B116" s="91"/>
-      <c r="C116" s="91"/>
-      <c r="D116" s="91"/>
-      <c r="E116" s="89"/>
+      <c r="A116" s="99"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="101"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="82"/>
+      <c r="G116" s="108"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="91"/>
-      <c r="B117" s="91"/>
-      <c r="C117" s="91"/>
-      <c r="D117" s="91"/>
-      <c r="E117" s="89"/>
+      <c r="A117" s="99"/>
+      <c r="B117" s="99"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="99"/>
+      <c r="E117" s="101"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="83"/>
+      <c r="G117" s="109"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="54">
+      <c r="A118" s="76">
         <v>16</v>
       </c>
-      <c r="B118" s="54">
+      <c r="B118" s="76">
         <v>8</v>
       </c>
-      <c r="C118" s="54">
+      <c r="C118" s="76">
         <v>1</v>
       </c>
-      <c r="D118" s="54"/>
-      <c r="E118" s="90" t="s">
+      <c r="D118" s="76"/>
+      <c r="E118" s="100" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
@@ -8278,11 +8278,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="54"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="90"/>
+      <c r="A119" s="76"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="100"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
@@ -8291,61 +8291,61 @@
       </c>
     </row>
     <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="54"/>
-      <c r="B120" s="54"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="90"/>
+      <c r="A120" s="76"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="100"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="81"/>
+      <c r="G120" s="107"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="54"/>
-      <c r="B121" s="54"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="90"/>
+      <c r="A121" s="76"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="100"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="82"/>
+      <c r="G121" s="108"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="54"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="90"/>
+      <c r="A122" s="76"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="100"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="82"/>
+      <c r="G122" s="108"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="54"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="90"/>
+      <c r="A123" s="76"/>
+      <c r="B123" s="76"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="100"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="83"/>
+      <c r="G123" s="109"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="91">
+      <c r="A124" s="99">
         <v>17</v>
       </c>
-      <c r="B124" s="91">
+      <c r="B124" s="99">
         <v>2</v>
       </c>
-      <c r="C124" s="91">
+      <c r="C124" s="99">
         <v>3</v>
       </c>
-      <c r="D124" s="91"/>
-      <c r="E124" s="89" t="s">
+      <c r="D124" s="99"/>
+      <c r="E124" s="101" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
@@ -8356,11 +8356,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="91"/>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="89"/>
+      <c r="A125" s="99"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="101"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
@@ -8369,61 +8369,61 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="91"/>
-      <c r="B126" s="91"/>
-      <c r="C126" s="91"/>
-      <c r="D126" s="91"/>
-      <c r="E126" s="89"/>
+      <c r="A126" s="99"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
+      <c r="E126" s="101"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="81"/>
+      <c r="G126" s="107"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="91"/>
-      <c r="B127" s="91"/>
-      <c r="C127" s="91"/>
-      <c r="D127" s="91"/>
-      <c r="E127" s="89"/>
+      <c r="A127" s="99"/>
+      <c r="B127" s="99"/>
+      <c r="C127" s="99"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="101"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="82"/>
+      <c r="G127" s="108"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="91"/>
-      <c r="B128" s="91"/>
-      <c r="C128" s="91"/>
-      <c r="D128" s="91"/>
-      <c r="E128" s="89"/>
+      <c r="A128" s="99"/>
+      <c r="B128" s="99"/>
+      <c r="C128" s="99"/>
+      <c r="D128" s="99"/>
+      <c r="E128" s="101"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="82"/>
+      <c r="G128" s="108"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="91"/>
-      <c r="B129" s="91"/>
-      <c r="C129" s="91"/>
-      <c r="D129" s="91"/>
-      <c r="E129" s="89"/>
+      <c r="A129" s="99"/>
+      <c r="B129" s="99"/>
+      <c r="C129" s="99"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="101"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="83"/>
+      <c r="G129" s="109"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="54">
+      <c r="A130" s="76">
         <v>18</v>
       </c>
-      <c r="B130" s="54">
+      <c r="B130" s="76">
         <v>2</v>
       </c>
-      <c r="C130" s="54">
+      <c r="C130" s="76">
         <v>9</v>
       </c>
-      <c r="D130" s="54"/>
-      <c r="E130" s="90" t="s">
+      <c r="D130" s="76"/>
+      <c r="E130" s="100" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
@@ -8434,11 +8434,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="54"/>
-      <c r="B131" s="54"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="90"/>
+      <c r="A131" s="76"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="100"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
@@ -8447,61 +8447,61 @@
       </c>
     </row>
     <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="54"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="90"/>
+      <c r="A132" s="76"/>
+      <c r="B132" s="76"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="76"/>
+      <c r="E132" s="100"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="81"/>
+      <c r="G132" s="107"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="54"/>
-      <c r="B133" s="54"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="90"/>
+      <c r="A133" s="76"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="100"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="82"/>
+      <c r="G133" s="108"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="54"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="90"/>
+      <c r="A134" s="76"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="100"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="82"/>
+      <c r="G134" s="108"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="54"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="90"/>
+      <c r="A135" s="76"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="76"/>
+      <c r="D135" s="76"/>
+      <c r="E135" s="100"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="83"/>
+      <c r="G135" s="109"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="91">
+      <c r="A136" s="99">
         <v>19</v>
       </c>
-      <c r="B136" s="91">
+      <c r="B136" s="99">
         <v>8</v>
       </c>
-      <c r="C136" s="91">
+      <c r="C136" s="99">
         <v>7</v>
       </c>
-      <c r="D136" s="91"/>
-      <c r="E136" s="89" t="s">
+      <c r="D136" s="99"/>
+      <c r="E136" s="101" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
@@ -8512,11 +8512,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="91"/>
-      <c r="B137" s="91"/>
-      <c r="C137" s="91"/>
-      <c r="D137" s="91"/>
-      <c r="E137" s="89"/>
+      <c r="A137" s="99"/>
+      <c r="B137" s="99"/>
+      <c r="C137" s="99"/>
+      <c r="D137" s="99"/>
+      <c r="E137" s="101"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
@@ -8525,51 +8525,182 @@
       </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="91"/>
-      <c r="B138" s="91"/>
-      <c r="C138" s="91"/>
-      <c r="D138" s="91"/>
-      <c r="E138" s="89"/>
+      <c r="A138" s="99"/>
+      <c r="B138" s="99"/>
+      <c r="C138" s="99"/>
+      <c r="D138" s="99"/>
+      <c r="E138" s="101"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="81"/>
+      <c r="G138" s="107"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="91"/>
-      <c r="B139" s="91"/>
-      <c r="C139" s="91"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="89"/>
+      <c r="A139" s="99"/>
+      <c r="B139" s="99"/>
+      <c r="C139" s="99"/>
+      <c r="D139" s="99"/>
+      <c r="E139" s="101"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="82"/>
+      <c r="G139" s="108"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="91"/>
-      <c r="B140" s="91"/>
-      <c r="C140" s="91"/>
-      <c r="D140" s="91"/>
-      <c r="E140" s="89"/>
+      <c r="A140" s="99"/>
+      <c r="B140" s="99"/>
+      <c r="C140" s="99"/>
+      <c r="D140" s="99"/>
+      <c r="E140" s="101"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="82"/>
+      <c r="G140" s="108"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="91"/>
-      <c r="B141" s="91"/>
-      <c r="C141" s="91"/>
-      <c r="D141" s="91"/>
-      <c r="E141" s="89"/>
+      <c r="A141" s="99"/>
+      <c r="B141" s="99"/>
+      <c r="C141" s="99"/>
+      <c r="D141" s="99"/>
+      <c r="E141" s="101"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="83"/>
+      <c r="G141" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="E94:E99"/>
+    <mergeCell ref="E100:E105"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="E124:E129"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="B15:C15"/>
@@ -8594,137 +8725,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="E94:E99"/>
-    <mergeCell ref="E100:E105"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="E124:E129"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E76:E81"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="G126:G129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8746,11 +8746,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110"/>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
@@ -8765,28 +8765,28 @@
       <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -9255,11 +9255,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>128</v>
       </c>
@@ -9297,28 +9297,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9789,11 +9789,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>130</v>
       </c>
@@ -9831,28 +9831,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10323,11 +10323,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>132</v>
       </c>
@@ -10365,28 +10365,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10870,11 +10870,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="110" t="s">
         <v>134</v>
       </c>
@@ -10912,28 +10912,28 @@
       <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\dex\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFE7D5E-58A8-4F99-AA0E-54FCB0F13808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9EC141-3DA8-449D-813B-976AE81CCA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 방법" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="account(8)" sheetId="15" r:id="rId14"/>
     <sheet name="account(9)" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="240">
   <si>
     <t>.num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,26 +788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool의 자산 상태 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSwapPool의 inqueryAssets()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool의 통계 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSwapPoolManager의 inqueryDailyStats()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,10 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSwapHelper의 exchange() -&gt; Governor의 몫 CStakableGToken에 적립됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pool 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -866,75 +844,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xFFc3B8475f18E2F8928944FB0e80AD3f77FB5b99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf9FfF79D3137358D149a854588ae0AaBe65bC4F3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x2d53C174173CC7C15305FE2fc6507AA94044A7cA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x33A51609aE35767bbbE36894Bb6FBFE35cddB852</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0Bde2CD0EB9Ffd0fF64E21CD65718eA472D0CB8D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x3377708c5a34257cE72CFc4f9a45EF4809e21c4a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xe50775990359b5aD41663160Fd48851D818076b2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x61f3A90c95f16d3eD53E13fF5920dd1d1423f615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x7F29d1A9B3c0D9aa386dd4d3470ED125cABBf2F4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x9383FEc71ECDfF1511d8f26b9f8Bc0100e0ec49B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x643Ab78005B88b82078D39519920BFE884Bbd74F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x5F3af5d46ec9B20dD652867E3705eBB0c79494d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x23ce2EEd676beA0E7ec06b9e21b3a13a24BBE74E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x8de3833080Db738aFcE6a25Cc6B45257d479c9E6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x659aCd70df7e021302aA2907FE1Dbb7eE50DBc38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x9A3a88729913267DEC84c3aac09499BD816f8DA4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x910e49A2f31fF9EA50A31d3179eCB670C060cd99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6a935FEedDCb813666210b1DbA8b9cbfc1516A06</t>
+    <t>0xF85A1C44Cb3A3C0834C0A932dC6b5C68472A74fF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xE9faC83f6358868cc0fD68e1E94A85dE75dB6432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8b465A848E597Dc148463C510ad8d011766E9095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfe8c5F82DD2D74e344f94a19Be0bf1BBb59DDFdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2f0Fc42f324e52346b244Fe2901fCEac9B69eF42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xD5198Caf77835a4d5c0c2c0254b2B3acFcE0e3d2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xEDE37bBd5a21d764BAa292664BFE7fE22C48Fd8e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x9d13697c50Fa15cdf50f4A51936dA127BFca24A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x42e8F7474996dA449639cb5c4125732c0a992E7a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xbAa0951c51f93350771c0DD48c5D49ae5BEe8cA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x51e52190AcCE7F6784f0bFF04a053B8fFBB33739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xae4bA40a4Dca3Eb2E5756cAb83A16FD0694eB0C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x886766B62b5E31b4337CAAdD036f6653095C6De9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xc0D9a54cF6b54361Ac045cD849E8Da784a68E5f8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTeamVault에서 Governance token 인출( pool 생성 수수료 등등에 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Governace token staking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Governance token approve to CSwapPoolFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swap Pool 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token approve to Swap Pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPT Staking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CManagerBuilder에서 Token 등급 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGovernanceBuilder에서 invokeStartMining 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6a72Ffb94a5E24529fa27107297CcdccF7C95E8B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6ee6bE58DBa446dDdb75B2d979cEd3c3d6196196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x74483151DDF9147320C2649397F3844fB0147D44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAf5aF245145F0E9b34AF8A589A5b955021fD89Bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x010b243a9380bc47AaD55de24281005f3A0beF3f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20d47bf40e245c97253Cdee84Dc3eAD89337De9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2BEa7c33B8636a761be888E55037AFd2ee0c43c5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5f0D7D2E1b65AAb0C82F3c02EA82017a9b3082EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x356Afa76EaF39C0b47799Ef5791eb3C46E3CC3af</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6B5D58dA23789aA9C0cf0942D1db15da1e493044</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1254,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,13 +1439,82 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1421,10 +1524,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1432,71 +1535,62 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,63 +1622,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1601,6 +1638,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2247,70 +2290,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2781,70 +2824,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3315,70 +3358,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3849,70 +3892,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4383,70 +4426,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4917,70 +4960,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -5439,10 +5482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F661FF6-4AD5-40E4-982D-024A96661DAF}">
-  <dimension ref="A2:S53"/>
+  <dimension ref="A2:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5460,10 +5503,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="59"/>
       <c r="R2" s="33" t="s">
         <v>185</v>
       </c>
@@ -5492,10 +5535,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
@@ -5519,23 +5562,23 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="38"/>
@@ -5544,10 +5587,10 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="25" t="s">
         <v>148</v>
       </c>
@@ -5570,30 +5613,30 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="35" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="38"/>
@@ -5602,25 +5645,25 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5632,35 +5675,35 @@
       <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="52" t="s">
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="56"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -5672,20 +5715,20 @@
       <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="76">
         <v>150000000</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -5695,26 +5738,26 @@
         <v>156</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="53">
+        <v>207</v>
+      </c>
+      <c r="D12" s="76">
         <v>10000000</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="52" t="s">
+      <c r="E12" s="77"/>
+      <c r="F12" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>157</v>
@@ -5722,41 +5765,41 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="76">
         <v>10000000</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="52" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -5774,19 +5817,19 @@
       <c r="E15" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="73" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -5801,53 +5844,57 @@
       <c r="E16" s="47">
         <v>2000</v>
       </c>
-      <c r="F16" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
+      <c r="F16" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="56"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="64"/>
       <c r="D17" s="38"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="F17" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="56"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="64"/>
       <c r="D18" s="38"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
+      <c r="F18" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="73" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5862,60 +5909,64 @@
       <c r="E19" s="47">
         <v>100</v>
       </c>
-      <c r="F19" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
+      <c r="F19" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="56"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="64"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
+      <c r="F20" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>205</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="D22" s="46">
         <v>1</v>
@@ -5923,145 +5974,149 @@
       <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F22" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
+      <c r="F22" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="56"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="64"/>
       <c r="D23" s="38"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
+      <c r="F23" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="56"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="64"/>
       <c r="D24" s="38"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
+      <c r="F24" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
+      <c r="A26" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
       <c r="O29" s="31">
         <v>9.9889979999755599E+24</v>
       </c>
@@ -6070,22 +6125,22 @@
       <c r="A30" s="11">
         <v>4</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
       <c r="O30" s="31">
         <v>9.9778780292155191E+24</v>
       </c>
@@ -6094,254 +6149,254 @@
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>7</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>10</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>11</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>12</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>13</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76" t="s">
-        <v>224</v>
-      </c>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>14</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>15</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>16</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="B42" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
@@ -6359,172 +6414,242 @@
       <c r="M43" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78" t="s">
-        <v>210</v>
-      </c>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
+      <c r="B45" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
+        <v>196</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C50" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="11"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="11"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="11"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B51" s="11">
+        <v>4</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B52" s="11">
+        <v>5</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B53" s="11">
+        <v>6</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B54" s="11">
+        <v>7</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B55" s="11">
+        <v>8</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="F52:M52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="F49:M49"/>
+  <mergeCells count="97">
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="C50:E50"/>
     <mergeCell ref="F50:M50"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="A8:S8"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A4:B5"/>
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
@@ -6541,33 +6666,15 @@
     <mergeCell ref="F29:M29"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="A8:S8"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -6575,24 +6682,22 @@
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F55:M55"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F54:M54"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C48:E48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6622,50 +6727,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="82"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="103">
         <v>100000000</v>
       </c>
-      <c r="F4" s="83"/>
+      <c r="F4" s="103"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -6677,17 +6782,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="104">
         <v>100000</v>
       </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -6699,17 +6804,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="88"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="104">
         <v>1000000</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -6721,15 +6826,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="85">
+      <c r="E7" s="105">
         <v>150000000</v>
       </c>
-      <c r="F7" s="85"/>
+      <c r="F7" s="105"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -6738,17 +6843,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="97">
         <v>200000000</v>
       </c>
-      <c r="F8" s="96"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6760,17 +6865,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="99">
         <v>20000000</v>
       </c>
-      <c r="F9" s="98"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -6782,17 +6887,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="99">
         <v>2000000</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -6804,17 +6909,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="99">
         <v>1000000</v>
       </c>
-      <c r="F11" s="98"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -6826,17 +6931,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="93">
         <v>2000000</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -6848,17 +6953,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="93">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -6870,17 +6975,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="60"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="93">
         <v>4000000</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -6892,17 +6997,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="95">
         <v>500000000</v>
       </c>
-      <c r="F15" s="94"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -6914,17 +7019,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="95">
         <v>200000000</v>
       </c>
-      <c r="F16" s="94"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -6936,17 +7041,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="95">
         <v>10000000</v>
       </c>
-      <c r="F17" s="94"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -6954,35 +7059,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" s="105" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
+    <row r="18" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="1:8" s="88" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -7009,17 +7114,17 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="76">
+      <c r="A22" s="55">
         <v>0</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="55">
         <v>0</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="100" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="91" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -7030,11 +7135,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="100"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
@@ -7043,61 +7148,61 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="100"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="107"/>
+      <c r="G24" s="82"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="100"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="108"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="100"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="91"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="108"/>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="100"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="109"/>
+      <c r="G27" s="84"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="99">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="99">
+      <c r="C28" s="92">
         <v>2</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="101" t="s">
+      <c r="D28" s="92"/>
+      <c r="E28" s="90" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -7108,11 +7213,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="101"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
@@ -7121,61 +7226,61 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="101"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="90"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="107"/>
+      <c r="G30" s="82"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="101"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="90"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="108"/>
+      <c r="G31" s="83"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="101"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="90"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="108"/>
+      <c r="G32" s="83"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="101"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="109"/>
+      <c r="G33" s="84"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="76">
+      <c r="A34" s="55">
         <v>2</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="55">
         <v>6</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="100" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="91" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -7186,11 +7291,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="100"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="91"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
@@ -7199,61 +7304,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="100"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="107"/>
+      <c r="G36" s="82"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="100"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="108"/>
+      <c r="G37" s="83"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="100"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="108"/>
+      <c r="G38" s="83"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="100"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="91"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="109"/>
+      <c r="G39" s="84"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="99">
+      <c r="A40" s="92">
         <v>3</v>
       </c>
-      <c r="B40" s="99">
+      <c r="B40" s="92">
         <v>0</v>
       </c>
-      <c r="C40" s="99">
+      <c r="C40" s="92">
         <v>3</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="101" t="s">
+      <c r="D40" s="92"/>
+      <c r="E40" s="90" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -7264,11 +7369,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="99"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="101"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
@@ -7277,61 +7382,61 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="101"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="90"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="107"/>
+      <c r="G42" s="82"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="101"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="90"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="108"/>
+      <c r="G43" s="83"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="101"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="108"/>
+      <c r="G44" s="83"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="101"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="90"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="109"/>
+      <c r="G45" s="84"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="76">
+      <c r="A46" s="55">
         <v>4</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="55">
         <v>0</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="55">
         <v>4</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="100" t="s">
+      <c r="D46" s="55"/>
+      <c r="E46" s="91" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -7342,11 +7447,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="76"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="100"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="91"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
@@ -7355,61 +7460,61 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="76"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="100"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="91"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="107"/>
+      <c r="G48" s="82"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="76"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="100"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="91"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="108"/>
+      <c r="G49" s="83"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="100"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="91"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="108"/>
+      <c r="G50" s="83"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="76"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="100"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="109"/>
+      <c r="G51" s="84"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="99">
+      <c r="A52" s="92">
         <v>5</v>
       </c>
-      <c r="B52" s="99">
+      <c r="B52" s="92">
         <v>1</v>
       </c>
-      <c r="C52" s="99">
+      <c r="C52" s="92">
         <v>3</v>
       </c>
-      <c r="D52" s="99"/>
-      <c r="E52" s="101" t="s">
+      <c r="D52" s="92"/>
+      <c r="E52" s="90" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -7420,11 +7525,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="99"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="101"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
@@ -7433,61 +7538,61 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="99"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="101"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="107"/>
+      <c r="G54" s="82"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="99"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="101"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="90"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="108"/>
+      <c r="G55" s="83"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="99"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="101"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="108"/>
+      <c r="G56" s="83"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="99"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="101"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="90"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="109"/>
+      <c r="G57" s="84"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="76">
+      <c r="A58" s="55">
         <v>6</v>
       </c>
-      <c r="B58" s="76">
+      <c r="B58" s="55">
         <v>1</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="55">
         <v>4</v>
       </c>
-      <c r="D58" s="76"/>
-      <c r="E58" s="100" t="s">
+      <c r="D58" s="55"/>
+      <c r="E58" s="91" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
@@ -7498,11 +7603,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="76"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="100"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="91"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
@@ -7511,61 +7616,61 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="76"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="100"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="91"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="107"/>
+      <c r="G60" s="82"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="76"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="100"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="91"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="108"/>
+      <c r="G61" s="83"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="76"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="100"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="91"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="108"/>
+      <c r="G62" s="83"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="76"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="100"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="91"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="109"/>
+      <c r="G63" s="84"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="99">
+      <c r="A64" s="92">
         <v>7</v>
       </c>
-      <c r="B64" s="99">
+      <c r="B64" s="92">
         <v>1</v>
       </c>
-      <c r="C64" s="99">
+      <c r="C64" s="92">
         <v>7</v>
       </c>
-      <c r="D64" s="99"/>
-      <c r="E64" s="101" t="s">
+      <c r="D64" s="92"/>
+      <c r="E64" s="90" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -7576,11 +7681,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="99"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="101"/>
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="90"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
@@ -7589,61 +7694,61 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="99"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="101"/>
+      <c r="A66" s="92"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="107"/>
+      <c r="G66" s="82"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="99"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="101"/>
+      <c r="A67" s="92"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="90"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="108"/>
+      <c r="G67" s="83"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="99"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="101"/>
+      <c r="A68" s="92"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="90"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="108"/>
+      <c r="G68" s="83"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="101"/>
+      <c r="A69" s="92"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="90"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="109"/>
+      <c r="G69" s="84"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="76">
+      <c r="A70" s="55">
         <v>8</v>
       </c>
-      <c r="B70" s="76">
+      <c r="B70" s="55">
         <v>5</v>
       </c>
-      <c r="C70" s="76">
+      <c r="C70" s="55">
         <v>3</v>
       </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="100" t="s">
+      <c r="D70" s="55"/>
+      <c r="E70" s="91" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
@@ -7654,11 +7759,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="76"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="100"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="91"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
@@ -7667,61 +7772,61 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="76"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="100"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="91"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="107"/>
+      <c r="G72" s="82"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="76"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="100"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="91"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="108"/>
+      <c r="G73" s="83"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="76"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="100"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="91"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="108"/>
+      <c r="G74" s="83"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="76"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="100"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="91"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="109"/>
+      <c r="G75" s="84"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="99">
+      <c r="A76" s="92">
         <v>9</v>
       </c>
-      <c r="B76" s="99">
+      <c r="B76" s="92">
         <v>5</v>
       </c>
-      <c r="C76" s="99">
+      <c r="C76" s="92">
         <v>9</v>
       </c>
-      <c r="D76" s="99"/>
-      <c r="E76" s="101" t="s">
+      <c r="D76" s="92"/>
+      <c r="E76" s="90" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
@@ -7732,11 +7837,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="99"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="101"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="90"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
@@ -7745,61 +7850,61 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="99"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="101"/>
+      <c r="A78" s="92"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="90"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="107"/>
+      <c r="G78" s="82"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="99"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="101"/>
+      <c r="A79" s="92"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="90"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="108"/>
+      <c r="G79" s="83"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="99"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="101"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="90"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="108"/>
+      <c r="G80" s="83"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="99"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="101"/>
+      <c r="A81" s="92"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="90"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="109"/>
+      <c r="G81" s="84"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="76">
+      <c r="A82" s="55">
         <v>10</v>
       </c>
-      <c r="B82" s="76">
+      <c r="B82" s="55">
         <v>6</v>
       </c>
-      <c r="C82" s="76">
+      <c r="C82" s="55">
         <v>4</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="100" t="s">
+      <c r="D82" s="55"/>
+      <c r="E82" s="91" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
@@ -7810,11 +7915,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="76"/>
-      <c r="B83" s="76"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="100"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="91"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
@@ -7823,61 +7928,61 @@
       </c>
     </row>
     <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="76"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="100"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="91"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="107"/>
+      <c r="G84" s="82"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="76"/>
-      <c r="B85" s="76"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="100"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="91"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="108"/>
+      <c r="G85" s="83"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="76"/>
-      <c r="B86" s="76"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="100"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="91"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="108"/>
+      <c r="G86" s="83"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="76"/>
-      <c r="B87" s="76"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="100"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="109"/>
+      <c r="G87" s="84"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="99">
+      <c r="A88" s="92">
         <v>11</v>
       </c>
-      <c r="B88" s="99">
+      <c r="B88" s="92">
         <v>4</v>
       </c>
-      <c r="C88" s="99">
+      <c r="C88" s="92">
         <v>10</v>
       </c>
-      <c r="D88" s="99"/>
-      <c r="E88" s="106" t="s">
+      <c r="D88" s="92"/>
+      <c r="E88" s="89" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
@@ -7888,11 +7993,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="99"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="106"/>
+      <c r="A89" s="92"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="89"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
@@ -7901,61 +8006,61 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="99"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99"/>
-      <c r="E90" s="106"/>
+      <c r="A90" s="92"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="89"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="107"/>
+      <c r="G90" s="82"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="99"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="106"/>
+      <c r="A91" s="92"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="89"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="108"/>
+      <c r="G91" s="83"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="99"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="106"/>
+      <c r="A92" s="92"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="89"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="108"/>
+      <c r="G92" s="83"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="99"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="99"/>
-      <c r="E93" s="106"/>
+      <c r="A93" s="92"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="89"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="109"/>
+      <c r="G93" s="84"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="76">
+      <c r="A94" s="55">
         <v>12</v>
       </c>
-      <c r="B94" s="76">
+      <c r="B94" s="55">
         <v>7</v>
       </c>
-      <c r="C94" s="76">
+      <c r="C94" s="55">
         <v>11</v>
       </c>
-      <c r="D94" s="76"/>
-      <c r="E94" s="106" t="s">
+      <c r="D94" s="55"/>
+      <c r="E94" s="89" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
@@ -7966,11 +8071,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="76"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="76"/>
-      <c r="E95" s="106"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="89"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
@@ -7979,61 +8084,61 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="76"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="106"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="89"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="107"/>
+      <c r="G96" s="82"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="76"/>
-      <c r="B97" s="76"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="106"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="89"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="108"/>
+      <c r="G97" s="83"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="76"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="106"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="89"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="108"/>
+      <c r="G98" s="83"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="76"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="106"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="89"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="109"/>
+      <c r="G99" s="84"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="99">
+      <c r="A100" s="92">
         <v>13</v>
       </c>
-      <c r="B100" s="99">
+      <c r="B100" s="92">
         <v>11</v>
       </c>
-      <c r="C100" s="99">
+      <c r="C100" s="92">
         <v>12</v>
       </c>
-      <c r="D100" s="99"/>
-      <c r="E100" s="106" t="s">
+      <c r="D100" s="92"/>
+      <c r="E100" s="89" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
@@ -8044,11 +8149,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="99"/>
-      <c r="B101" s="99"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="106"/>
+      <c r="A101" s="92"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="89"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
@@ -8057,61 +8162,61 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="99"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="106"/>
+      <c r="A102" s="92"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="89"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="107"/>
+      <c r="G102" s="82"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="99"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="106"/>
+      <c r="A103" s="92"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="89"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="108"/>
+      <c r="G103" s="83"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="99"/>
-      <c r="B104" s="99"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="106"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="89"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="108"/>
+      <c r="G104" s="83"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="99"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="106"/>
+      <c r="A105" s="92"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="89"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="109"/>
+      <c r="G105" s="84"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="76">
+      <c r="A106" s="55">
         <v>14</v>
       </c>
-      <c r="B106" s="76">
+      <c r="B106" s="55">
         <v>3</v>
       </c>
-      <c r="C106" s="76">
+      <c r="C106" s="55">
         <v>10</v>
       </c>
-      <c r="D106" s="76"/>
-      <c r="E106" s="106" t="s">
+      <c r="D106" s="55"/>
+      <c r="E106" s="89" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
@@ -8122,11 +8227,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="76"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="106"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="89"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
@@ -8135,61 +8240,61 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="76"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="106"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="89"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="107"/>
+      <c r="G108" s="82"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="76"/>
-      <c r="B109" s="76"/>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="106"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="89"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="108"/>
+      <c r="G109" s="83"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="76"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="106"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="89"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="108"/>
+      <c r="G110" s="83"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="76"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="106"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="89"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="109"/>
+      <c r="G111" s="84"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="99">
+      <c r="A112" s="92">
         <v>15</v>
       </c>
-      <c r="B112" s="99">
+      <c r="B112" s="92">
         <v>12</v>
       </c>
-      <c r="C112" s="99">
+      <c r="C112" s="92">
         <v>3</v>
       </c>
-      <c r="D112" s="99"/>
-      <c r="E112" s="101" t="s">
+      <c r="D112" s="92"/>
+      <c r="E112" s="90" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
@@ -8200,11 +8305,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="99"/>
-      <c r="B113" s="99"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="101"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="90"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
@@ -8213,61 +8318,61 @@
       </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="99"/>
-      <c r="B114" s="99"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="101"/>
+      <c r="A114" s="92"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="90"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="107"/>
+      <c r="G114" s="82"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="99"/>
-      <c r="B115" s="99"/>
-      <c r="C115" s="99"/>
-      <c r="D115" s="99"/>
-      <c r="E115" s="101"/>
+      <c r="A115" s="92"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="90"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="108"/>
+      <c r="G115" s="83"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="99"/>
-      <c r="B116" s="99"/>
-      <c r="C116" s="99"/>
-      <c r="D116" s="99"/>
-      <c r="E116" s="101"/>
+      <c r="A116" s="92"/>
+      <c r="B116" s="92"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="90"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="108"/>
+      <c r="G116" s="83"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="99"/>
-      <c r="B117" s="99"/>
-      <c r="C117" s="99"/>
-      <c r="D117" s="99"/>
-      <c r="E117" s="101"/>
+      <c r="A117" s="92"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="90"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="109"/>
+      <c r="G117" s="84"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="76">
+      <c r="A118" s="55">
         <v>16</v>
       </c>
-      <c r="B118" s="76">
+      <c r="B118" s="55">
         <v>8</v>
       </c>
-      <c r="C118" s="76">
+      <c r="C118" s="55">
         <v>1</v>
       </c>
-      <c r="D118" s="76"/>
-      <c r="E118" s="100" t="s">
+      <c r="D118" s="55"/>
+      <c r="E118" s="91" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
@@ -8278,11 +8383,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="76"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="76"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="100"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="55"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="91"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
@@ -8291,61 +8396,61 @@
       </c>
     </row>
     <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="76"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="100"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="91"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="107"/>
+      <c r="G120" s="82"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="76"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="100"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="91"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="108"/>
+      <c r="G121" s="83"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="76"/>
-      <c r="B122" s="76"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="100"/>
+      <c r="A122" s="55"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="91"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="108"/>
+      <c r="G122" s="83"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="76"/>
-      <c r="B123" s="76"/>
-      <c r="C123" s="76"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="100"/>
+      <c r="A123" s="55"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="91"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="109"/>
+      <c r="G123" s="84"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="99">
+      <c r="A124" s="92">
         <v>17</v>
       </c>
-      <c r="B124" s="99">
+      <c r="B124" s="92">
         <v>2</v>
       </c>
-      <c r="C124" s="99">
+      <c r="C124" s="92">
         <v>3</v>
       </c>
-      <c r="D124" s="99"/>
-      <c r="E124" s="101" t="s">
+      <c r="D124" s="92"/>
+      <c r="E124" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
@@ -8356,11 +8461,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="99"/>
-      <c r="B125" s="99"/>
-      <c r="C125" s="99"/>
-      <c r="D125" s="99"/>
-      <c r="E125" s="101"/>
+      <c r="A125" s="92"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="90"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
@@ -8369,61 +8474,61 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="99"/>
-      <c r="B126" s="99"/>
-      <c r="C126" s="99"/>
-      <c r="D126" s="99"/>
-      <c r="E126" s="101"/>
+      <c r="A126" s="92"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="90"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="107"/>
+      <c r="G126" s="82"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="99"/>
-      <c r="B127" s="99"/>
-      <c r="C127" s="99"/>
-      <c r="D127" s="99"/>
-      <c r="E127" s="101"/>
+      <c r="A127" s="92"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="90"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="108"/>
+      <c r="G127" s="83"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="99"/>
-      <c r="B128" s="99"/>
-      <c r="C128" s="99"/>
-      <c r="D128" s="99"/>
-      <c r="E128" s="101"/>
+      <c r="A128" s="92"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="90"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="108"/>
+      <c r="G128" s="83"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="99"/>
-      <c r="B129" s="99"/>
-      <c r="C129" s="99"/>
-      <c r="D129" s="99"/>
-      <c r="E129" s="101"/>
+      <c r="A129" s="92"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="92"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="90"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="109"/>
+      <c r="G129" s="84"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="76">
+      <c r="A130" s="55">
         <v>18</v>
       </c>
-      <c r="B130" s="76">
+      <c r="B130" s="55">
         <v>2</v>
       </c>
-      <c r="C130" s="76">
+      <c r="C130" s="55">
         <v>9</v>
       </c>
-      <c r="D130" s="76"/>
-      <c r="E130" s="100" t="s">
+      <c r="D130" s="55"/>
+      <c r="E130" s="91" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
@@ -8434,11 +8539,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="76"/>
-      <c r="B131" s="76"/>
-      <c r="C131" s="76"/>
-      <c r="D131" s="76"/>
-      <c r="E131" s="100"/>
+      <c r="A131" s="55"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="91"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
@@ -8447,61 +8552,61 @@
       </c>
     </row>
     <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="76"/>
-      <c r="B132" s="76"/>
-      <c r="C132" s="76"/>
-      <c r="D132" s="76"/>
-      <c r="E132" s="100"/>
+      <c r="A132" s="55"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="91"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="107"/>
+      <c r="G132" s="82"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="76"/>
-      <c r="B133" s="76"/>
-      <c r="C133" s="76"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="100"/>
+      <c r="A133" s="55"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="91"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="108"/>
+      <c r="G133" s="83"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="76"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="76"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="100"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="91"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="108"/>
+      <c r="G134" s="83"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="76"/>
-      <c r="B135" s="76"/>
-      <c r="C135" s="76"/>
-      <c r="D135" s="76"/>
-      <c r="E135" s="100"/>
+      <c r="A135" s="55"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="91"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="109"/>
+      <c r="G135" s="84"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="99">
+      <c r="A136" s="92">
         <v>19</v>
       </c>
-      <c r="B136" s="99">
+      <c r="B136" s="92">
         <v>8</v>
       </c>
-      <c r="C136" s="99">
+      <c r="C136" s="92">
         <v>7</v>
       </c>
-      <c r="D136" s="99"/>
-      <c r="E136" s="101" t="s">
+      <c r="D136" s="92"/>
+      <c r="E136" s="90" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
@@ -8512,11 +8617,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="99"/>
-      <c r="B137" s="99"/>
-      <c r="C137" s="99"/>
-      <c r="D137" s="99"/>
-      <c r="E137" s="101"/>
+      <c r="A137" s="92"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="92"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="90"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
@@ -8525,69 +8630,164 @@
       </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="99"/>
-      <c r="B138" s="99"/>
-      <c r="C138" s="99"/>
-      <c r="D138" s="99"/>
-      <c r="E138" s="101"/>
+      <c r="A138" s="92"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="92"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="90"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="107"/>
+      <c r="G138" s="82"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="99"/>
-      <c r="B139" s="99"/>
-      <c r="C139" s="99"/>
-      <c r="D139" s="99"/>
-      <c r="E139" s="101"/>
+      <c r="A139" s="92"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="92"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="90"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="108"/>
+      <c r="G139" s="83"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="99"/>
-      <c r="B140" s="99"/>
-      <c r="C140" s="99"/>
-      <c r="D140" s="99"/>
-      <c r="E140" s="101"/>
+      <c r="A140" s="92"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="90"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="108"/>
+      <c r="G140" s="83"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="99"/>
-      <c r="B141" s="99"/>
-      <c r="C141" s="99"/>
-      <c r="D141" s="99"/>
-      <c r="E141" s="101"/>
+      <c r="A141" s="92"/>
+      <c r="B141" s="92"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="90"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="109"/>
+      <c r="G141" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
     <mergeCell ref="A19:XFD19"/>
     <mergeCell ref="E94:E99"/>
     <mergeCell ref="E100:E105"/>
@@ -8612,119 +8812,24 @@
     <mergeCell ref="D118:D123"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="G30:G33"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8746,47 +8851,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -9255,70 +9360,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9789,70 +9894,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10323,70 +10428,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10870,70 +10975,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="110" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\dex\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9EC141-3DA8-449D-813B-976AE81CCA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D84E37-E6D3-4FC0-BFC0-D4BCB93FFCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
+    <workbookView xWindow="6510" yWindow="1110" windowWidth="15360" windowHeight="10155" tabRatio="839" activeTab="5" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 방법" sheetId="3" r:id="rId1"/>
@@ -1442,97 +1442,181 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,84 +1628,6 @@
     <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1638,12 +1644,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2290,70 +2290,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2824,70 +2824,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3358,70 +3358,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3892,70 +3892,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4426,70 +4426,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4960,70 +4960,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -5484,8 +5484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F661FF6-4AD5-40E4-982D-024A96661DAF}">
   <dimension ref="A2:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:M7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5503,10 +5503,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="59"/>
+      <c r="O2" s="71"/>
       <c r="R2" s="33" t="s">
         <v>185</v>
       </c>
@@ -5535,25 +5535,25 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="37"/>
@@ -5562,23 +5562,23 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="38"/>
@@ -5587,25 +5587,25 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="34">
         <v>1000</v>
       </c>
@@ -5620,23 +5620,23 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="38"/>
@@ -5645,25 +5645,25 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5675,35 +5675,35 @@
       <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="54" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="62" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -5715,20 +5715,20 @@
       <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="56">
         <v>150000000</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="57"/>
+      <c r="F11" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -5740,20 +5740,20 @@
       <c r="C12" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="56">
         <v>10000000</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="54" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -5765,41 +5765,41 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="56">
         <v>10000000</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -5817,19 +5817,19 @@
       <c r="E15" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="54" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -5844,57 +5844,57 @@
       <c r="E16" s="47">
         <v>2000</v>
       </c>
-      <c r="F16" s="117" t="s">
+      <c r="F16" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="38"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="62" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="38"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="54" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5909,57 +5909,57 @@
       <c r="E19" s="47">
         <v>100</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="54" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="54" t="s">
         <v>199</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -5974,149 +5974,149 @@
       <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="38"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="38"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
     </row>
     <row r="25" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
       <c r="O29" s="31">
         <v>9.9889979999755599E+24</v>
       </c>
@@ -6125,22 +6125,22 @@
       <c r="A30" s="11">
         <v>4</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54" t="s">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
       <c r="O30" s="31">
         <v>9.9778780292155191E+24</v>
       </c>
@@ -6149,254 +6149,254 @@
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57" t="s">
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>7</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57" t="s">
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>10</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>11</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>12</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55" t="s">
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>13</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>14</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>15</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>16</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
@@ -6414,50 +6414,50 @@
       <c r="M43" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51" t="s">
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53" t="s">
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="52" t="s">
         <v>222</v>
       </c>
@@ -6473,9 +6473,9 @@
       <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="52" t="s">
         <v>223</v>
       </c>
@@ -6491,9 +6491,9 @@
       <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="52" t="s">
         <v>228</v>
       </c>
@@ -6511,9 +6511,9 @@
       <c r="B51" s="11">
         <v>4</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="52" t="s">
         <v>229</v>
       </c>
@@ -6531,9 +6531,9 @@
       <c r="B52" s="11">
         <v>5</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="52" t="s">
         <v>224</v>
       </c>
@@ -6549,9 +6549,9 @@
       <c r="B53" s="11">
         <v>6</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="52" t="s">
         <v>225</v>
       </c>
@@ -6567,9 +6567,9 @@
       <c r="B54" s="11">
         <v>7</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="52" t="s">
         <v>226</v>
       </c>
@@ -6585,9 +6585,9 @@
       <c r="B55" s="11">
         <v>8</v>
       </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="52" t="s">
         <v>227</v>
       </c>
@@ -6601,39 +6601,46 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F55:M55"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F54:M54"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F32:M32"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F17:M17"/>
@@ -6650,6 +6657,39 @@
     <mergeCell ref="A8:S8"/>
     <mergeCell ref="A14:S14"/>
     <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
@@ -6658,46 +6698,6 @@
     <mergeCell ref="F31:M31"/>
     <mergeCell ref="F34:M34"/>
     <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F55:M55"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="F54:M54"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="F49:M49"/>
-    <mergeCell ref="F52:M52"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C48:E48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6727,50 +6727,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="102"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="107"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="86">
         <v>100000000</v>
       </c>
-      <c r="F4" s="103"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -6782,17 +6782,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="87">
         <v>100000</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -6804,17 +6804,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="108"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="87">
         <v>1000000</v>
       </c>
-      <c r="F6" s="104"/>
+      <c r="F6" s="87"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -6826,15 +6826,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="105">
+      <c r="E7" s="88">
         <v>150000000</v>
       </c>
-      <c r="F7" s="105"/>
+      <c r="F7" s="88"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -6843,17 +6843,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="98">
         <v>200000000</v>
       </c>
-      <c r="F8" s="98"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6865,17 +6865,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="106"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="100">
         <v>20000000</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -6887,17 +6887,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="106"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="100">
         <v>2000000</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -6909,17 +6909,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="106"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="100">
         <v>1000000</v>
       </c>
-      <c r="F11" s="100"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -6931,17 +6931,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="94">
         <v>2000000</v>
       </c>
-      <c r="F12" s="94"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -6953,17 +6953,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="94">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -6975,17 +6975,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="94">
         <v>4000000</v>
       </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -6997,17 +6997,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="96">
         <v>500000000</v>
       </c>
-      <c r="F15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -7019,17 +7019,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="96">
         <v>200000000</v>
       </c>
-      <c r="F16" s="96"/>
+      <c r="F16" s="97"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -7041,17 +7041,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="96">
         <v>10000000</v>
       </c>
-      <c r="F17" s="96"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -7059,35 +7059,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
-    </row>
-    <row r="19" spans="1:8" s="88" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
+    <row r="18" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="59"/>
+    </row>
+    <row r="19" spans="1:8" s="108" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -7114,17 +7114,17 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55">
+      <c r="A22" s="80">
         <v>0</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="80">
         <v>0</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="91" t="s">
+      <c r="D22" s="80"/>
+      <c r="E22" s="103" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -7135,11 +7135,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="91"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="103"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
@@ -7148,61 +7148,61 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="91"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="103"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="82"/>
+      <c r="G24" s="110"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="91"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="83"/>
+      <c r="G25" s="111"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="91"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="103"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="83"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="91"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="84"/>
+      <c r="G27" s="112"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92">
+      <c r="A28" s="102">
         <v>1</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="92">
+      <c r="C28" s="102">
         <v>2</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="90" t="s">
+      <c r="D28" s="102"/>
+      <c r="E28" s="104" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -7213,11 +7213,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="90"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
@@ -7226,61 +7226,61 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="90"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="82"/>
+      <c r="G30" s="110"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="90"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="83"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="90"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="83"/>
+      <c r="G32" s="111"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="90"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="84"/>
+      <c r="G33" s="112"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55">
+      <c r="A34" s="80">
         <v>2</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="80">
         <v>6</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="91" t="s">
+      <c r="D34" s="80"/>
+      <c r="E34" s="103" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -7291,11 +7291,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="91"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="103"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
@@ -7304,61 +7304,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="91"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="103"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="82"/>
+      <c r="G36" s="110"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="91"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="103"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="91"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="103"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="83"/>
+      <c r="G38" s="111"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="91"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="103"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="84"/>
+      <c r="G39" s="112"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92">
+      <c r="A40" s="102">
         <v>3</v>
       </c>
-      <c r="B40" s="92">
+      <c r="B40" s="102">
         <v>0</v>
       </c>
-      <c r="C40" s="92">
+      <c r="C40" s="102">
         <v>3</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="90" t="s">
+      <c r="D40" s="102"/>
+      <c r="E40" s="104" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -7369,11 +7369,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="90"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
@@ -7382,61 +7382,61 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="90"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="82"/>
+      <c r="G42" s="110"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="90"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="83"/>
+      <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="90"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="83"/>
+      <c r="G44" s="111"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="90"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="84"/>
+      <c r="G45" s="112"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55">
+      <c r="A46" s="80">
         <v>4</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="80">
         <v>0</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="80">
         <v>4</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="91" t="s">
+      <c r="D46" s="80"/>
+      <c r="E46" s="103" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -7447,11 +7447,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="91"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="103"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
@@ -7460,61 +7460,61 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="91"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="103"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="82"/>
+      <c r="G48" s="110"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="91"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="103"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="83"/>
+      <c r="G49" s="111"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="91"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="103"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="83"/>
+      <c r="G50" s="111"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="91"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="103"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="84"/>
+      <c r="G51" s="112"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="92">
+      <c r="A52" s="102">
         <v>5</v>
       </c>
-      <c r="B52" s="92">
+      <c r="B52" s="102">
         <v>1</v>
       </c>
-      <c r="C52" s="92">
+      <c r="C52" s="102">
         <v>3</v>
       </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="90" t="s">
+      <c r="D52" s="102"/>
+      <c r="E52" s="104" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -7525,11 +7525,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="92"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="90"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
@@ -7538,61 +7538,61 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="90"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="82"/>
+      <c r="G54" s="110"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="92"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="90"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="83"/>
+      <c r="G55" s="111"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="92"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="90"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="83"/>
+      <c r="G56" s="111"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="92"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="90"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="84"/>
+      <c r="G57" s="112"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="55">
+      <c r="A58" s="80">
         <v>6</v>
       </c>
-      <c r="B58" s="55">
+      <c r="B58" s="80">
         <v>1</v>
       </c>
-      <c r="C58" s="55">
+      <c r="C58" s="80">
         <v>4</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="91" t="s">
+      <c r="D58" s="80"/>
+      <c r="E58" s="103" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
@@ -7603,11 +7603,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="91"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="103"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
@@ -7616,61 +7616,61 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="91"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="103"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="82"/>
+      <c r="G60" s="110"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="91"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="103"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="83"/>
+      <c r="G61" s="111"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="91"/>
+      <c r="A62" s="80"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="103"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="83"/>
+      <c r="G62" s="111"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="91"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="103"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="84"/>
+      <c r="G63" s="112"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="92">
+      <c r="A64" s="102">
         <v>7</v>
       </c>
-      <c r="B64" s="92">
+      <c r="B64" s="102">
         <v>1</v>
       </c>
-      <c r="C64" s="92">
+      <c r="C64" s="102">
         <v>7</v>
       </c>
-      <c r="D64" s="92"/>
-      <c r="E64" s="90" t="s">
+      <c r="D64" s="102"/>
+      <c r="E64" s="104" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -7681,11 +7681,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="92"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="90"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="104"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
@@ -7694,61 +7694,61 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="90"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="104"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="82"/>
+      <c r="G66" s="110"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="92"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="90"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="104"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="83"/>
+      <c r="G67" s="111"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="92"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="90"/>
+      <c r="A68" s="102"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="104"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="83"/>
+      <c r="G68" s="111"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="92"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="90"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="104"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="84"/>
+      <c r="G69" s="112"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="55">
+      <c r="A70" s="80">
         <v>8</v>
       </c>
-      <c r="B70" s="55">
+      <c r="B70" s="80">
         <v>5</v>
       </c>
-      <c r="C70" s="55">
+      <c r="C70" s="80">
         <v>3</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="91" t="s">
+      <c r="D70" s="80"/>
+      <c r="E70" s="103" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
@@ -7759,11 +7759,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="55"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="91"/>
+      <c r="A71" s="80"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="103"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
@@ -7772,61 +7772,61 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="91"/>
+      <c r="A72" s="80"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="103"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="82"/>
+      <c r="G72" s="110"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="55"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="91"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="103"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="83"/>
+      <c r="G73" s="111"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="91"/>
+      <c r="A74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="103"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="83"/>
+      <c r="G74" s="111"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="91"/>
+      <c r="A75" s="80"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="103"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="84"/>
+      <c r="G75" s="112"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="92">
+      <c r="A76" s="102">
         <v>9</v>
       </c>
-      <c r="B76" s="92">
+      <c r="B76" s="102">
         <v>5</v>
       </c>
-      <c r="C76" s="92">
+      <c r="C76" s="102">
         <v>9</v>
       </c>
-      <c r="D76" s="92"/>
-      <c r="E76" s="90" t="s">
+      <c r="D76" s="102"/>
+      <c r="E76" s="104" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
@@ -7837,11 +7837,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="90"/>
+      <c r="A77" s="102"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="104"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
@@ -7850,61 +7850,61 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="92"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="90"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="104"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="82"/>
+      <c r="G78" s="110"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="92"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="90"/>
+      <c r="A79" s="102"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="104"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="83"/>
+      <c r="G79" s="111"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="92"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="90"/>
+      <c r="A80" s="102"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="104"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="83"/>
+      <c r="G80" s="111"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="92"/>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="90"/>
+      <c r="A81" s="102"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="104"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="84"/>
+      <c r="G81" s="112"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="55">
+      <c r="A82" s="80">
         <v>10</v>
       </c>
-      <c r="B82" s="55">
+      <c r="B82" s="80">
         <v>6</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="80">
         <v>4</v>
       </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="91" t="s">
+      <c r="D82" s="80"/>
+      <c r="E82" s="103" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
@@ -7915,11 +7915,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="91"/>
+      <c r="A83" s="80"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="103"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
@@ -7928,61 +7928,61 @@
       </c>
     </row>
     <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="91"/>
+      <c r="A84" s="80"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="103"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="82"/>
+      <c r="G84" s="110"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="91"/>
+      <c r="A85" s="80"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="103"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="83"/>
+      <c r="G85" s="111"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="91"/>
+      <c r="A86" s="80"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="103"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="83"/>
+      <c r="G86" s="111"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="91"/>
+      <c r="A87" s="80"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="103"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="84"/>
+      <c r="G87" s="112"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="92">
+      <c r="A88" s="102">
         <v>11</v>
       </c>
-      <c r="B88" s="92">
+      <c r="B88" s="102">
         <v>4</v>
       </c>
-      <c r="C88" s="92">
+      <c r="C88" s="102">
         <v>10</v>
       </c>
-      <c r="D88" s="92"/>
-      <c r="E88" s="89" t="s">
+      <c r="D88" s="102"/>
+      <c r="E88" s="109" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
@@ -7993,11 +7993,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="92"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="89"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="102"/>
+      <c r="D89" s="102"/>
+      <c r="E89" s="109"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
@@ -8006,61 +8006,61 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="92"/>
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="89"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="109"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="82"/>
+      <c r="G90" s="110"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="92"/>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="89"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="109"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="83"/>
+      <c r="G91" s="111"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="92"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="89"/>
+      <c r="A92" s="102"/>
+      <c r="B92" s="102"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="102"/>
+      <c r="E92" s="109"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="83"/>
+      <c r="G92" s="111"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="92"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="89"/>
+      <c r="A93" s="102"/>
+      <c r="B93" s="102"/>
+      <c r="C93" s="102"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="109"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="84"/>
+      <c r="G93" s="112"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="55">
+      <c r="A94" s="80">
         <v>12</v>
       </c>
-      <c r="B94" s="55">
+      <c r="B94" s="80">
         <v>7</v>
       </c>
-      <c r="C94" s="55">
+      <c r="C94" s="80">
         <v>11</v>
       </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="89" t="s">
+      <c r="D94" s="80"/>
+      <c r="E94" s="109" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
@@ -8071,11 +8071,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="55"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="89"/>
+      <c r="A95" s="80"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="109"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
@@ -8084,61 +8084,61 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="89"/>
+      <c r="A96" s="80"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="109"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="82"/>
+      <c r="G96" s="110"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="55"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="89"/>
+      <c r="A97" s="80"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="109"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="83"/>
+      <c r="G97" s="111"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="89"/>
+      <c r="A98" s="80"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="109"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="83"/>
+      <c r="G98" s="111"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="55"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="89"/>
+      <c r="A99" s="80"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="109"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="84"/>
+      <c r="G99" s="112"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="92">
+      <c r="A100" s="102">
         <v>13</v>
       </c>
-      <c r="B100" s="92">
+      <c r="B100" s="102">
         <v>11</v>
       </c>
-      <c r="C100" s="92">
+      <c r="C100" s="102">
         <v>12</v>
       </c>
-      <c r="D100" s="92"/>
-      <c r="E100" s="89" t="s">
+      <c r="D100" s="102"/>
+      <c r="E100" s="109" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
@@ -8149,11 +8149,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="92"/>
-      <c r="B101" s="92"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="89"/>
+      <c r="A101" s="102"/>
+      <c r="B101" s="102"/>
+      <c r="C101" s="102"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="109"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
@@ -8162,61 +8162,61 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="92"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="89"/>
+      <c r="A102" s="102"/>
+      <c r="B102" s="102"/>
+      <c r="C102" s="102"/>
+      <c r="D102" s="102"/>
+      <c r="E102" s="109"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="82"/>
+      <c r="G102" s="110"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="92"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="89"/>
+      <c r="A103" s="102"/>
+      <c r="B103" s="102"/>
+      <c r="C103" s="102"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="109"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="83"/>
+      <c r="G103" s="111"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="92"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="89"/>
+      <c r="A104" s="102"/>
+      <c r="B104" s="102"/>
+      <c r="C104" s="102"/>
+      <c r="D104" s="102"/>
+      <c r="E104" s="109"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="83"/>
+      <c r="G104" s="111"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="92"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="89"/>
+      <c r="A105" s="102"/>
+      <c r="B105" s="102"/>
+      <c r="C105" s="102"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="109"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="84"/>
+      <c r="G105" s="112"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="55">
+      <c r="A106" s="80">
         <v>14</v>
       </c>
-      <c r="B106" s="55">
+      <c r="B106" s="80">
         <v>3</v>
       </c>
-      <c r="C106" s="55">
+      <c r="C106" s="80">
         <v>10</v>
       </c>
-      <c r="D106" s="55"/>
-      <c r="E106" s="89" t="s">
+      <c r="D106" s="80"/>
+      <c r="E106" s="109" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
@@ -8227,11 +8227,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="55"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="89"/>
+      <c r="A107" s="80"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="109"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
@@ -8240,61 +8240,61 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="55"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="89"/>
+      <c r="A108" s="80"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="109"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="82"/>
+      <c r="G108" s="110"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="89"/>
+      <c r="A109" s="80"/>
+      <c r="B109" s="80"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="109"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="83"/>
+      <c r="G109" s="111"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="55"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="89"/>
+      <c r="A110" s="80"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="109"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="83"/>
+      <c r="G110" s="111"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="55"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="89"/>
+      <c r="A111" s="80"/>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="109"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="84"/>
+      <c r="G111" s="112"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="92">
+      <c r="A112" s="102">
         <v>15</v>
       </c>
-      <c r="B112" s="92">
+      <c r="B112" s="102">
         <v>12</v>
       </c>
-      <c r="C112" s="92">
+      <c r="C112" s="102">
         <v>3</v>
       </c>
-      <c r="D112" s="92"/>
-      <c r="E112" s="90" t="s">
+      <c r="D112" s="102"/>
+      <c r="E112" s="104" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
@@ -8305,11 +8305,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92"/>
-      <c r="B113" s="92"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="92"/>
-      <c r="E113" s="90"/>
+      <c r="A113" s="102"/>
+      <c r="B113" s="102"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="102"/>
+      <c r="E113" s="104"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
@@ -8318,61 +8318,61 @@
       </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="92"/>
-      <c r="B114" s="92"/>
-      <c r="C114" s="92"/>
-      <c r="D114" s="92"/>
-      <c r="E114" s="90"/>
+      <c r="A114" s="102"/>
+      <c r="B114" s="102"/>
+      <c r="C114" s="102"/>
+      <c r="D114" s="102"/>
+      <c r="E114" s="104"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="82"/>
+      <c r="G114" s="110"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="92"/>
-      <c r="B115" s="92"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="90"/>
+      <c r="A115" s="102"/>
+      <c r="B115" s="102"/>
+      <c r="C115" s="102"/>
+      <c r="D115" s="102"/>
+      <c r="E115" s="104"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="83"/>
+      <c r="G115" s="111"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="92"/>
-      <c r="B116" s="92"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="92"/>
-      <c r="E116" s="90"/>
+      <c r="A116" s="102"/>
+      <c r="B116" s="102"/>
+      <c r="C116" s="102"/>
+      <c r="D116" s="102"/>
+      <c r="E116" s="104"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="83"/>
+      <c r="G116" s="111"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="92"/>
-      <c r="B117" s="92"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="90"/>
+      <c r="A117" s="102"/>
+      <c r="B117" s="102"/>
+      <c r="C117" s="102"/>
+      <c r="D117" s="102"/>
+      <c r="E117" s="104"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="84"/>
+      <c r="G117" s="112"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="55">
+      <c r="A118" s="80">
         <v>16</v>
       </c>
-      <c r="B118" s="55">
+      <c r="B118" s="80">
         <v>8</v>
       </c>
-      <c r="C118" s="55">
+      <c r="C118" s="80">
         <v>1</v>
       </c>
-      <c r="D118" s="55"/>
-      <c r="E118" s="91" t="s">
+      <c r="D118" s="80"/>
+      <c r="E118" s="103" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
@@ -8383,11 +8383,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="55"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="55"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="91"/>
+      <c r="A119" s="80"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="103"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
@@ -8396,61 +8396,61 @@
       </c>
     </row>
     <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="55"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="91"/>
+      <c r="A120" s="80"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="103"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="82"/>
+      <c r="G120" s="110"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="55"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="91"/>
+      <c r="A121" s="80"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="80"/>
+      <c r="E121" s="103"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="83"/>
+      <c r="G121" s="111"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="55"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="91"/>
+      <c r="A122" s="80"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="103"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="83"/>
+      <c r="G122" s="111"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="55"/>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="91"/>
+      <c r="A123" s="80"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="103"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="84"/>
+      <c r="G123" s="112"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="92">
+      <c r="A124" s="102">
         <v>17</v>
       </c>
-      <c r="B124" s="92">
+      <c r="B124" s="102">
         <v>2</v>
       </c>
-      <c r="C124" s="92">
+      <c r="C124" s="102">
         <v>3</v>
       </c>
-      <c r="D124" s="92"/>
-      <c r="E124" s="90" t="s">
+      <c r="D124" s="102"/>
+      <c r="E124" s="104" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
@@ -8461,11 +8461,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="92"/>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="90"/>
+      <c r="A125" s="102"/>
+      <c r="B125" s="102"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="102"/>
+      <c r="E125" s="104"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
@@ -8474,61 +8474,61 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="92"/>
-      <c r="B126" s="92"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="90"/>
+      <c r="A126" s="102"/>
+      <c r="B126" s="102"/>
+      <c r="C126" s="102"/>
+      <c r="D126" s="102"/>
+      <c r="E126" s="104"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="82"/>
+      <c r="G126" s="110"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="92"/>
-      <c r="B127" s="92"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="90"/>
+      <c r="A127" s="102"/>
+      <c r="B127" s="102"/>
+      <c r="C127" s="102"/>
+      <c r="D127" s="102"/>
+      <c r="E127" s="104"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="83"/>
+      <c r="G127" s="111"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="92"/>
-      <c r="B128" s="92"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="92"/>
-      <c r="E128" s="90"/>
+      <c r="A128" s="102"/>
+      <c r="B128" s="102"/>
+      <c r="C128" s="102"/>
+      <c r="D128" s="102"/>
+      <c r="E128" s="104"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="83"/>
+      <c r="G128" s="111"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="92"/>
-      <c r="B129" s="92"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="90"/>
+      <c r="A129" s="102"/>
+      <c r="B129" s="102"/>
+      <c r="C129" s="102"/>
+      <c r="D129" s="102"/>
+      <c r="E129" s="104"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="84"/>
+      <c r="G129" s="112"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="55">
+      <c r="A130" s="80">
         <v>18</v>
       </c>
-      <c r="B130" s="55">
+      <c r="B130" s="80">
         <v>2</v>
       </c>
-      <c r="C130" s="55">
+      <c r="C130" s="80">
         <v>9</v>
       </c>
-      <c r="D130" s="55"/>
-      <c r="E130" s="91" t="s">
+      <c r="D130" s="80"/>
+      <c r="E130" s="103" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
@@ -8539,11 +8539,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="55"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="55"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="91"/>
+      <c r="A131" s="80"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="103"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
@@ -8552,61 +8552,61 @@
       </c>
     </row>
     <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="55"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="91"/>
+      <c r="A132" s="80"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="103"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="82"/>
+      <c r="G132" s="110"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="55"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="55"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="91"/>
+      <c r="A133" s="80"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="103"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="83"/>
+      <c r="G133" s="111"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="55"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="91"/>
+      <c r="A134" s="80"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="103"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="83"/>
+      <c r="G134" s="111"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="55"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="91"/>
+      <c r="A135" s="80"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="103"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="84"/>
+      <c r="G135" s="112"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="92">
+      <c r="A136" s="102">
         <v>19</v>
       </c>
-      <c r="B136" s="92">
+      <c r="B136" s="102">
         <v>8</v>
       </c>
-      <c r="C136" s="92">
+      <c r="C136" s="102">
         <v>7</v>
       </c>
-      <c r="D136" s="92"/>
-      <c r="E136" s="90" t="s">
+      <c r="D136" s="102"/>
+      <c r="E136" s="104" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
@@ -8617,11 +8617,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="92"/>
-      <c r="B137" s="92"/>
-      <c r="C137" s="92"/>
-      <c r="D137" s="92"/>
-      <c r="E137" s="90"/>
+      <c r="A137" s="102"/>
+      <c r="B137" s="102"/>
+      <c r="C137" s="102"/>
+      <c r="D137" s="102"/>
+      <c r="E137" s="104"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
@@ -8630,51 +8630,182 @@
       </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="92"/>
-      <c r="B138" s="92"/>
-      <c r="C138" s="92"/>
-      <c r="D138" s="92"/>
-      <c r="E138" s="90"/>
+      <c r="A138" s="102"/>
+      <c r="B138" s="102"/>
+      <c r="C138" s="102"/>
+      <c r="D138" s="102"/>
+      <c r="E138" s="104"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="82"/>
+      <c r="G138" s="110"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="92"/>
-      <c r="B139" s="92"/>
-      <c r="C139" s="92"/>
-      <c r="D139" s="92"/>
-      <c r="E139" s="90"/>
+      <c r="A139" s="102"/>
+      <c r="B139" s="102"/>
+      <c r="C139" s="102"/>
+      <c r="D139" s="102"/>
+      <c r="E139" s="104"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="83"/>
+      <c r="G139" s="111"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="92"/>
-      <c r="B140" s="92"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="92"/>
-      <c r="E140" s="90"/>
+      <c r="A140" s="102"/>
+      <c r="B140" s="102"/>
+      <c r="C140" s="102"/>
+      <c r="D140" s="102"/>
+      <c r="E140" s="104"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="83"/>
+      <c r="G140" s="111"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="92"/>
-      <c r="B141" s="92"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="90"/>
+      <c r="A141" s="102"/>
+      <c r="B141" s="102"/>
+      <c r="C141" s="102"/>
+      <c r="D141" s="102"/>
+      <c r="E141" s="104"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="84"/>
+      <c r="G141" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="E94:E99"/>
+    <mergeCell ref="E100:E105"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="E124:E129"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="B15:C15"/>
@@ -8699,137 +8830,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="E94:E99"/>
-    <mergeCell ref="E100:E105"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="E124:E129"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E76:E81"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="G126:G129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8851,47 +8851,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -9360,70 +9360,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9884,8 +9884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671424AB-AC25-4E79-BB3D-454F486F0AFB}">
   <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9894,70 +9894,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10428,70 +10428,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10975,70 +10975,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\dex\dex-doc\testsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\solidity\mkdocs\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9EC141-3DA8-449D-813B-976AE81CCA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDE0E4-50D9-4278-A2E5-2C0CD790E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 방법" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="account(8)" sheetId="15" r:id="rId14"/>
     <sheet name="account(9)" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -888,10 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xae4bA40a4Dca3Eb2E5756cAb83A16FD0694eB0C9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x886766B62b5E31b4337CAAdD036f6653095C6De9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -969,6 +963,10 @@
   </si>
   <si>
     <t>0x6B5D58dA23789aA9C0cf0942D1db15da1e493044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x125e64F6594Ff13479B0d9525B9dd2FF6098552c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,97 +1440,181 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,84 +1626,6 @@
     <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1638,12 +1642,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2290,70 +2288,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2824,70 +2822,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3358,70 +3356,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3892,70 +3890,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4426,70 +4424,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4960,70 +4958,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -5484,8 +5482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F661FF6-4AD5-40E4-982D-024A96661DAF}">
   <dimension ref="A2:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:M7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" activeCellId="1" sqref="O39 O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5503,10 +5501,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="59"/>
+      <c r="O2" s="71"/>
       <c r="R2" s="33" t="s">
         <v>185</v>
       </c>
@@ -5535,25 +5533,25 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="37"/>
@@ -5562,23 +5560,23 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="38"/>
@@ -5587,25 +5585,25 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="34">
         <v>1000</v>
       </c>
@@ -5620,23 +5618,23 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="38"/>
@@ -5645,25 +5643,25 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5675,35 +5673,35 @@
       <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="54" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="62" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -5715,20 +5713,20 @@
       <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="56">
         <v>150000000</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="57"/>
+      <c r="F11" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -5740,20 +5738,20 @@
       <c r="C12" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="56">
         <v>10000000</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="54" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -5765,41 +5763,41 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="56">
         <v>10000000</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -5817,19 +5815,19 @@
       <c r="E15" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="54" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -5844,57 +5842,57 @@
       <c r="E16" s="47">
         <v>2000</v>
       </c>
-      <c r="F16" s="117" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
+      <c r="F16" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="38"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="118" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
+      <c r="F17" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="62" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="38"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
+      <c r="F18" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="54" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5909,57 +5907,57 @@
       <c r="E19" s="47">
         <v>100</v>
       </c>
-      <c r="F19" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="F19" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="55"/>
+      <c r="B21" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="54" t="s">
         <v>199</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -5974,149 +5972,149 @@
       <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F22" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
+      <c r="F22" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="38"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
+      <c r="F23" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="38"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
+      <c r="F24" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
     </row>
     <row r="25" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
       <c r="O29" s="31">
         <v>9.9889979999755599E+24</v>
       </c>
@@ -6125,22 +6123,22 @@
       <c r="A30" s="11">
         <v>4</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54" t="s">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
       <c r="O30" s="31">
         <v>9.9778780292155191E+24</v>
       </c>
@@ -6149,254 +6147,254 @@
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57" t="s">
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>7</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57" t="s">
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>10</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>11</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>12</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>13</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>14</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>15</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>16</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
@@ -6414,52 +6412,52 @@
       <c r="M43" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51" t="s">
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53" t="s">
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G48" s="52"/>
       <c r="H48" s="52"/>
@@ -6473,11 +6471,11 @@
       <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
@@ -6491,11 +6489,11 @@
       <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G50" s="52"/>
       <c r="H50" s="52"/>
@@ -6511,11 +6509,11 @@
       <c r="B51" s="11">
         <v>4</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G51" s="52"/>
       <c r="H51" s="52"/>
@@ -6531,11 +6529,11 @@
       <c r="B52" s="11">
         <v>5</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G52" s="52"/>
       <c r="H52" s="52"/>
@@ -6549,11 +6547,11 @@
       <c r="B53" s="11">
         <v>6</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -6567,11 +6565,11 @@
       <c r="B54" s="11">
         <v>7</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G54" s="52"/>
       <c r="H54" s="52"/>
@@ -6585,11 +6583,11 @@
       <c r="B55" s="11">
         <v>8</v>
       </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
@@ -6601,39 +6599,46 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F55:M55"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F54:M54"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F32:M32"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F17:M17"/>
@@ -6650,6 +6655,39 @@
     <mergeCell ref="A8:S8"/>
     <mergeCell ref="A14:S14"/>
     <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
@@ -6658,46 +6696,6 @@
     <mergeCell ref="F31:M31"/>
     <mergeCell ref="F34:M34"/>
     <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F55:M55"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="F54:M54"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="F49:M49"/>
-    <mergeCell ref="F52:M52"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C48:E48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6727,50 +6725,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="102"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="107"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="86">
         <v>100000000</v>
       </c>
-      <c r="F4" s="103"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -6782,17 +6780,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="87">
         <v>100000</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -6804,17 +6802,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="108"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="87">
         <v>1000000</v>
       </c>
-      <c r="F6" s="104"/>
+      <c r="F6" s="87"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -6826,15 +6824,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="105">
+      <c r="E7" s="88">
         <v>150000000</v>
       </c>
-      <c r="F7" s="105"/>
+      <c r="F7" s="88"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -6843,17 +6841,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="98">
         <v>200000000</v>
       </c>
-      <c r="F8" s="98"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6865,17 +6863,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="106"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="100">
         <v>20000000</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -6887,17 +6885,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="106"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="100">
         <v>2000000</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -6909,17 +6907,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="106"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="100">
         <v>1000000</v>
       </c>
-      <c r="F11" s="100"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -6931,17 +6929,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="94">
         <v>2000000</v>
       </c>
-      <c r="F12" s="94"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -6953,17 +6951,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="94">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -6975,17 +6973,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="94">
         <v>4000000</v>
       </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -6997,17 +6995,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="96">
         <v>500000000</v>
       </c>
-      <c r="F15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -7019,17 +7017,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="96">
         <v>200000000</v>
       </c>
-      <c r="F16" s="96"/>
+      <c r="F16" s="97"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -7041,17 +7039,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="96">
         <v>10000000</v>
       </c>
-      <c r="F17" s="96"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -7059,35 +7057,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
-    </row>
-    <row r="19" spans="1:8" s="88" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
+    <row r="18" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="59"/>
+    </row>
+    <row r="19" spans="1:8" s="108" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -7114,17 +7112,17 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55">
+      <c r="A22" s="80">
         <v>0</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="80">
         <v>0</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="91" t="s">
+      <c r="D22" s="80"/>
+      <c r="E22" s="103" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -7135,11 +7133,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="91"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="103"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
@@ -7148,61 +7146,61 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="91"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="103"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="82"/>
+      <c r="G24" s="110"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="91"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="83"/>
+      <c r="G25" s="111"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="91"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="103"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="83"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="91"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="84"/>
+      <c r="G27" s="112"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92">
+      <c r="A28" s="102">
         <v>1</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="92">
+      <c r="C28" s="102">
         <v>2</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="90" t="s">
+      <c r="D28" s="102"/>
+      <c r="E28" s="104" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -7213,11 +7211,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="90"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
@@ -7226,61 +7224,61 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="90"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="82"/>
+      <c r="G30" s="110"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="90"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="83"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="90"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="83"/>
+      <c r="G32" s="111"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="90"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="84"/>
+      <c r="G33" s="112"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55">
+      <c r="A34" s="80">
         <v>2</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="80">
         <v>6</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="91" t="s">
+      <c r="D34" s="80"/>
+      <c r="E34" s="103" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -7291,11 +7289,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="91"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="103"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
@@ -7304,61 +7302,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="91"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="103"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="82"/>
+      <c r="G36" s="110"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="91"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="103"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="91"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="103"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="83"/>
+      <c r="G38" s="111"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="91"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="103"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="84"/>
+      <c r="G39" s="112"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92">
+      <c r="A40" s="102">
         <v>3</v>
       </c>
-      <c r="B40" s="92">
+      <c r="B40" s="102">
         <v>0</v>
       </c>
-      <c r="C40" s="92">
+      <c r="C40" s="102">
         <v>3</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="90" t="s">
+      <c r="D40" s="102"/>
+      <c r="E40" s="104" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -7369,11 +7367,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="90"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
@@ -7382,61 +7380,61 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="90"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="82"/>
+      <c r="G42" s="110"/>
     </row>
     <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="90"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="83"/>
+      <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="90"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="83"/>
+      <c r="G44" s="111"/>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="90"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="84"/>
+      <c r="G45" s="112"/>
     </row>
     <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55">
+      <c r="A46" s="80">
         <v>4</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="80">
         <v>0</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="80">
         <v>4</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="91" t="s">
+      <c r="D46" s="80"/>
+      <c r="E46" s="103" t="s">
         <v>111</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -7447,11 +7445,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="91"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="103"/>
       <c r="F47" s="17" t="s">
         <v>74</v>
       </c>
@@ -7460,61 +7458,61 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="91"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="103"/>
       <c r="F48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="82"/>
+      <c r="G48" s="110"/>
     </row>
     <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="91"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="103"/>
       <c r="F49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="83"/>
+      <c r="G49" s="111"/>
     </row>
     <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="91"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="103"/>
       <c r="F50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="83"/>
+      <c r="G50" s="111"/>
     </row>
     <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="91"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="103"/>
       <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="84"/>
+      <c r="G51" s="112"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="92">
+      <c r="A52" s="102">
         <v>5</v>
       </c>
-      <c r="B52" s="92">
+      <c r="B52" s="102">
         <v>1</v>
       </c>
-      <c r="C52" s="92">
+      <c r="C52" s="102">
         <v>3</v>
       </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="90" t="s">
+      <c r="D52" s="102"/>
+      <c r="E52" s="104" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -7525,11 +7523,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="92"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="90"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="18" t="s">
         <v>74</v>
       </c>
@@ -7538,61 +7536,61 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="90"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="82"/>
+      <c r="G54" s="110"/>
     </row>
     <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="92"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="90"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="83"/>
+      <c r="G55" s="111"/>
     </row>
     <row r="56" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="92"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="90"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="83"/>
+      <c r="G56" s="111"/>
     </row>
     <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="92"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="90"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="84"/>
+      <c r="G57" s="112"/>
     </row>
     <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="55">
+      <c r="A58" s="80">
         <v>6</v>
       </c>
-      <c r="B58" s="55">
+      <c r="B58" s="80">
         <v>1</v>
       </c>
-      <c r="C58" s="55">
+      <c r="C58" s="80">
         <v>4</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="91" t="s">
+      <c r="D58" s="80"/>
+      <c r="E58" s="103" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="17" t="s">
@@ -7603,11 +7601,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="91"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="103"/>
       <c r="F59" s="17" t="s">
         <v>74</v>
       </c>
@@ -7616,61 +7614,61 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="91"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="103"/>
       <c r="F60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="82"/>
+      <c r="G60" s="110"/>
     </row>
     <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="91"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="103"/>
       <c r="F61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="83"/>
+      <c r="G61" s="111"/>
     </row>
     <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="91"/>
+      <c r="A62" s="80"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="103"/>
       <c r="F62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="83"/>
+      <c r="G62" s="111"/>
     </row>
     <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="91"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="103"/>
       <c r="F63" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="84"/>
+      <c r="G63" s="112"/>
     </row>
     <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="92">
+      <c r="A64" s="102">
         <v>7</v>
       </c>
-      <c r="B64" s="92">
+      <c r="B64" s="102">
         <v>1</v>
       </c>
-      <c r="C64" s="92">
+      <c r="C64" s="102">
         <v>7</v>
       </c>
-      <c r="D64" s="92"/>
-      <c r="E64" s="90" t="s">
+      <c r="D64" s="102"/>
+      <c r="E64" s="104" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -7681,11 +7679,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="92"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="90"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="104"/>
       <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
@@ -7694,61 +7692,61 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="90"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="104"/>
       <c r="F66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="82"/>
+      <c r="G66" s="110"/>
     </row>
     <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="92"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="90"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="104"/>
       <c r="F67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="83"/>
+      <c r="G67" s="111"/>
     </row>
     <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="92"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="90"/>
+      <c r="A68" s="102"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="104"/>
       <c r="F68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="83"/>
+      <c r="G68" s="111"/>
     </row>
     <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="92"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="90"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="104"/>
       <c r="F69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="84"/>
+      <c r="G69" s="112"/>
     </row>
     <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="55">
+      <c r="A70" s="80">
         <v>8</v>
       </c>
-      <c r="B70" s="55">
+      <c r="B70" s="80">
         <v>5</v>
       </c>
-      <c r="C70" s="55">
+      <c r="C70" s="80">
         <v>3</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="91" t="s">
+      <c r="D70" s="80"/>
+      <c r="E70" s="103" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="17" t="s">
@@ -7759,11 +7757,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="55"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="91"/>
+      <c r="A71" s="80"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="103"/>
       <c r="F71" s="17" t="s">
         <v>74</v>
       </c>
@@ -7772,61 +7770,61 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="91"/>
+      <c r="A72" s="80"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="103"/>
       <c r="F72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="82"/>
+      <c r="G72" s="110"/>
     </row>
     <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="55"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="91"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="103"/>
       <c r="F73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="83"/>
+      <c r="G73" s="111"/>
     </row>
     <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="91"/>
+      <c r="A74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="103"/>
       <c r="F74" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="83"/>
+      <c r="G74" s="111"/>
     </row>
     <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="91"/>
+      <c r="A75" s="80"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="103"/>
       <c r="F75" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="84"/>
+      <c r="G75" s="112"/>
     </row>
     <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="92">
+      <c r="A76" s="102">
         <v>9</v>
       </c>
-      <c r="B76" s="92">
+      <c r="B76" s="102">
         <v>5</v>
       </c>
-      <c r="C76" s="92">
+      <c r="C76" s="102">
         <v>9</v>
       </c>
-      <c r="D76" s="92"/>
-      <c r="E76" s="90" t="s">
+      <c r="D76" s="102"/>
+      <c r="E76" s="104" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
@@ -7837,11 +7835,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="90"/>
+      <c r="A77" s="102"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="104"/>
       <c r="F77" s="18" t="s">
         <v>74</v>
       </c>
@@ -7850,61 +7848,61 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="92"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="90"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="104"/>
       <c r="F78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G78" s="82"/>
+      <c r="G78" s="110"/>
     </row>
     <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="92"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="90"/>
+      <c r="A79" s="102"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="104"/>
       <c r="F79" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="83"/>
+      <c r="G79" s="111"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="92"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="90"/>
+      <c r="A80" s="102"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="104"/>
       <c r="F80" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="83"/>
+      <c r="G80" s="111"/>
     </row>
     <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="92"/>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="90"/>
+      <c r="A81" s="102"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="104"/>
       <c r="F81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="84"/>
+      <c r="G81" s="112"/>
     </row>
     <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="55">
+      <c r="A82" s="80">
         <v>10</v>
       </c>
-      <c r="B82" s="55">
+      <c r="B82" s="80">
         <v>6</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="80">
         <v>4</v>
       </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="91" t="s">
+      <c r="D82" s="80"/>
+      <c r="E82" s="103" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="17" t="s">
@@ -7915,11 +7913,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="91"/>
+      <c r="A83" s="80"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="103"/>
       <c r="F83" s="17" t="s">
         <v>74</v>
       </c>
@@ -7928,61 +7926,61 @@
       </c>
     </row>
     <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="91"/>
+      <c r="A84" s="80"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="103"/>
       <c r="F84" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="82"/>
+      <c r="G84" s="110"/>
     </row>
     <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="91"/>
+      <c r="A85" s="80"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="103"/>
       <c r="F85" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="83"/>
+      <c r="G85" s="111"/>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="91"/>
+      <c r="A86" s="80"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="103"/>
       <c r="F86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="83"/>
+      <c r="G86" s="111"/>
     </row>
     <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="91"/>
+      <c r="A87" s="80"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="103"/>
       <c r="F87" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="84"/>
+      <c r="G87" s="112"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="92">
+      <c r="A88" s="102">
         <v>11</v>
       </c>
-      <c r="B88" s="92">
+      <c r="B88" s="102">
         <v>4</v>
       </c>
-      <c r="C88" s="92">
+      <c r="C88" s="102">
         <v>10</v>
       </c>
-      <c r="D88" s="92"/>
-      <c r="E88" s="89" t="s">
+      <c r="D88" s="102"/>
+      <c r="E88" s="109" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18" t="s">
@@ -7993,11 +7991,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="92"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="89"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="102"/>
+      <c r="D89" s="102"/>
+      <c r="E89" s="109"/>
       <c r="F89" s="18" t="s">
         <v>74</v>
       </c>
@@ -8006,61 +8004,61 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="92"/>
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="89"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="109"/>
       <c r="F90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G90" s="82"/>
+      <c r="G90" s="110"/>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="92"/>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="89"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="109"/>
       <c r="F91" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="83"/>
+      <c r="G91" s="111"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="92"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="89"/>
+      <c r="A92" s="102"/>
+      <c r="B92" s="102"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="102"/>
+      <c r="E92" s="109"/>
       <c r="F92" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="83"/>
+      <c r="G92" s="111"/>
     </row>
     <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="92"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="89"/>
+      <c r="A93" s="102"/>
+      <c r="B93" s="102"/>
+      <c r="C93" s="102"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="109"/>
       <c r="F93" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="84"/>
+      <c r="G93" s="112"/>
     </row>
     <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="55">
+      <c r="A94" s="80">
         <v>12</v>
       </c>
-      <c r="B94" s="55">
+      <c r="B94" s="80">
         <v>7</v>
       </c>
-      <c r="C94" s="55">
+      <c r="C94" s="80">
         <v>11</v>
       </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="89" t="s">
+      <c r="D94" s="80"/>
+      <c r="E94" s="109" t="s">
         <v>120</v>
       </c>
       <c r="F94" s="17" t="s">
@@ -8071,11 +8069,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="55"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="89"/>
+      <c r="A95" s="80"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="109"/>
       <c r="F95" s="17" t="s">
         <v>74</v>
       </c>
@@ -8084,61 +8082,61 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="89"/>
+      <c r="A96" s="80"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="109"/>
       <c r="F96" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="82"/>
+      <c r="G96" s="110"/>
     </row>
     <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="55"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="89"/>
+      <c r="A97" s="80"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="109"/>
       <c r="F97" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="83"/>
+      <c r="G97" s="111"/>
     </row>
     <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="89"/>
+      <c r="A98" s="80"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="109"/>
       <c r="F98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="83"/>
+      <c r="G98" s="111"/>
     </row>
     <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="55"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="89"/>
+      <c r="A99" s="80"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="109"/>
       <c r="F99" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G99" s="84"/>
+      <c r="G99" s="112"/>
     </row>
     <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="92">
+      <c r="A100" s="102">
         <v>13</v>
       </c>
-      <c r="B100" s="92">
+      <c r="B100" s="102">
         <v>11</v>
       </c>
-      <c r="C100" s="92">
+      <c r="C100" s="102">
         <v>12</v>
       </c>
-      <c r="D100" s="92"/>
-      <c r="E100" s="89" t="s">
+      <c r="D100" s="102"/>
+      <c r="E100" s="109" t="s">
         <v>121</v>
       </c>
       <c r="F100" s="18" t="s">
@@ -8149,11 +8147,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="92"/>
-      <c r="B101" s="92"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="89"/>
+      <c r="A101" s="102"/>
+      <c r="B101" s="102"/>
+      <c r="C101" s="102"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="109"/>
       <c r="F101" s="18" t="s">
         <v>74</v>
       </c>
@@ -8162,61 +8160,61 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="92"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="89"/>
+      <c r="A102" s="102"/>
+      <c r="B102" s="102"/>
+      <c r="C102" s="102"/>
+      <c r="D102" s="102"/>
+      <c r="E102" s="109"/>
       <c r="F102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="82"/>
+      <c r="G102" s="110"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="92"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="89"/>
+      <c r="A103" s="102"/>
+      <c r="B103" s="102"/>
+      <c r="C103" s="102"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="109"/>
       <c r="F103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="83"/>
+      <c r="G103" s="111"/>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="92"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="89"/>
+      <c r="A104" s="102"/>
+      <c r="B104" s="102"/>
+      <c r="C104" s="102"/>
+      <c r="D104" s="102"/>
+      <c r="E104" s="109"/>
       <c r="F104" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="83"/>
+      <c r="G104" s="111"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="92"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="89"/>
+      <c r="A105" s="102"/>
+      <c r="B105" s="102"/>
+      <c r="C105" s="102"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="109"/>
       <c r="F105" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="84"/>
+      <c r="G105" s="112"/>
     </row>
     <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="55">
+      <c r="A106" s="80">
         <v>14</v>
       </c>
-      <c r="B106" s="55">
+      <c r="B106" s="80">
         <v>3</v>
       </c>
-      <c r="C106" s="55">
+      <c r="C106" s="80">
         <v>10</v>
       </c>
-      <c r="D106" s="55"/>
-      <c r="E106" s="89" t="s">
+      <c r="D106" s="80"/>
+      <c r="E106" s="109" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="17" t="s">
@@ -8227,11 +8225,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="55"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="89"/>
+      <c r="A107" s="80"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="109"/>
       <c r="F107" s="17" t="s">
         <v>74</v>
       </c>
@@ -8240,61 +8238,61 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="55"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="89"/>
+      <c r="A108" s="80"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="109"/>
       <c r="F108" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="82"/>
+      <c r="G108" s="110"/>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="89"/>
+      <c r="A109" s="80"/>
+      <c r="B109" s="80"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="109"/>
       <c r="F109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="83"/>
+      <c r="G109" s="111"/>
     </row>
     <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="55"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="89"/>
+      <c r="A110" s="80"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="109"/>
       <c r="F110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="83"/>
+      <c r="G110" s="111"/>
     </row>
     <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="55"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="89"/>
+      <c r="A111" s="80"/>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="109"/>
       <c r="F111" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="84"/>
+      <c r="G111" s="112"/>
     </row>
     <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="92">
+      <c r="A112" s="102">
         <v>15</v>
       </c>
-      <c r="B112" s="92">
+      <c r="B112" s="102">
         <v>12</v>
       </c>
-      <c r="C112" s="92">
+      <c r="C112" s="102">
         <v>3</v>
       </c>
-      <c r="D112" s="92"/>
-      <c r="E112" s="90" t="s">
+      <c r="D112" s="102"/>
+      <c r="E112" s="104" t="s">
         <v>123</v>
       </c>
       <c r="F112" s="18" t="s">
@@ -8305,11 +8303,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92"/>
-      <c r="B113" s="92"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="92"/>
-      <c r="E113" s="90"/>
+      <c r="A113" s="102"/>
+      <c r="B113" s="102"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="102"/>
+      <c r="E113" s="104"/>
       <c r="F113" s="18" t="s">
         <v>74</v>
       </c>
@@ -8318,61 +8316,61 @@
       </c>
     </row>
     <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="92"/>
-      <c r="B114" s="92"/>
-      <c r="C114" s="92"/>
-      <c r="D114" s="92"/>
-      <c r="E114" s="90"/>
+      <c r="A114" s="102"/>
+      <c r="B114" s="102"/>
+      <c r="C114" s="102"/>
+      <c r="D114" s="102"/>
+      <c r="E114" s="104"/>
       <c r="F114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="82"/>
+      <c r="G114" s="110"/>
     </row>
     <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="92"/>
-      <c r="B115" s="92"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="90"/>
+      <c r="A115" s="102"/>
+      <c r="B115" s="102"/>
+      <c r="C115" s="102"/>
+      <c r="D115" s="102"/>
+      <c r="E115" s="104"/>
       <c r="F115" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="83"/>
+      <c r="G115" s="111"/>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="92"/>
-      <c r="B116" s="92"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="92"/>
-      <c r="E116" s="90"/>
+      <c r="A116" s="102"/>
+      <c r="B116" s="102"/>
+      <c r="C116" s="102"/>
+      <c r="D116" s="102"/>
+      <c r="E116" s="104"/>
       <c r="F116" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="83"/>
+      <c r="G116" s="111"/>
     </row>
     <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="92"/>
-      <c r="B117" s="92"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="90"/>
+      <c r="A117" s="102"/>
+      <c r="B117" s="102"/>
+      <c r="C117" s="102"/>
+      <c r="D117" s="102"/>
+      <c r="E117" s="104"/>
       <c r="F117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G117" s="84"/>
+      <c r="G117" s="112"/>
     </row>
     <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="55">
+      <c r="A118" s="80">
         <v>16</v>
       </c>
-      <c r="B118" s="55">
+      <c r="B118" s="80">
         <v>8</v>
       </c>
-      <c r="C118" s="55">
+      <c r="C118" s="80">
         <v>1</v>
       </c>
-      <c r="D118" s="55"/>
-      <c r="E118" s="91" t="s">
+      <c r="D118" s="80"/>
+      <c r="E118" s="103" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="17" t="s">
@@ -8383,11 +8381,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="55"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="55"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="91"/>
+      <c r="A119" s="80"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="103"/>
       <c r="F119" s="17" t="s">
         <v>74</v>
       </c>
@@ -8396,61 +8394,61 @@
       </c>
     </row>
     <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="55"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="91"/>
+      <c r="A120" s="80"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="103"/>
       <c r="F120" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="82"/>
+      <c r="G120" s="110"/>
     </row>
     <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="55"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="91"/>
+      <c r="A121" s="80"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="80"/>
+      <c r="E121" s="103"/>
       <c r="F121" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="83"/>
+      <c r="G121" s="111"/>
     </row>
     <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="55"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="91"/>
+      <c r="A122" s="80"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="103"/>
       <c r="F122" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="83"/>
+      <c r="G122" s="111"/>
     </row>
     <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="55"/>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="91"/>
+      <c r="A123" s="80"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="103"/>
       <c r="F123" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="84"/>
+      <c r="G123" s="112"/>
     </row>
     <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="92">
+      <c r="A124" s="102">
         <v>17</v>
       </c>
-      <c r="B124" s="92">
+      <c r="B124" s="102">
         <v>2</v>
       </c>
-      <c r="C124" s="92">
+      <c r="C124" s="102">
         <v>3</v>
       </c>
-      <c r="D124" s="92"/>
-      <c r="E124" s="90" t="s">
+      <c r="D124" s="102"/>
+      <c r="E124" s="104" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="18" t="s">
@@ -8461,11 +8459,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="92"/>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="90"/>
+      <c r="A125" s="102"/>
+      <c r="B125" s="102"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="102"/>
+      <c r="E125" s="104"/>
       <c r="F125" s="18" t="s">
         <v>74</v>
       </c>
@@ -8474,61 +8472,61 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="92"/>
-      <c r="B126" s="92"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="90"/>
+      <c r="A126" s="102"/>
+      <c r="B126" s="102"/>
+      <c r="C126" s="102"/>
+      <c r="D126" s="102"/>
+      <c r="E126" s="104"/>
       <c r="F126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="82"/>
+      <c r="G126" s="110"/>
     </row>
     <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="92"/>
-      <c r="B127" s="92"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="90"/>
+      <c r="A127" s="102"/>
+      <c r="B127" s="102"/>
+      <c r="C127" s="102"/>
+      <c r="D127" s="102"/>
+      <c r="E127" s="104"/>
       <c r="F127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="83"/>
+      <c r="G127" s="111"/>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="92"/>
-      <c r="B128" s="92"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="92"/>
-      <c r="E128" s="90"/>
+      <c r="A128" s="102"/>
+      <c r="B128" s="102"/>
+      <c r="C128" s="102"/>
+      <c r="D128" s="102"/>
+      <c r="E128" s="104"/>
       <c r="F128" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="83"/>
+      <c r="G128" s="111"/>
     </row>
     <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="92"/>
-      <c r="B129" s="92"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="90"/>
+      <c r="A129" s="102"/>
+      <c r="B129" s="102"/>
+      <c r="C129" s="102"/>
+      <c r="D129" s="102"/>
+      <c r="E129" s="104"/>
       <c r="F129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="84"/>
+      <c r="G129" s="112"/>
     </row>
     <row r="130" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="55">
+      <c r="A130" s="80">
         <v>18</v>
       </c>
-      <c r="B130" s="55">
+      <c r="B130" s="80">
         <v>2</v>
       </c>
-      <c r="C130" s="55">
+      <c r="C130" s="80">
         <v>9</v>
       </c>
-      <c r="D130" s="55"/>
-      <c r="E130" s="91" t="s">
+      <c r="D130" s="80"/>
+      <c r="E130" s="103" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="17" t="s">
@@ -8539,11 +8537,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="55"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="55"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="91"/>
+      <c r="A131" s="80"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="103"/>
       <c r="F131" s="17" t="s">
         <v>74</v>
       </c>
@@ -8552,61 +8550,61 @@
       </c>
     </row>
     <row r="132" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="55"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="91"/>
+      <c r="A132" s="80"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="103"/>
       <c r="F132" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="82"/>
+      <c r="G132" s="110"/>
     </row>
     <row r="133" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="55"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="55"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="91"/>
+      <c r="A133" s="80"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="103"/>
       <c r="F133" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="83"/>
+      <c r="G133" s="111"/>
     </row>
     <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="55"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="91"/>
+      <c r="A134" s="80"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="103"/>
       <c r="F134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="83"/>
+      <c r="G134" s="111"/>
     </row>
     <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="55"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="91"/>
+      <c r="A135" s="80"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="103"/>
       <c r="F135" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G135" s="84"/>
+      <c r="G135" s="112"/>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="92">
+      <c r="A136" s="102">
         <v>19</v>
       </c>
-      <c r="B136" s="92">
+      <c r="B136" s="102">
         <v>8</v>
       </c>
-      <c r="C136" s="92">
+      <c r="C136" s="102">
         <v>7</v>
       </c>
-      <c r="D136" s="92"/>
-      <c r="E136" s="90" t="s">
+      <c r="D136" s="102"/>
+      <c r="E136" s="104" t="s">
         <v>126</v>
       </c>
       <c r="F136" s="18" t="s">
@@ -8617,11 +8615,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="92"/>
-      <c r="B137" s="92"/>
-      <c r="C137" s="92"/>
-      <c r="D137" s="92"/>
-      <c r="E137" s="90"/>
+      <c r="A137" s="102"/>
+      <c r="B137" s="102"/>
+      <c r="C137" s="102"/>
+      <c r="D137" s="102"/>
+      <c r="E137" s="104"/>
       <c r="F137" s="18" t="s">
         <v>74</v>
       </c>
@@ -8630,51 +8628,182 @@
       </c>
     </row>
     <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="92"/>
-      <c r="B138" s="92"/>
-      <c r="C138" s="92"/>
-      <c r="D138" s="92"/>
-      <c r="E138" s="90"/>
+      <c r="A138" s="102"/>
+      <c r="B138" s="102"/>
+      <c r="C138" s="102"/>
+      <c r="D138" s="102"/>
+      <c r="E138" s="104"/>
       <c r="F138" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G138" s="82"/>
+      <c r="G138" s="110"/>
     </row>
     <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="92"/>
-      <c r="B139" s="92"/>
-      <c r="C139" s="92"/>
-      <c r="D139" s="92"/>
-      <c r="E139" s="90"/>
+      <c r="A139" s="102"/>
+      <c r="B139" s="102"/>
+      <c r="C139" s="102"/>
+      <c r="D139" s="102"/>
+      <c r="E139" s="104"/>
       <c r="F139" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="83"/>
+      <c r="G139" s="111"/>
     </row>
     <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="92"/>
-      <c r="B140" s="92"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="92"/>
-      <c r="E140" s="90"/>
+      <c r="A140" s="102"/>
+      <c r="B140" s="102"/>
+      <c r="C140" s="102"/>
+      <c r="D140" s="102"/>
+      <c r="E140" s="104"/>
       <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="83"/>
+      <c r="G140" s="111"/>
     </row>
     <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="92"/>
-      <c r="B141" s="92"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="90"/>
+      <c r="A141" s="102"/>
+      <c r="B141" s="102"/>
+      <c r="C141" s="102"/>
+      <c r="D141" s="102"/>
+      <c r="E141" s="104"/>
       <c r="F141" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="84"/>
+      <c r="G141" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="E94:E99"/>
+    <mergeCell ref="E100:E105"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="E124:E129"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E136:E141"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="B15:C15"/>
@@ -8699,137 +8828,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C112:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E130:E135"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="E94:E99"/>
-    <mergeCell ref="E100:E105"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="E124:E129"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E76:E81"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="G126:G129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8851,47 +8849,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
@@ -9360,70 +9358,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9894,70 +9892,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10428,70 +10426,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -10975,70 +10973,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>

--- a/testsheet/testsheet.xlsx
+++ b/testsheet/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\solidity\mkdocs\dex-doc\testsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDE0E4-50D9-4278-A2E5-2C0CD790E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBD74E1-F374-4D8C-B704-3F33D2B1170E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="1" xr2:uid="{0E51E971-1461-4994-9815-F84780D3A883}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 방법" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="242">
   <si>
     <t>.num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -967,6 +967,14 @@
   </si>
   <si>
     <t>0x125e64F6594Ff13479B0d9525B9dd2FF6098552c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x78F90f6C27a4CD22d08166b32D633A9E374B7F08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB41b8B11FE07355fb60abCBeD548FD162033e5Ce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1440,21 +1448,84 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1462,10 +1533,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1473,71 +1544,65 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1567,63 +1632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1659,6 +1667,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1B918F-82B0-7FC5-CAAF-ADF6FF503D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="476250" y="11287125"/>
+          <a:ext cx="13963650" cy="5019675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2288,11 +2362,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="113" t="s">
         <v>136</v>
       </c>
@@ -2330,28 +2404,28 @@
       <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2822,11 +2896,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="113" t="s">
         <v>138</v>
       </c>
@@ -2864,28 +2938,28 @@
       <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3356,11 +3430,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="113" t="s">
         <v>140</v>
       </c>
@@ -3398,28 +3472,28 @@
       <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3890,11 +3964,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="113" t="s">
         <v>142</v>
       </c>
@@ -3932,28 +4006,28 @@
       <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4424,11 +4498,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="113" t="s">
         <v>144</v>
       </c>
@@ -4466,28 +4540,28 @@
       <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -4958,11 +5032,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="113" t="s">
         <v>146</v>
       </c>
@@ -5000,28 +5074,28 @@
       <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -5482,8 +5556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F661FF6-4AD5-40E4-982D-024A96661DAF}">
   <dimension ref="A2:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" activeCellId="1" sqref="O39 O33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5494,17 +5568,17 @@
     <col min="4" max="4" width="7.125" style="23" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="29" customWidth="1"/>
     <col min="14" max="14" width="9.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.5" style="31" customWidth="1"/>
     <col min="16" max="16" width="12.125" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17.25" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="58"/>
       <c r="R2" s="33" t="s">
         <v>185</v>
       </c>
@@ -5533,25 +5607,25 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="37"/>
@@ -5560,23 +5634,23 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="38"/>
@@ -5585,25 +5659,25 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
       <c r="N6" s="34">
         <v>1000</v>
       </c>
@@ -5618,23 +5692,23 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="38"/>
@@ -5643,25 +5717,25 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5673,35 +5747,35 @@
       <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="51" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="58" t="s">
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -5713,20 +5787,23 @@
       <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="77">
         <v>150000000</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="51" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="O11" s="31" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -5738,20 +5815,20 @@
       <c r="C12" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="77">
         <v>10000000</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="78"/>
+      <c r="F12" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -5763,41 +5840,41 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="77">
         <v>10000000</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="51" t="s">
+      <c r="E13" s="78"/>
+      <c r="F13" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -5815,19 +5892,19 @@
       <c r="E15" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="74" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -5842,57 +5919,57 @@
       <c r="E16" s="47">
         <v>2000</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="38"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="38"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="74" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5907,57 +5984,57 @@
       <c r="E19" s="47">
         <v>100</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="58" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="51" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -5972,429 +6049,426 @@
       <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="38"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="38"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="O27" s="31" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="O29" s="31">
-        <v>9.9889979999755599E+24</v>
-      </c>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>4</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="O30" s="31">
-        <v>9.9778780292155191E+24</v>
-      </c>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53" t="s">
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>7</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51" t="s">
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53" t="s">
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>10</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51" t="s">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>11</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80" t="s">
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>12</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>13</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>14</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51" t="s">
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>15</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51" t="s">
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>16</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
@@ -6412,50 +6486,50 @@
       <c r="M43" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83" t="s">
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
       <c r="F48" s="52" t="s">
         <v>221</v>
       </c>
@@ -6471,9 +6545,9 @@
       <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="52" t="s">
         <v>222</v>
       </c>
@@ -6489,9 +6563,9 @@
       <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
       <c r="F50" s="52" t="s">
         <v>227</v>
       </c>
@@ -6509,9 +6583,9 @@
       <c r="B51" s="11">
         <v>4</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
       <c r="F51" s="52" t="s">
         <v>228</v>
       </c>
@@ -6529,9 +6603,9 @@
       <c r="B52" s="11">
         <v>5</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
       <c r="F52" s="52" t="s">
         <v>223</v>
       </c>
@@ -6547,9 +6621,9 @@
       <c r="B53" s="11">
         <v>6</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
       <c r="F53" s="52" t="s">
         <v>224</v>
       </c>
@@ -6565,9 +6639,9 @@
       <c r="B54" s="11">
         <v>7</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="52" t="s">
         <v>225</v>
       </c>
@@ -6583,9 +6657,9 @@
       <c r="B55" s="11">
         <v>8</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
       <c r="F55" s="52" t="s">
         <v>226</v>
       </c>
@@ -6599,6 +6673,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="A8:S8"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="F45:M45"/>
     <mergeCell ref="F55:M55"/>
@@ -6615,91 +6770,11 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="A8:S8"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F35:M35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6725,50 +6800,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="104"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="90"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="86">
+      <c r="E4" s="105">
         <v>100000000</v>
       </c>
-      <c r="F4" s="86"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
@@ -6780,17 +6855,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="87">
+      <c r="E5" s="106">
         <v>100000</v>
       </c>
-      <c r="F5" s="87"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
@@ -6802,17 +6877,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="106">
         <v>1000000</v>
       </c>
-      <c r="F6" s="87"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
@@ -6824,15 +6899,15 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="88">
+      <c r="E7" s="107">
         <v>150000000</v>
       </c>
-      <c r="F7" s="88"/>
+      <c r="F7" s="107"/>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -6841,17 +6916,17 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="93"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="99">
         <v>200000000</v>
       </c>
-      <c r="F8" s="99"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6863,17 +6938,17 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="101">
         <v>20000000</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
@@ -6885,17 +6960,17 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="101">
         <v>2000000</v>
       </c>
-      <c r="F10" s="101"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="11" t="s">
         <v>92</v>
       </c>
@@ -6907,17 +6982,17 @@
       <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="101">
         <v>1000000</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
@@ -6929,17 +7004,17 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="95">
         <v>2000000</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="11" t="s">
         <v>96</v>
       </c>
@@ -6951,17 +7026,17 @@
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="95">
         <v>1000000000</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="G13" s="11" t="s">
         <v>98</v>
       </c>
@@ -6973,17 +7048,17 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="95">
         <v>4000000</v>
       </c>
-      <c r="F14" s="95"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
@@ -6995,17 +7070,17 @@
       <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="84"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="97">
         <v>500000000</v>
       </c>
-      <c r="F15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="11" t="s">
         <v>102</v>
       </c>
@@ -7017,17 +7092,17 @@
       <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="97">
         <v>200000000</v>
       </c>
-      <c r="F16" s="97"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="11" t="s">
         <v>104</v>
       </c>
@@ -7039,17 +7114,17 @@
       <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="97">
         <v>10000000</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="11" t="s">
         <v>106</v>
       </c>
@@ -7057,35 +7132,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="59"/>
-    </row>
-    <row r="19" spans="1:8" s="108" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
+    <row r="18" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="1:8" s="90" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
@@ -7112,17 +7187,17 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80">
+      <c r="A22" s="55">
         <v>0</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="55">
         <v>0</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="103" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="93" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -7133,11 +7208,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="103"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
@@ -7146,61 +7221,61 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="103"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="110"/>
+      <c r="G24" s="84"/>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="103"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="111"/>
+      <c r="G25" s="85"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="103"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="111"/>
+      <c r="G26" s="85"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="103"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="112"/>
+      <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="102">
+      <c r="A28" s="94">
         <v>1</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="102">
+      <c r="C28" s="94">
         <v>2</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="104" t="s">
+      <c r="D28" s="94"/>
+      <c r="E28" s="92" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -7211,11 +7286,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="104"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="18" t="s">
         <v>74</v>
       </c>
@@ -7224,61 +7299,61 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="102"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="104"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="110"/>
+      <c r="G30" s="84"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="102"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="104"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="111"/>
+      <c r="G31" s="85"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="104"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="111"/>
+      <c r="G32" s="85"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="104"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="112"/>
+      <c r="G33" s="86"/>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="80">
+      <c r="A34" s="55">
         <v>2</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="55">
         <v>6</v>
       </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="103" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="93" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -7289,11 +7364,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="103"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="17" t="s">
         <v>74</v>
       </c>
@@ -7302,61 +7377,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="103"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="110"/>
+      <c r="G36" s="84"/>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="103"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="111"/>
+      <c r="G37" s="85"/>
     </row>
     <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="103"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="111"/>
+      <c r="G38" s="85"/>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="103"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="112"/>
+      <c r="G39" s="86"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="102">
+      <c r="A40" s="94">
         <v>3</v>
       </c>
-      <c r="B40" s="102">
+      <c r="B40" s="94">
         <v>0</v>
       </c>
-      <c r="C40" s="102">
+      <c r="C40" s="94">
         <v>3</v>
       </c>
-      <c r="D40" s="102"/>
-      <c r="E40" s="104" t="s">
+      <c r="D40" s="94"/>
+      <c r="E40" s="92" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -7367,11 +7442,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="102"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="104"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="92"/>
       <c r="F41" s="18" t="s">
         <v>74</v>
       </c>
@@ -7380,61 +7455,61 @@
       </c>
     </row>
     <row r="42" 